--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1124,52 +1124,46 @@
     <t xml:space="preserve">JaekyungMon</t>
   </si>
   <si>
-    <t xml:space="preserve">Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EquipLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CriticalChance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CriticalDamage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
+    <t xml:space="preserve">_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_equipLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Breesha</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Breesha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eve</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Eve</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adam</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abel</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Abel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kain</t>
   </si>
   <si>
+    <t xml:space="preserve">Prefabs/Skill/Kain</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japheth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Japheth</t>
   </si>
   <si>
     <t xml:space="preserve">철수</t>
@@ -1247,9 +1241,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0_);[RED]\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1289,20 +1283,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1320,17 +1300,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFC9DAF8"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1350,21 +1330,6 @@
       <right/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1393,7 +1358,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1454,16 +1419,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1491,7 +1448,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -3108,8 +3065,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3187,10 +3144,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="H2" s="13" t="n">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>10</v>
@@ -3298,282 +3255,320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.65"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="C2" s="13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="C3" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>103</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="C4" s="13" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>104</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="C5" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K5" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
-        <v>101</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>105</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16" t="n">
+      <c r="C6" s="13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13" t="n">
         <v>110</v>
       </c>
-      <c r="H2" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="I2" s="17" t="n">
+      <c r="H6" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K6" s="15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>106</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="J2" s="16" t="n">
-        <v>140</v>
-      </c>
-      <c r="K2" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
-        <v>102</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="16" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="H3" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" s="16" t="n">
+      <c r="H7" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="K3" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
-        <v>103</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="16" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>130</v>
-      </c>
-      <c r="K4" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
-        <v>104</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="I7" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" s="16" t="n">
-        <v>60</v>
-      </c>
-      <c r="K5" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L5" s="16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16" t="n">
-        <v>110</v>
-      </c>
-      <c r="H6" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" s="16" t="n">
-        <v>140</v>
-      </c>
-      <c r="K6" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="L6" s="16" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
-        <v>106</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" s="16" t="n">
-        <v>80</v>
-      </c>
-      <c r="K7" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="L7" s="16" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="N7" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3621,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -3635,10 +3630,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -3649,10 +3644,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -3663,10 +3658,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -3677,10 +3672,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -3691,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -3749,52 +3744,52 @@
         <v>38</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>92</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" state="visible" r:id="rId2"/>
@@ -3065,8 +3065,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3257,8 +3257,8 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -1304,6 +1304,110 @@
   </si>
   <si>
     <t>Prefabs/Skill/Eve/Skill4</t>
+  </si>
+  <si>
+    <t>IconPath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill1</t>
+  </si>
+  <si>
+    <t>UI/Icon/Skill1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill2</t>
+  </si>
+  <si>
+    <t>UI/Icon/Skill2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Breesha3</t>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Breesha3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Breesha4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Adam4</t>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Breesha4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Eve3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Eve3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Eve3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Eve4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Eve4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Adam3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Adam3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Adam3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Adam4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Abel3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Abel3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Abel3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Abel4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Abel4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Kain3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Kain3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Skill_Kain4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1764,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1782,10 +1886,11 @@
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="12" customWidth="1"/>
+    <col min="14" max="14" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="1026" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,8 +1930,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>101011</v>
       </c>
@@ -1866,8 +1974,11 @@
       <c r="M2" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N2" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>101021</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="M3" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>101031</v>
       </c>
@@ -1948,8 +2062,11 @@
       <c r="M4" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>101032</v>
       </c>
@@ -1989,8 +2106,11 @@
       <c r="M5" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>101033</v>
       </c>
@@ -2030,8 +2150,11 @@
       <c r="M6" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N6" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>101041</v>
       </c>
@@ -2071,8 +2194,11 @@
       <c r="M7" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N7" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>101042</v>
       </c>
@@ -2112,8 +2238,11 @@
       <c r="M8" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N8" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>102011</v>
       </c>
@@ -2153,8 +2282,11 @@
       <c r="M9" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N9" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>102021</v>
       </c>
@@ -2194,8 +2326,11 @@
       <c r="M10" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>102031</v>
       </c>
@@ -2235,8 +2370,11 @@
       <c r="M11" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N11" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>102032</v>
       </c>
@@ -2276,8 +2414,11 @@
       <c r="M12" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N12" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>102033</v>
       </c>
@@ -2317,8 +2458,11 @@
       <c r="M13" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>102041</v>
       </c>
@@ -2358,8 +2502,11 @@
       <c r="M14" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>102042</v>
       </c>
@@ -2399,8 +2546,11 @@
       <c r="M15" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N15" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>103011</v>
       </c>
@@ -2440,8 +2590,11 @@
       <c r="M16" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>103021</v>
       </c>
@@ -2481,8 +2634,11 @@
       <c r="M17" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>103031</v>
       </c>
@@ -2522,8 +2678,11 @@
       <c r="M18" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N18" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>103032</v>
       </c>
@@ -2563,8 +2722,11 @@
       <c r="M19" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N19" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>103033</v>
       </c>
@@ -2604,8 +2766,11 @@
       <c r="M20" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N20" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>103041</v>
       </c>
@@ -2645,8 +2810,11 @@
       <c r="M21" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>103042</v>
       </c>
@@ -2686,8 +2854,11 @@
       <c r="M22" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N22" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>104011</v>
       </c>
@@ -2727,8 +2898,11 @@
       <c r="M23" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N23" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>104021</v>
       </c>
@@ -2768,8 +2942,11 @@
       <c r="M24" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>104031</v>
       </c>
@@ -2809,8 +2986,11 @@
       <c r="M25" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>104032</v>
       </c>
@@ -2850,8 +3030,11 @@
       <c r="M26" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N26" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>104033</v>
       </c>
@@ -2891,8 +3074,11 @@
       <c r="M27" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>104041</v>
       </c>
@@ -2932,8 +3118,11 @@
       <c r="M28" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N28" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>104042</v>
       </c>
@@ -2973,8 +3162,11 @@
       <c r="M29" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N29" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>105011</v>
       </c>
@@ -3014,8 +3206,11 @@
       <c r="M30" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N30" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>105021</v>
       </c>
@@ -3055,8 +3250,11 @@
       <c r="M31" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N31" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>105031</v>
       </c>
@@ -3096,8 +3294,11 @@
       <c r="M32" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N32" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>105032</v>
       </c>
@@ -3137,8 +3338,11 @@
       <c r="M33" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N33" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>105033</v>
       </c>
@@ -3178,8 +3382,11 @@
       <c r="M34" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N34" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>105041</v>
       </c>
@@ -3219,8 +3426,11 @@
       <c r="M35" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N35" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>105042</v>
       </c>
@@ -3260,8 +3470,11 @@
       <c r="M36" s="9" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N36" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>106011</v>
       </c>
@@ -3299,8 +3512,11 @@
         <v>1</v>
       </c>
       <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N37" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>106021</v>
       </c>
@@ -3338,8 +3554,11 @@
         <v>0</v>
       </c>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>106031</v>
       </c>
@@ -3377,8 +3596,9 @@
         <v>2</v>
       </c>
       <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>106032</v>
       </c>
@@ -3416,8 +3636,9 @@
         <v>2</v>
       </c>
       <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>106033</v>
       </c>
@@ -3455,8 +3676,9 @@
         <v>2</v>
       </c>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>106041</v>
       </c>
@@ -3494,8 +3716,9 @@
         <v>-5</v>
       </c>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>106042</v>
       </c>
@@ -3533,6 +3756,7 @@
         <v>-5</v>
       </c>
       <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3545,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3615,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="13">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="E2" s="13">
         <v>50</v>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\2403Work\240311\Purusha\Assets\RawData\DataBase\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\Purusha\Assets\RawData\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3553C1C8-DEC3-46BF-86C6-00293E846A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-25845" yWindow="3270" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
-    <sheet name="EnemyData" sheetId="2" r:id="rId2"/>
-    <sheet name="PlayerData" sheetId="3" r:id="rId3"/>
-    <sheet name="TestData" sheetId="4" r:id="rId4"/>
-    <sheet name="StageData" sheetId="5" r:id="rId5"/>
+    <sheet name="ItemData" sheetId="6" r:id="rId2"/>
+    <sheet name="EnemyData" sheetId="2" r:id="rId3"/>
+    <sheet name="PlayerData" sheetId="3" r:id="rId4"/>
+    <sheet name="TestData" sheetId="4" r:id="rId5"/>
+    <sheet name="StageData" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -1110,15 +1112,9 @@
     <t>Prefabs/Skill/Abel</t>
   </si>
   <si>
-    <t>Kain</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Kain</t>
   </si>
   <si>
-    <t>Japheth</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Japheth</t>
   </si>
   <si>
@@ -1304,12 +1300,128 @@
   </si>
   <si>
     <t>Prefabs/Skill/Eve/Skill4</t>
+  </si>
+  <si>
+    <t>_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 경험치 캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 경험치 캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 경험치 캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 소량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 중량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 대량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expPotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 스탯 증가 캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 스탯 1 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weaponPotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 스탯 증가 캡슐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 스탯 1 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorPotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 물약(소)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 물약(중)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 물약(대)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 소량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 중량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 대량 증가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpPotion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_spritePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_quantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1393,32 +1505,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1763,10 +1874,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N8"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1864,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1905,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1916,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1946,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1957,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1987,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -1998,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2028,7 +2139,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2069,7 +2180,7 @@
         <v>-5</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2110,7 +2221,7 @@
         <v>-5</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2151,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2192,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2233,7 +2344,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2274,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2315,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2356,7 +2467,7 @@
         <v>-5</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2397,7 +2508,7 @@
         <v>-5</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2438,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2479,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2520,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2561,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2602,7 +2713,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2643,7 +2754,7 @@
         <v>-5</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2684,7 +2795,7 @@
         <v>-5</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2725,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2766,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2807,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2848,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2889,7 +3000,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2930,7 +3041,7 @@
         <v>-5</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2971,7 +3082,7 @@
         <v>-5</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3012,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3053,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3094,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3135,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3176,7 +3287,7 @@
         <v>2</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3217,7 +3328,7 @@
         <v>-5</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3258,7 +3369,7 @@
         <v>-5</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3542,7 +3653,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265CE1B-82DB-40A8-AC9C-E0CBD5E76C7E}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>10101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>10102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>10103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>10301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>10401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>10402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3641,7 +3957,6 @@
       <c r="L2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -3680,7 +3995,6 @@
       <c r="L3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
@@ -3716,8 +4030,6 @@
       <c r="K4" s="13">
         <v>999999</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3730,12 +4042,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3826,7 +4138,7 @@
       <c r="J2" s="13">
         <v>1.5</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>0.1</v>
       </c>
       <c r="L2" s="13">
@@ -3835,7 +4147,6 @@
       <c r="M2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -3868,7 +4179,7 @@
       <c r="J3" s="13">
         <v>1.5</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>0.1</v>
       </c>
       <c r="L3" s="13">
@@ -3877,7 +4188,6 @@
       <c r="M3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
@@ -3910,7 +4220,7 @@
       <c r="J4" s="13">
         <v>1.5</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>0.1</v>
       </c>
       <c r="L4" s="13">
@@ -3919,7 +4229,6 @@
       <c r="M4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
@@ -3952,7 +4261,7 @@
       <c r="J5" s="13">
         <v>1.5</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>0.1</v>
       </c>
       <c r="L5" s="13">
@@ -3961,14 +4270,13 @@
       <c r="M5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C6" s="13">
         <v>2000</v>
@@ -3994,23 +4302,22 @@
       <c r="J6" s="13">
         <v>1.5</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>0.15</v>
       </c>
       <c r="L6" s="13">
         <v>1.2</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="14"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>106</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="C7" s="13">
         <v>4000</v>
@@ -4036,16 +4343,15 @@
       <c r="J7" s="13">
         <v>1.5</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>0.08</v>
       </c>
       <c r="L7" s="13">
         <v>0.8</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="14"/>
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4054,8 +4360,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4086,10 +4392,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4100,10 +4406,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4114,10 +4420,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4128,10 +4434,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4142,10 +4448,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4156,10 +4462,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4172,8 +4478,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4206,52 +4512,52 @@
         <v>37</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>89</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -4264,20 +4570,6 @@
       <c r="C2" s="13">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
@@ -4289,20 +4581,6 @@
       <c r="C3" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
@@ -4314,20 +4592,6 @@
       <c r="C4" s="13">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\Purusha\Assets\RawData\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3553C1C8-DEC3-46BF-86C6-00293E846A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B696E-BCDF-4BF2-B84A-7740D82F0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25845" yWindow="3270" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,27 +1088,15 @@
     <t>_equipLevel</t>
   </si>
   <si>
-    <t>Breesha</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Breesha</t>
   </si>
   <si>
-    <t>Eve</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Eve</t>
   </si>
   <si>
-    <t>Adam</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Adam</t>
   </si>
   <si>
-    <t>Abel</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Abel</t>
   </si>
   <si>
@@ -1410,11 +1398,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Kana</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lain</t>
+    <t>브리샤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이브</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아담</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아벨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카나</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1910,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1975,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2016,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2027,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2057,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2068,7 +2072,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2098,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2109,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2139,7 +2143,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2180,7 +2184,7 @@
         <v>-5</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2221,7 +2225,7 @@
         <v>-5</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2262,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2303,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2344,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2385,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2426,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2467,7 +2471,7 @@
         <v>-5</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2508,7 +2512,7 @@
         <v>-5</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2549,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2590,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2631,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2672,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2713,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2754,7 +2758,7 @@
         <v>-5</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2795,7 +2799,7 @@
         <v>-5</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2836,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2877,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2918,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -2959,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3000,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3041,7 +3045,7 @@
         <v>-5</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3082,7 +3086,7 @@
         <v>-5</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3123,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3164,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3205,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3246,7 +3250,7 @@
         <v>2</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3287,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3328,7 +3332,7 @@
         <v>-5</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3369,7 +3373,7 @@
         <v>-5</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
@@ -3670,25 +3674,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -3696,13 +3700,13 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3716,13 +3720,13 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3736,13 +3740,13 @@
         <v>10103</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -3756,13 +3760,13 @@
         <v>10201</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3776,13 +3780,13 @@
         <v>10301</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3796,13 +3800,13 @@
         <v>10401</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3816,13 +3820,13 @@
         <v>10402</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -3836,13 +3840,13 @@
         <v>10403</v>
       </c>
       <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
       </c>
       <c r="E9">
         <v>150</v>
@@ -4047,7 +4051,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4112,7 +4116,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C2" s="13">
         <v>3000</v>
@@ -4145,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4153,7 +4157,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C3" s="13">
         <v>2500</v>
@@ -4186,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -4194,7 +4198,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C4" s="13">
         <v>2500</v>
@@ -4227,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4235,7 +4239,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="C5" s="13">
         <v>2000</v>
@@ -4268,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4276,7 +4280,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="13">
         <v>2000</v>
@@ -4309,7 +4313,7 @@
         <v>1.2</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -4317,7 +4321,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" s="13">
         <v>4000</v>
@@ -4350,7 +4354,7 @@
         <v>0.8</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4406,10 +4410,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4420,10 +4424,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4434,10 +4438,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4448,10 +4452,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4462,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4512,52 +4516,52 @@
         <v>37</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\Purusha\Assets\RawData\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B696E-BCDF-4BF2-B84A-7740D82F0ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1BE32-8686-47D4-97A3-7D47C0E746AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="3270" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10890" yWindow="2235" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -1420,6 +1420,9 @@
   <si>
     <t>카나</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_maxHealth</t>
   </si>
 </sst>
 </file>
@@ -4048,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H11" activeCellId="1" sqref="F9 H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4067,293 +4070,314 @@
     <col min="15" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="11.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="11.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13">
         <v>101</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2">
         <v>3000</v>
       </c>
       <c r="D2" s="13">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
         <v>110</v>
       </c>
-      <c r="H2" s="13">
+      <c r="I2" s="13">
         <v>60</v>
       </c>
-      <c r="I2" s="13">
+      <c r="J2" s="13">
         <v>0.5</v>
       </c>
-      <c r="J2" s="13">
+      <c r="K2" s="13">
         <v>1.5</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L2" s="14">
         <v>0.1</v>
       </c>
-      <c r="L2" s="13">
-        <v>1</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="13">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13">
         <v>102</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>2500</v>
       </c>
       <c r="D3" s="13">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
         <v>70</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>50</v>
       </c>
-      <c r="I3" s="13">
+      <c r="J3" s="13">
         <v>0.5</v>
       </c>
-      <c r="J3" s="13">
+      <c r="K3" s="13">
         <v>1.5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L3" s="14">
         <v>0.1</v>
       </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="13">
         <v>103</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>2500</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
         <v>100</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>40</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <v>0.5</v>
       </c>
-      <c r="J4" s="13">
+      <c r="K4" s="13">
         <v>1.5</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>0.1</v>
       </c>
-      <c r="L4" s="13">
-        <v>1</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
         <v>104</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>2000</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="13">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13">
         <v>30</v>
       </c>
       <c r="I5" s="13">
+        <v>30</v>
+      </c>
+      <c r="J5" s="13">
         <v>0.5</v>
       </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
         <v>1.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="14">
         <v>0.1</v>
       </c>
-      <c r="L5" s="13">
-        <v>1</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="13">
+        <v>1</v>
+      </c>
+      <c r="N5" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>105</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>2000</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
         <v>110</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I6" s="13">
         <v>30</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <v>0.5</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
         <v>1.5</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="14">
         <v>0.15</v>
       </c>
-      <c r="L6" s="13">
+      <c r="M6" s="13">
         <v>1.2</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>106</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>4000</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="E7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
         <v>50</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I7" s="13">
         <v>100</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <v>0.5</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
         <v>1.5</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="14">
         <v>0.08</v>
       </c>
-      <c r="L7" s="13">
+      <c r="M7" s="13">
         <v>0.8</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>62</v>
       </c>
     </row>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -520,6 +520,60 @@
   </si>
   <si>
     <t>CharacterData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/201</t>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/203</t>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/BuffandDebuff/207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Skill/Drone/Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Skill/Drone/Skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -586,8 +640,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +685,20 @@
         <bgColor rgb="FF0C343D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -645,13 +724,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -717,6 +811,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1005,8 +1111,9 @@
   </sheetPr>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1018,7 +1125,8 @@
     <col min="10" max="10" width="15.83203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="14.6640625" style="4"/>
     <col min="12" max="12" width="15.83203125" style="4" customWidth="1"/>
-    <col min="13" max="15" width="14.6640625" style="4"/>
+    <col min="13" max="14" width="14.6640625" style="4"/>
+    <col min="15" max="15" width="38.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.83203125" style="4" customWidth="1"/>
     <col min="17" max="16384" width="14.6640625" style="4"/>
   </cols>
@@ -2246,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K25" s="8">
         <v>2</v>
@@ -2296,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K26" s="8">
         <v>2</v>
@@ -2346,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K27" s="8">
         <v>1</v>
@@ -2746,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="8">
         <v>0</v>
       </c>
       <c r="J35" s="8">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="K35" s="8">
         <v>0</v>
@@ -2796,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="H36" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="6">
         <v>0</v>
       </c>
       <c r="J36" s="6">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="K36" s="6">
         <v>0</v>
@@ -3192,7 +3300,9 @@
       <c r="N44" s="8">
         <v>0</v>
       </c>
-      <c r="O44" s="7"/>
+      <c r="O44" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="P44" s="7"/>
     </row>
     <row r="45" spans="1:16" ht="13.5">
@@ -3238,7 +3348,9 @@
       <c r="N45" s="10">
         <v>0</v>
       </c>
-      <c r="O45" s="9"/>
+      <c r="O45" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="P45" s="9"/>
     </row>
     <row r="46" spans="1:16" ht="13.5">
@@ -3384,6 +3496,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3394,8 +3507,8 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3403,7 +3516,9 @@
     <col min="1" max="1" width="14" style="22" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.6640625" style="22" customWidth="1"/>
-    <col min="5" max="16384" width="14.6640625" style="22"/>
+    <col min="5" max="6" width="14.6640625" style="22"/>
+    <col min="7" max="7" width="25.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.6640625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5">
@@ -3458,6 +3573,9 @@
       <c r="F3" s="23">
         <v>1</v>
       </c>
+      <c r="G3" s="22" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="26">
@@ -3478,6 +3596,9 @@
       <c r="F4" s="23">
         <v>1</v>
       </c>
+      <c r="G4" s="22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="26">
@@ -3498,6 +3619,9 @@
       <c r="F5" s="22">
         <v>1</v>
       </c>
+      <c r="G5" s="22" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="25">
@@ -3518,6 +3642,9 @@
       <c r="F6" s="23">
         <v>0.7</v>
       </c>
+      <c r="G6" s="22" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="25">
@@ -3538,6 +3665,9 @@
       <c r="F7" s="23">
         <v>0.5</v>
       </c>
+      <c r="G7" s="22" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="25">
@@ -3558,6 +3688,9 @@
       <c r="F8" s="23">
         <v>0.7</v>
       </c>
+      <c r="G8" s="22" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="25">
@@ -3578,6 +3711,9 @@
       <c r="F9" s="23">
         <v>0.5</v>
       </c>
+      <c r="G9" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="13.5">
       <c r="A10" s="25">
@@ -3598,6 +3734,9 @@
       <c r="F10" s="23">
         <v>0.2</v>
       </c>
+      <c r="G10" s="22" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="25">
@@ -3618,6 +3757,9 @@
       <c r="F11" s="23">
         <v>0.3</v>
       </c>
+      <c r="G11" s="22" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="25">
@@ -3638,6 +3780,9 @@
       <c r="F12" s="23">
         <v>0.6</v>
       </c>
+      <c r="G12" s="22" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="25">
@@ -3658,6 +3803,9 @@
       <c r="F13" s="22">
         <v>0.8</v>
       </c>
+      <c r="G13" s="22" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="25">
@@ -3677,6 +3825,9 @@
       </c>
       <c r="F14" s="22">
         <v>0.9</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3690,178 +3841,182 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="29.5" customWidth="1"/>
-    <col min="13" max="1025" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.5" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="30" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A2" s="31">
         <v>101001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="31">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
         <v>200</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="31">
         <v>50</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="31">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="31">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="31">
         <v>1.5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="31">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="31">
+        <v>1</v>
+      </c>
+      <c r="K2" s="31">
         <v>100</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" ht="11.1" customHeight="1">
-      <c r="A3" s="1">
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A3" s="31">
         <v>201001</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="31">
         <v>6000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="31">
         <v>150</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="31">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="31">
         <v>50</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="31">
         <v>150</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="31">
         <v>20</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="31">
         <v>1.5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="31">
         <v>300</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" ht="11.1" customHeight="1">
-      <c r="A4" s="1">
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A4" s="31">
         <v>301001</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="31">
         <v>99</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="31">
         <v>999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="31">
         <v>100</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="31">
         <v>99999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="31">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="31">
         <v>999</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="31">
         <v>100</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="31">
         <v>999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="31">
         <v>999999</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3879,7 +4034,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\Purusha\Assets\RawData\DataBase\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDF359B-D088-44BE-93C7-5A93BF9537B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E747-5F72-4FED-8228-02D9E46113F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="214">
   <si>
     <t>ID</t>
   </si>
@@ -621,10 +621,6 @@
   </si>
   <si>
     <t>Exp</t>
-  </si>
-  <si>
-    <t>_information</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>_description</t>
@@ -635,7 +631,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>_chapterNumber</t>
+    <t>탈환의 시작</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리샤의 약속</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>태초의 푸루샤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오닉스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노움</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔혹한 진실</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 연구의 핵심인 Dr.브리샤를 되찾기 위해 알 수 없는 드론들이 우리들의 본거지를 공격하기 시작했다. 우리의 힘으로 Dr.브리샤와 기지를 지킬 수 있을까?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>만반의 준비를 끝낸 우리들. 바이오닉스로 가기 위해 앞을 막아서는 기계들을 처리하는 도중, 이상한 소리를 들었던 것 같은데…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오닉스의 입구를 막아선 건, 괴짜라고 소문이 자자한 Dr.바이탈. 그가 대동한 기계들에게서 알 수 없는 위화감에 소름이 끼친다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>가만히 있어달라는 Dr. 브리샤의 마지막 말. 15년간 나를 키워와주었던 사람을 한순간에 인생에서 지울 순 없다. 그녀를 되찾아와야 한다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>제발 저린 Dr.바이탈은 우리에게 술술 Dr.브리샤가 있는 곳을 읊어주었다. 하지만 이게 대체 무슨 실험들인거지…?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오닉스의 회장, 노움이 Dr.브리샤를 통해 완성시켜버린 최악의 발명품, 반인반기. 그럼 그동안 우리가 섬멸해 온 기계들은…?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 사실을 숨기고 있었던 Dr. 브리샤가 우리의 품으로 돌아왔다.. 그녀가 내뱉은 충격적인 첫 말은…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>_chapterId</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>_stageCount</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +855,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,6 +932,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4691,32 +4748,130 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8AFAFE-1EC0-4884-BC18-EFA4532D1236}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="152.5" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
         <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4730,7 +4885,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillData" sheetId="1" r:id="rId1"/>
-    <sheet name="BuffData" sheetId="2" r:id="rId2"/>
-    <sheet name="EnemyData" sheetId="3" r:id="rId3"/>
-    <sheet name="PlayerData" sheetId="4" r:id="rId4"/>
-    <sheet name="WaveData" sheetId="5" r:id="rId5"/>
-    <sheet name="StageData" sheetId="6" r:id="rId6"/>
-    <sheet name="ItemData" sheetId="7" r:id="rId7"/>
-    <sheet name="LevelData" sheetId="8" r:id="rId8"/>
+    <sheet name="ChapterData" sheetId="9" r:id="rId1"/>
+    <sheet name="SkillData" sheetId="1" r:id="rId2"/>
+    <sheet name="BuffData" sheetId="2" r:id="rId3"/>
+    <sheet name="EnemyData" sheetId="3" r:id="rId4"/>
+    <sheet name="PlayerData" sheetId="4" r:id="rId5"/>
+    <sheet name="WaveData" sheetId="5" r:id="rId6"/>
+    <sheet name="StageData" sheetId="6" r:id="rId7"/>
+    <sheet name="ItemData" sheetId="7" r:id="rId8"/>
+    <sheet name="LevelData" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="229">
   <si>
     <t>ID</t>
   </si>
@@ -692,13 +693,64 @@
   <si>
     <t>궁극(레벨1)</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>_chapterId</t>
+  </si>
+  <si>
+    <t>_chapterName</t>
+  </si>
+  <si>
+    <t>_stageCount</t>
+  </si>
+  <si>
+    <t>태초의 푸루샤</t>
+  </si>
+  <si>
+    <t>주요 연구의 핵심인 Dr.브리샤를 되찾기 위해 알 수 없는 드론들이 우리들의 본거지를 공격하기 시작했다. 우리의 힘으로 Dr.브리샤와 기지를 지킬 수 있을까?</t>
+  </si>
+  <si>
+    <t>브리샤의 약속</t>
+  </si>
+  <si>
+    <t>가만히 있어달라는 Dr. 브리샤의 마지막 말. 15년간 나를 키워와주었던 사람을 한순간에 인생에서 지울 순 없다. 그녀를 되찾아와야 한다.</t>
+  </si>
+  <si>
+    <t>탈환의 시작</t>
+  </si>
+  <si>
+    <t>만반의 준비를 끝낸 우리들. 바이오닉스로 가기 위해 앞을 막아서는 기계들을 처리하는 도중, 이상한 소리를 들었던 것 같은데…</t>
+  </si>
+  <si>
+    <t>바이오닉스</t>
+  </si>
+  <si>
+    <t>바이오닉스의 입구를 막아선 건, 괴짜라고 소문이 자자한 Dr.바이탈. 그가 대동한 기계들에게서 알 수 없는 위화감에 소름이 끼친다.</t>
+  </si>
+  <si>
+    <t>혼돈</t>
+  </si>
+  <si>
+    <t>제발 저린 Dr.바이탈은 우리에게 술술 Dr.브리샤가 있는 곳을 읊어주었다. 하지만 이게 대체 무슨 실험들인거지…?</t>
+  </si>
+  <si>
+    <t>노움</t>
+  </si>
+  <si>
+    <t>바이오닉스의 회장, 노움이 Dr.브리샤를 통해 완성시켜버린 최악의 발명품, 반인반기. 그럼 그동안 우리가 섬멸해 온 기계들은…?</t>
+  </si>
+  <si>
+    <t>잔혹한 진실</t>
+  </si>
+  <si>
+    <t>모든 사실을 숨기고 있었던 Dr. 브리샤가 우리의 품으로 돌아왔다.. 그녀가 내뱉은 충격적인 첫 말은…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -762,8 +814,45 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +893,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C394F"/>
+        <bgColor rgb="FF0C394F"/>
       </patternFill>
     </fill>
   </fills>
@@ -849,12 +950,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -932,11 +1035,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
     <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 4" xfId="3"/>
+    <cellStyle name="표준 5" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,6 +1398,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.6640625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.5">
+      <c r="A2" s="39">
+        <v>11</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5">
+      <c r="A3" s="39">
+        <v>12</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5">
+      <c r="A4" s="39">
+        <v>13</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5">
+      <c r="A5" s="39">
+        <v>14</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5">
+      <c r="A6" s="39">
+        <v>15</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5">
+      <c r="A7" s="39">
+        <v>16</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5">
+      <c r="A8" s="39">
+        <v>17</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="39">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3673,7 +3923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
@@ -4006,7 +4256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -4199,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
@@ -4563,12 +4813,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4758,86 +5008,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1025" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="13.5">
+      <c r="A1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="48">
-      <c r="A2" s="30">
+    <row r="2" spans="1:6" ht="13.5">
+      <c r="A2" s="35">
         <v>1101</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="35">
         <v>110101</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="35">
         <v>110102</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="35">
         <v>110103</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48">
-      <c r="A3" s="30">
+    <row r="3" spans="1:6" ht="13.5">
+      <c r="A3" s="35">
         <v>1102</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" ht="48">
-      <c r="A4" s="30">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" ht="13.5">
+      <c r="A4" s="35">
         <v>1103</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4850,7 +5103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -5201,12 +5454,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -744,6 +744,66 @@
   </si>
   <si>
     <t>모든 사실을 숨기고 있었던 Dr. 브리샤가 우리의 품으로 돌아왔다.. 그녀가 내뱉은 충격적인 첫 말은…</t>
+  </si>
+  <si>
+    <t>UI/Icon/Skill1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/book</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/book</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/book</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/sword</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/armor</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/hp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/hp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/scroll</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_101</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_102</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_103</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_104</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_105</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/Icon/Portrait_106</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1536,7 +1596,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1651,7 +1711,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4467,7 +4527,8 @@
     <col min="11" max="12" width="8.6640625" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.6" customHeight="1">
@@ -5012,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -5107,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5160,7 +5221,9 @@
       <c r="F2" s="30">
         <v>1</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="30">
@@ -5181,7 +5244,9 @@
       <c r="F3" s="30">
         <v>1</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="32" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="24">
       <c r="A4" s="30">
@@ -5202,7 +5267,9 @@
       <c r="F4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="24">
       <c r="A5" s="30">
@@ -5223,7 +5290,9 @@
       <c r="F5" s="30">
         <v>1</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="24">
       <c r="A6" s="30">
@@ -5244,7 +5313,9 @@
       <c r="F6" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="32" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="A7" s="30">
@@ -5265,7 +5336,9 @@
       <c r="F7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="32"/>
+      <c r="G7" s="32" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="30">
@@ -5286,7 +5359,9 @@
       <c r="F8" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="30">
@@ -5307,7 +5382,9 @@
       <c r="F9" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="32" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="30">
@@ -5328,6 +5405,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="30">
@@ -5348,6 +5428,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="30">
@@ -5368,6 +5451,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="30">
@@ -5388,6 +5474,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="30">
@@ -5408,6 +5497,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="30">
@@ -5427,6 +5519,9 @@
       </c>
       <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="ItemData" sheetId="7" r:id="rId8"/>
     <sheet name="LevelData" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -523,19 +523,10 @@
     <t>_waveID_3</t>
   </si>
   <si>
-    <t>Prefabs/Map/Chapter1/OpenMap_1</t>
-  </si>
-  <si>
     <t>stage1</t>
   </si>
   <si>
-    <t>Prefabs/Map/Chapter2/OpenMap_2</t>
-  </si>
-  <si>
     <t>stage2</t>
-  </si>
-  <si>
-    <t>Prefabs/Map/Chapter3/OpenMap_3</t>
   </si>
   <si>
     <t>stage3</t>
@@ -803,6 +794,18 @@
   </si>
   <si>
     <t>UI/Icon/Portrait_106</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter1/Chap1-1(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter1/Chap1-2(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter1/Chap1-3(new)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1474,16 +1477,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5">
@@ -1491,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" s="39">
         <v>3</v>
@@ -1505,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D3" s="39">
         <v>3</v>
@@ -1519,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D4" s="39">
         <v>3</v>
@@ -1533,10 +1536,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D5" s="39">
         <v>3</v>
@@ -1547,10 +1550,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D6" s="39">
         <v>3</v>
@@ -1561,10 +1564,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="39">
         <v>3</v>
@@ -1575,10 +1578,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D8" s="39">
         <v>3</v>
@@ -1711,7 +1714,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1919,10 +1922,10 @@
         <v>101041</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -4675,7 +4678,7 @@
       </c>
       <c r="P3" s="32"/>
     </row>
-    <row r="4" spans="1:16" ht="36">
+    <row r="4" spans="1:16">
       <c r="A4" s="30">
         <v>103</v>
       </c>
@@ -4879,7 +4882,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5073,8 +5076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5110,10 +5113,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>164</v>
       </c>
       <c r="D2" s="35">
         <v>110101</v>
@@ -5130,28 +5133,40 @@
         <v>1102</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+        <v>164</v>
+      </c>
+      <c r="D3" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E3" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F3" s="34">
+        <v>110103</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="13.5">
       <c r="A4" s="35">
         <v>1103</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+        <v>165</v>
+      </c>
+      <c r="D4" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E4" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F4" s="34">
+        <v>110103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5168,7 +5183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -5187,16 +5202,16 @@
         <v>102</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>113</v>
@@ -5207,13 +5222,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2" s="30">
         <v>20</v>
@@ -5222,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -5230,13 +5245,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" s="30">
         <v>50</v>
@@ -5245,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -5253,13 +5268,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E4" s="30">
         <v>100</v>
@@ -5268,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -5276,13 +5291,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
@@ -5291,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -5299,13 +5314,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -5314,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -5322,13 +5337,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E7" s="30">
         <v>50</v>
@@ -5337,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -5345,13 +5360,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" s="30">
         <v>150</v>
@@ -5360,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5368,14 +5383,14 @@
         <v>10501</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>195</v>
-      </c>
       <c r="E9" s="30">
         <v>1</v>
       </c>
@@ -5383,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5391,13 +5406,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
         <v>203</v>
-      </c>
-      <c r="D10" t="s">
-        <v>206</v>
       </c>
       <c r="E10" s="30">
         <v>101</v>
@@ -5406,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5414,13 +5429,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
         <v>204</v>
-      </c>
-      <c r="D11" t="s">
-        <v>207</v>
       </c>
       <c r="E11" s="30">
         <v>102</v>
@@ -5429,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5437,13 +5452,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E12" s="30">
         <v>103</v>
@@ -5452,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5460,13 +5475,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" s="30">
         <v>104</v>
@@ -5475,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5483,13 +5498,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
         <v>201</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>204</v>
-      </c>
-      <c r="D14" t="s">
-        <v>207</v>
       </c>
       <c r="E14" s="30">
         <v>105</v>
@@ -5498,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5506,13 +5521,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E15" s="30">
         <v>106</v>
@@ -5521,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5529,10 +5544,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5567,7 +5582,7 @@
         <v>103</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="245">
   <si>
     <t>ID</t>
   </si>
@@ -136,9 +136,6 @@
     <t>궁극(레벨2)</t>
   </si>
   <si>
-    <t>수십기의 드론을 소환하여 적 전체를 공격 (30%확률 기절)</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Eve/Skill1</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
   </si>
   <si>
     <t>이브</t>
-  </si>
-  <si>
-    <t>Prefabs/Skill/Eve</t>
   </si>
   <si>
     <t>CharacterIcon/Eve</t>
@@ -678,10 +672,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>수십기의 드론을 소환하여 적 전체를 공격 (20%확률 기절)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>궁극(레벨1)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -806,6 +796,22 @@
   </si>
   <si>
     <t>Prefabs/Map/Chapter1/Chap1-3(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 소환하여 적 전체를 공격</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론을 소환하여 적 전체를 공격</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 대상을 드론으로 공격</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Skill/Eve</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1477,16 +1483,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5">
@@ -1494,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D2" s="39">
         <v>3</v>
@@ -1508,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D3" s="39">
         <v>3</v>
@@ -1522,10 +1528,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D4" s="39">
         <v>3</v>
@@ -1536,10 +1542,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D5" s="39">
         <v>3</v>
@@ -1550,10 +1556,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="39">
         <v>3</v>
@@ -1564,10 +1570,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" s="39">
         <v>3</v>
@@ -1578,10 +1584,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D8" s="39">
         <v>3</v>
@@ -1599,7 +1605,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1714,7 +1720,7 @@
         <v>18</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1875,7 +1881,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1922,10 +1928,10 @@
         <v>101041</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -1934,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="8">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1975,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1984,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="8">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -2061,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
@@ -2125,7 +2131,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2161,10 +2167,10 @@
         <v>4</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2175,7 +2181,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2211,10 +2217,10 @@
         <v>4</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2225,7 +2231,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2261,10 +2267,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2275,7 +2281,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2311,10 +2317,10 @@
         <v>-5</v>
       </c>
       <c r="O14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2325,7 +2331,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -2361,10 +2367,10 @@
         <v>-5</v>
       </c>
       <c r="O15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2411,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>19</v>
@@ -2461,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
@@ -2475,7 +2481,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2511,10 +2517,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2525,7 +2531,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2561,10 +2567,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2575,7 +2581,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2611,10 +2617,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2625,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
@@ -2661,10 +2667,10 @@
         <v>-5</v>
       </c>
       <c r="O21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2675,7 +2681,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -2711,10 +2717,10 @@
         <v>-5</v>
       </c>
       <c r="O22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2725,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="15">
         <v>0</v>
@@ -2761,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P23" s="14" t="s">
         <v>19</v>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>23</v>
@@ -2825,7 +2831,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -2861,10 +2867,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2875,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -2911,10 +2917,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2925,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -2961,10 +2967,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2975,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="6">
         <v>4</v>
@@ -3011,10 +3017,10 @@
         <v>-5</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3025,7 +3031,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="6">
         <v>4</v>
@@ -3061,10 +3067,10 @@
         <v>-5</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3075,7 +3081,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="15">
         <v>0</v>
@@ -3111,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P30" s="14" t="s">
         <v>19</v>
@@ -3161,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>23</v>
@@ -3175,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -3211,10 +3217,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3225,7 +3231,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -3261,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3275,7 +3281,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="8">
         <v>0</v>
@@ -3311,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="P34" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3325,7 +3331,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -3361,10 +3367,10 @@
         <v>-5</v>
       </c>
       <c r="O35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3375,7 +3381,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="12">
         <v>0</v>
@@ -3411,10 +3417,10 @@
         <v>-5</v>
       </c>
       <c r="O36" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="P36" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3521,7 +3527,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -3567,7 +3573,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -3613,7 +3619,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -3659,7 +3665,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -3705,7 +3711,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="12">
         <v>0</v>
@@ -3751,43 +3757,43 @@
         <v>16</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-      <c r="N44" s="4">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="P44" s="5"/>
     </row>
@@ -3796,10 +3802,10 @@
         <v>101001021</v>
       </c>
       <c r="B45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="D45" s="17">
         <v>0</v>
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P45" s="18"/>
     </row>
@@ -3847,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -3890,10 +3896,10 @@
         <v>201001021</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="17">
         <v>0</v>
@@ -3960,7 +3966,7 @@
         <v>301001021</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="12">
@@ -4011,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>12</v>
@@ -4056,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4064,7 +4070,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
@@ -4079,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4087,7 +4093,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
@@ -4102,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4110,7 +4116,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
@@ -4125,7 +4131,7 @@
         <v>0.7</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4133,7 +4139,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
@@ -4148,7 +4154,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4156,7 +4162,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
@@ -4171,7 +4177,7 @@
         <v>0.7</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4179,7 +4185,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
@@ -4194,7 +4200,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4202,7 +4208,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
@@ -4217,7 +4223,7 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4225,7 +4231,7 @@
         <v>206</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
@@ -4240,7 +4246,7 @@
         <v>0.3</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -4248,7 +4254,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
@@ -4263,7 +4269,7 @@
         <v>0.6</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -4271,7 +4277,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="23">
         <v>0</v>
@@ -4286,7 +4292,7 @@
         <v>0.8</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -4294,7 +4300,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="23">
         <v>0</v>
@@ -4309,7 +4315,7 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4347,43 +4353,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>112</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
@@ -4391,7 +4397,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
@@ -4421,7 +4427,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2" s="28"/>
     </row>
@@ -4430,7 +4436,7 @@
         <v>201001</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="27">
         <v>5</v>
@@ -4460,7 +4466,7 @@
         <v>300</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M3" s="28"/>
     </row>
@@ -4469,7 +4475,7 @@
         <v>301001</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="27">
         <v>99</v>
@@ -4517,7 +4523,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4536,49 +4542,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12.6" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="G1" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="30" t="s">
-        <v>110</v>
-      </c>
       <c r="N1" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="P1" s="30"/>
     </row>
@@ -4587,7 +4593,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="30">
         <v>3000</v>
@@ -4623,10 +4629,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="P2" s="32"/>
     </row>
@@ -4635,7 +4641,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="30">
         <v>2500</v>
@@ -4671,10 +4677,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P3" s="32"/>
     </row>
@@ -4683,7 +4689,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="30">
         <v>2500</v>
@@ -4719,10 +4725,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P4" s="32"/>
     </row>
@@ -4731,7 +4737,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="30">
         <v>2000</v>
@@ -4767,10 +4773,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P5" s="32"/>
     </row>
@@ -4779,7 +4785,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="30">
         <v>2000</v>
@@ -4815,10 +4821,10 @@
         <v>1.2</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -4827,7 +4833,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="30">
         <v>4000</v>
@@ -4863,10 +4869,10 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -4909,61 +4915,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>156</v>
-      </c>
       <c r="S1" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.6" customHeight="1">
@@ -4971,7 +4977,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C2" s="30">
         <v>101001</v>
@@ -5008,7 +5014,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="30">
         <v>101001</v>
@@ -5037,7 +5043,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="30">
         <v>101001</v>
@@ -5090,22 +5096,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
@@ -5113,10 +5119,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="35">
         <v>110101</v>
@@ -5133,10 +5139,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" s="34">
         <v>110101</v>
@@ -5153,10 +5159,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="34">
         <v>110101</v>
@@ -5196,25 +5202,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>102</v>
-      </c>
       <c r="C1" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>169</v>
-      </c>
       <c r="G1" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
@@ -5222,13 +5228,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E2" s="30">
         <v>20</v>
@@ -5237,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -5245,13 +5251,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" s="30">
         <v>50</v>
@@ -5260,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -5268,13 +5274,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E4" s="30">
         <v>100</v>
@@ -5283,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -5291,13 +5297,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
@@ -5306,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -5314,13 +5320,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -5329,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -5337,13 +5343,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7" s="30">
         <v>50</v>
@@ -5352,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -5360,13 +5366,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E8" s="30">
         <v>150</v>
@@ -5375,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5383,13 +5389,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E9" s="30">
         <v>1</v>
@@ -5398,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5406,13 +5412,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="30">
         <v>101</v>
@@ -5421,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5429,13 +5435,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E11" s="30">
         <v>102</v>
@@ -5444,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5452,13 +5458,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E12" s="30">
         <v>103</v>
@@ -5467,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5475,13 +5481,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
         <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>204</v>
       </c>
       <c r="E13" s="30">
         <v>104</v>
@@ -5490,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5498,13 +5504,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E14" s="30">
         <v>105</v>
@@ -5513,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5521,13 +5527,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E15" s="30">
         <v>106</v>
@@ -5536,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5544,10 +5550,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -5579,10 +5585,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="254">
   <si>
     <t>ID</t>
   </si>
@@ -812,6 +812,42 @@
   </si>
   <si>
     <t>Prefabs/Skill/Eve</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter2/Chap2-1(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter2/Chap2-2(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter2/Chap2-3(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter3/Chap3-1(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter3/Chap3-2(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter3/Chap3-3(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter4/Chap4-1(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter4/Chap4-2(new)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Map/Chapter4/Chap4-3(new)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5080,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5171,6 +5207,186 @@
         <v>110102</v>
       </c>
       <c r="F4" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5">
+      <c r="A5" s="35">
+        <v>1201</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="35">
+        <v>110101</v>
+      </c>
+      <c r="E5" s="35">
+        <v>110102</v>
+      </c>
+      <c r="F5" s="35">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.5">
+      <c r="A6" s="35">
+        <v>1202</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E6" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F6" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5">
+      <c r="A7" s="35">
+        <v>1203</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E7" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F7" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5">
+      <c r="A8" s="35">
+        <v>1301</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="35">
+        <v>110101</v>
+      </c>
+      <c r="E8" s="35">
+        <v>110102</v>
+      </c>
+      <c r="F8" s="35">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="35">
+        <v>1302</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E9" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F9" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5">
+      <c r="A10" s="35">
+        <v>1303</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E10" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F10" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
+      <c r="A11" s="35">
+        <v>1401</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="35">
+        <v>110101</v>
+      </c>
+      <c r="E11" s="35">
+        <v>110102</v>
+      </c>
+      <c r="F11" s="35">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5">
+      <c r="A12" s="35">
+        <v>1402</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E12" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F12" s="34">
+        <v>110103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
+      <c r="A13" s="35">
+        <v>1403</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="34">
+        <v>110101</v>
+      </c>
+      <c r="E13" s="34">
+        <v>110102</v>
+      </c>
+      <c r="F13" s="34">
         <v>110103</v>
       </c>
     </row>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="9" r:id="rId1"/>
@@ -5118,7 +5118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5405,7 +5405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="243">
   <si>
     <t xml:space="preserve">_chapterId</t>
   </si>
@@ -555,7 +555,13 @@
     <t xml:space="preserve">_compensationCount_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefabs/Map/Chapter1/BattleMap_1</t>
+    <t xml:space="preserve">Prefabs/Map/BattleMap/BattleMap_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Map/BattleMap/BattleMap_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Map/BattleMap/BattleMap_3</t>
   </si>
   <si>
     <t xml:space="preserve">_openMapPath</t>
@@ -4115,14 +4121,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="42.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -4306,16 +4312,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4670,10 +4676,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4688,13 +4694,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -4852,6 +4858,271 @@
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>110201</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>110202</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>110203</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>110301</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>110302</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>110303</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="n">
+        <v>120101</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="n">
+        <v>120102</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="n">
+        <v>120103</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>120201</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>120202</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>120203</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>120301</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>120302</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>120303</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33" t="n">
+        <v>130101</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="33" t="n">
+        <v>130102</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33" t="n">
+        <v>130103</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>130201</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>130202</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>130203</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>130301</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>130302</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>130303</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="n">
+        <v>140101</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33" t="n">
+        <v>140102</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="33" t="n">
+        <v>140103</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>140201</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>140202</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>140203</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>140301</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>140302</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>140303</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4870,8 +5141,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4887,19 +5158,19 @@
         <v>119</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,10 +5178,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D2" s="37" t="n">
         <v>110101</v>
@@ -4927,19 +5198,19 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D3" s="39" t="n">
-        <v>110101</v>
+        <v>110201</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>110102</v>
+        <v>110202</v>
       </c>
       <c r="F3" s="39" t="n">
-        <v>110103</v>
+        <v>110203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,19 +5218,19 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4" s="39" t="n">
-        <v>110101</v>
+        <v>110301</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>110102</v>
+        <v>110302</v>
       </c>
       <c r="F4" s="39" t="n">
-        <v>110103</v>
+        <v>110303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,19 +5238,19 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D5" s="37" t="n">
-        <v>110101</v>
+        <v>120101</v>
       </c>
       <c r="E5" s="37" t="n">
-        <v>110102</v>
+        <v>120102</v>
       </c>
       <c r="F5" s="37" t="n">
-        <v>110103</v>
+        <v>120103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,19 +5258,19 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D6" s="39" t="n">
-        <v>110101</v>
+        <v>120201</v>
       </c>
       <c r="E6" s="39" t="n">
-        <v>110102</v>
+        <v>120202</v>
       </c>
       <c r="F6" s="39" t="n">
-        <v>110103</v>
+        <v>120203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,19 +5278,19 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D7" s="39" t="n">
-        <v>110101</v>
+        <v>120301</v>
       </c>
       <c r="E7" s="39" t="n">
-        <v>110102</v>
+        <v>120302</v>
       </c>
       <c r="F7" s="39" t="n">
-        <v>110103</v>
+        <v>120303</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5027,19 +5298,19 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" s="37" t="n">
-        <v>110101</v>
+        <v>130101</v>
       </c>
       <c r="E8" s="37" t="n">
-        <v>110102</v>
+        <v>130102</v>
       </c>
       <c r="F8" s="37" t="n">
-        <v>110103</v>
+        <v>130103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,19 +5318,19 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D9" s="39" t="n">
-        <v>110101</v>
+        <v>130201</v>
       </c>
       <c r="E9" s="39" t="n">
-        <v>110102</v>
+        <v>130202</v>
       </c>
       <c r="F9" s="39" t="n">
-        <v>110103</v>
+        <v>130203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,19 +5338,19 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" s="39" t="n">
-        <v>110101</v>
+        <v>130301</v>
       </c>
       <c r="E10" s="39" t="n">
-        <v>110102</v>
+        <v>130302</v>
       </c>
       <c r="F10" s="39" t="n">
-        <v>110103</v>
+        <v>130303</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,19 +5358,19 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D11" s="37" t="n">
-        <v>110101</v>
+        <v>140101</v>
       </c>
       <c r="E11" s="37" t="n">
-        <v>110102</v>
+        <v>140102</v>
       </c>
       <c r="F11" s="37" t="n">
-        <v>110103</v>
+        <v>140103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,19 +5378,19 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D12" s="39" t="n">
-        <v>110101</v>
+        <v>140201</v>
       </c>
       <c r="E12" s="39" t="n">
-        <v>110102</v>
+        <v>140202</v>
       </c>
       <c r="F12" s="39" t="n">
-        <v>110103</v>
+        <v>140203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,19 +5398,19 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D13" s="39" t="n">
-        <v>110101</v>
+        <v>140301</v>
       </c>
       <c r="E13" s="39" t="n">
-        <v>110102</v>
+        <v>140302</v>
       </c>
       <c r="F13" s="39" t="n">
-        <v>110103</v>
+        <v>140303</v>
       </c>
     </row>
   </sheetData>
@@ -5182,13 +5453,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>131</v>
@@ -5199,13 +5470,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E2" s="33" t="n">
         <v>20</v>
@@ -5214,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5222,13 +5493,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>203</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>201</v>
       </c>
       <c r="E3" s="33" t="n">
         <v>50</v>
@@ -5237,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,13 +5516,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E4" s="33" t="n">
         <v>100</v>
@@ -5260,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,13 +5539,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E5" s="33" t="n">
         <v>1</v>
@@ -5283,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,13 +5562,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>1</v>
@@ -5306,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,13 +5585,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>50</v>
@@ -5329,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5337,13 +5608,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>219</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>217</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>150</v>
@@ -5352,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,13 +5631,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>1</v>
@@ -5375,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5383,13 +5654,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E10" s="33" t="n">
         <v>101</v>
@@ -5398,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5406,13 +5677,13 @@
         <v>10602</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>227</v>
       </c>
       <c r="E11" s="33" t="n">
         <v>102</v>
@@ -5421,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,13 +5700,13 @@
         <v>10603</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E12" s="33" t="n">
         <v>103</v>
@@ -5444,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,13 +5723,13 @@
         <v>10604</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E13" s="33" t="n">
         <v>104</v>
@@ -5467,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,13 +5746,13 @@
         <v>10605</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E14" s="33" t="n">
         <v>105</v>
@@ -5490,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,13 +5769,13 @@
         <v>10606</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E15" s="33" t="n">
         <v>106</v>
@@ -5513,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,10 +5792,10 @@
         <v>10701</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="246">
   <si>
     <t xml:space="preserve">_chapterId</t>
   </si>
@@ -432,13 +432,22 @@
     <t xml:space="preserve">Prefabs/Monster/Drone</t>
   </si>
   <si>
+    <t xml:space="preserve">Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Monster/Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SecurityTurret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Monster/SecurityTurret</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeNumber001</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/CodeNumber001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaekyungMon</t>
   </si>
   <si>
     <t xml:space="preserve">_maxHealth</t>
@@ -4108,10 +4117,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4128,7 +4137,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="42.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -4212,81 +4221,122 @@
       </c>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
-        <v>201001</v>
-      </c>
-      <c r="B3" s="30" t="s">
+        <v>101002</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30" t="n">
+        <v>350</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>65</v>
+      </c>
+      <c r="F3" s="30" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="30" t="n">
-        <v>6000</v>
-      </c>
-      <c r="E3" s="30" t="n">
+      <c r="J3" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="30" t="n">
         <v>150</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" s="30" t="n">
-        <v>150</v>
-      </c>
-      <c r="I3" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K3" s="30" t="n">
-        <v>300</v>
       </c>
       <c r="L3" s="30" t="s">
         <v>135</v>
       </c>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
-        <v>301001</v>
-      </c>
-      <c r="B4" s="32" t="s">
+        <v>101003</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="30" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D4" s="30" t="n">
-        <v>999999</v>
+        <v>250</v>
       </c>
       <c r="E4" s="30" t="n">
         <v>100</v>
       </c>
       <c r="F4" s="30" t="n">
-        <v>99999</v>
+        <v>10</v>
       </c>
       <c r="G4" s="30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" s="30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K4" s="30" t="n">
+        <v>150</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="n">
+        <v>201001</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="30" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="30" t="n">
+        <v>600</v>
+      </c>
+      <c r="E5" s="30" t="n">
         <v>100</v>
       </c>
-      <c r="H4" s="30" t="n">
-        <v>999</v>
-      </c>
-      <c r="I4" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4" s="30" t="n">
-        <v>999</v>
-      </c>
-      <c r="K4" s="30" t="n">
-        <v>999999</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="F5" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K5" s="30" t="n">
+        <v>300</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4332,7 +4382,7 @@
         <v>120</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>122</v>
@@ -4341,10 +4391,10 @@
         <v>121</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>123</v>
@@ -4377,7 +4427,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C2" s="33" t="n">
         <v>3000</v>
@@ -4413,10 +4463,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -4425,7 +4475,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>2500</v>
@@ -4461,10 +4511,10 @@
         <v>1.15</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -4473,7 +4523,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>2500</v>
@@ -4509,10 +4559,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -4521,7 +4571,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>2000</v>
@@ -4557,10 +4607,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -4569,7 +4619,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>2000</v>
@@ -4605,10 +4655,10 @@
         <v>1.2</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -4617,7 +4667,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>4000</v>
@@ -4653,10 +4703,10 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P7" s="35"/>
     </row>
@@ -4678,7 +4728,7 @@
   </sheetPr>
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -4709,58 +4759,58 @@
         <v>119</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4768,7 +4818,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C2" s="33" t="n">
         <v>101001</v>
@@ -4805,7 +4855,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>101001</v>
@@ -4834,7 +4884,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>101001</v>
@@ -4863,7 +4913,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,7 +4921,7 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4879,7 +4929,7 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,7 +4937,7 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4895,7 +4945,7 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4903,7 +4953,7 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,7 +4961,7 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,7 +4969,7 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,7 +4977,7 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,7 +4985,7 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,7 +4993,7 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,7 +5001,7 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4959,7 +5009,7 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4967,7 +5017,7 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,7 +5025,7 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,7 +5033,7 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +5041,7 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,7 +5049,7 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,7 +5057,7 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +5065,7 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,7 +5073,7 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +5081,7 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,7 +5089,7 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,7 +5097,7 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5055,7 +5105,7 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5063,7 +5113,7 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,7 +5121,7 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5079,7 +5129,7 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,7 +5137,7 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5095,7 +5145,7 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5153,7 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,7 +5161,7 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5119,7 +5169,7 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5158,19 +5208,19 @@
         <v>119</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,10 +5228,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D2" s="37" t="n">
         <v>110101</v>
@@ -5198,10 +5248,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D3" s="39" t="n">
         <v>110201</v>
@@ -5218,10 +5268,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" s="39" t="n">
         <v>110301</v>
@@ -5238,10 +5288,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D5" s="37" t="n">
         <v>120101</v>
@@ -5258,10 +5308,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D6" s="39" t="n">
         <v>120201</v>
@@ -5278,10 +5328,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>188</v>
       </c>
       <c r="D7" s="39" t="n">
         <v>120301</v>
@@ -5298,10 +5348,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D8" s="37" t="n">
         <v>130101</v>
@@ -5318,10 +5368,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D9" s="39" t="n">
         <v>130201</v>
@@ -5338,10 +5388,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D10" s="39" t="n">
         <v>130301</v>
@@ -5358,10 +5408,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D11" s="37" t="n">
         <v>140101</v>
@@ -5378,10 +5428,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D12" s="39" t="n">
         <v>140201</v>
@@ -5398,10 +5448,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D13" s="39" t="n">
         <v>140301</v>
@@ -5453,13 +5503,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>131</v>
@@ -5470,13 +5520,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E2" s="33" t="n">
         <v>20</v>
@@ -5485,7 +5535,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,13 +5543,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>206</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>203</v>
       </c>
       <c r="E3" s="33" t="n">
         <v>50</v>
@@ -5508,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5516,13 +5566,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E4" s="33" t="n">
         <v>100</v>
@@ -5531,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,13 +5589,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E5" s="33" t="n">
         <v>1</v>
@@ -5554,7 +5604,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,13 +5612,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>1</v>
@@ -5577,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,13 +5635,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>50</v>
@@ -5600,7 +5650,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,13 +5658,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>222</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>150</v>
@@ -5623,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,13 +5681,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>1</v>
@@ -5646,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,13 +5704,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E10" s="33" t="n">
         <v>101</v>
@@ -5669,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,13 +5727,13 @@
         <v>10602</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E11" s="33" t="n">
         <v>102</v>
@@ -5692,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,13 +5750,13 @@
         <v>10603</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E12" s="33" t="n">
         <v>103</v>
@@ -5715,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,13 +5773,13 @@
         <v>10604</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E13" s="33" t="n">
         <v>104</v>
@@ -5738,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,13 +5796,13 @@
         <v>10605</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E14" s="33" t="n">
         <v>105</v>
@@ -5761,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,13 +5819,13 @@
         <v>10606</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E15" s="33" t="n">
         <v>106</v>
@@ -5784,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,10 +5842,10 @@
         <v>10701</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -5833,7 +5883,7 @@
         <v>121</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="275">
   <si>
     <t>_chapterId</t>
   </si>
@@ -151,9 +151,6 @@
     <t>쉴드</t>
   </si>
   <si>
-    <t>플레이어 방어력만큼 쉴드 생성</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Breesha/Skill2</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>Prefabs/Skill/Adam/Skill2</t>
   </si>
   <si>
-    <t>전방 1열의 적에게 참격을 가한다</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Adam/Skill3</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
   </si>
   <si>
     <t>방패로 적 한명을 가격 (90% 확률 도발)</t>
-  </si>
-  <si>
-    <t>야벳이 잃은 체력에 비례하여 대상 1명 공격</t>
   </si>
   <si>
     <t>Prefabs/Skill/Kain/Skill4</t>
@@ -837,6 +828,50 @@
   </si>
   <si>
     <t>UI/Icon/Skill_Kana3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력에 비례하여 대상 1명 공격</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력에 비례하여 대상 1명 공격</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 드론으로 레이저 공격</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 적에게 참격을 가한다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 적에게 참격을 가한다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 적에게 참격을 가한다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 비례 쉴드 생성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 비례 쉴드 생성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 비례 쉴드 생성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 비례 쉴드 생성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 방어력 비례 쉴드 생성</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1597,15 +1632,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="50.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.5" style="4" customWidth="1"/>
     <col min="4" max="7" width="14" style="4" customWidth="1"/>
     <col min="8" max="9" width="14.6640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" style="4" customWidth="1"/>
@@ -1725,7 +1760,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -1761,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1772,11 +1807,11 @@
         <v>101031</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
@@ -1790,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -1811,10 +1846,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1822,10 +1857,10 @@
         <v>101032</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1840,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1861,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1872,10 +1907,10 @@
         <v>101033</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1890,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1911,10 +1946,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1922,11 +1957,11 @@
         <v>101041</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
@@ -1940,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="I7" s="11">
         <v>0</v>
@@ -1961,10 +1996,10 @@
         <v>-5</v>
       </c>
       <c r="O7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1972,10 +2007,10 @@
         <v>101042</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -1990,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="11">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="I8" s="11">
         <v>0</v>
@@ -2011,10 +2046,10 @@
         <v>-5</v>
       </c>
       <c r="O8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2061,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>37</v>
@@ -2075,7 +2110,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -2111,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2122,10 +2157,10 @@
         <v>102031</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2161,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2172,10 +2207,10 @@
         <v>102032</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2211,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2222,10 +2257,10 @@
         <v>102033</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2261,10 +2296,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2272,10 +2307,10 @@
         <v>102041</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -2311,10 +2346,10 @@
         <v>-5</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2322,10 +2357,10 @@
         <v>102042</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2361,10 +2396,10 @@
         <v>-5</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2411,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>37</v>
@@ -2425,7 +2460,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -2461,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2472,10 +2507,10 @@
         <v>103031</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -2511,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2522,10 +2557,10 @@
         <v>103032</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>268</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -2561,10 +2596,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2572,10 +2607,10 @@
         <v>103033</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2611,10 +2646,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2622,10 +2657,10 @@
         <v>103041</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -2661,10 +2696,10 @@
         <v>-5</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2672,10 +2707,10 @@
         <v>103042</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -2711,10 +2746,10 @@
         <v>-5</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2725,7 +2760,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -2761,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>37</v>
@@ -2775,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
@@ -2811,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2822,10 +2857,10 @@
         <v>104031</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -2861,10 +2896,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2872,10 +2907,10 @@
         <v>104032</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
@@ -2911,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2922,10 +2957,10 @@
         <v>104033</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
@@ -2961,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2972,10 +3007,10 @@
         <v>104041</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="9">
         <v>4</v>
@@ -3011,10 +3046,10 @@
         <v>-5</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3022,10 +3057,10 @@
         <v>104042</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="9">
         <v>4</v>
@@ -3061,10 +3096,10 @@
         <v>-5</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3075,7 +3110,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -3111,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>37</v>
@@ -3125,7 +3160,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
@@ -3161,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3172,10 +3207,10 @@
         <v>105031</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -3211,10 +3246,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3222,10 +3257,10 @@
         <v>105032</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -3261,10 +3296,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3272,10 +3307,10 @@
         <v>105033</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -3311,10 +3346,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3322,10 +3357,10 @@
         <v>105041</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -3361,10 +3396,10 @@
         <v>-5</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3372,10 +3407,10 @@
         <v>105042</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>87</v>
+        <v>265</v>
       </c>
       <c r="D36" s="15">
         <v>0</v>
@@ -3411,10 +3446,10 @@
         <v>-5</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3461,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>37</v>
@@ -3475,7 +3510,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
@@ -3511,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3522,10 +3557,10 @@
         <v>106031</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -3561,10 +3596,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3572,10 +3607,10 @@
         <v>106032</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -3611,10 +3646,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3622,10 +3657,10 @@
         <v>106033</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -3661,10 +3696,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3672,10 +3707,10 @@
         <v>106041</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -3711,10 +3746,10 @@
         <v>-5</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3722,10 +3757,10 @@
         <v>106042</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -3761,10 +3796,10 @@
         <v>-5</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3775,7 +3810,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -3811,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P44" s="8"/>
     </row>
@@ -3820,10 +3855,10 @@
         <v>101001021</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D45" s="20">
         <v>0</v>
@@ -3859,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P45" s="21"/>
     </row>
@@ -3871,7 +3906,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -3907,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P46" s="8"/>
     </row>
@@ -3916,10 +3951,10 @@
         <v>101002021</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
@@ -3955,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P47" s="21"/>
     </row>
@@ -3967,7 +4002,7 @@
         <v>34</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
@@ -4003,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P48" s="8"/>
     </row>
@@ -4012,10 +4047,10 @@
         <v>101003021</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -4051,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P49" s="16"/>
     </row>
@@ -4063,7 +4098,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -4099,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P50" s="8"/>
     </row>
@@ -4108,10 +4143,10 @@
         <v>201001021</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D51" s="20">
         <v>1</v>
@@ -4147,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P51" s="21"/>
     </row>
@@ -4162,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4183,10 +4218,10 @@
         <v>19</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>30</v>
@@ -4228,7 +4263,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4236,7 +4271,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -4251,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4259,7 +4294,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
@@ -4274,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4282,7 +4317,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="26">
         <v>0</v>
@@ -4297,7 +4332,7 @@
         <v>0.7</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4305,7 +4340,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C7" s="26">
         <v>0</v>
@@ -4320,7 +4355,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4328,7 +4363,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C8" s="26">
         <v>0</v>
@@ -4343,7 +4378,7 @@
         <v>0.7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4351,7 +4386,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="26">
         <v>0</v>
@@ -4366,7 +4401,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4374,7 +4409,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C10" s="26">
         <v>0</v>
@@ -4389,7 +4424,7 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4397,7 +4432,7 @@
         <v>206</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C11" s="26">
         <v>0</v>
@@ -4412,7 +4447,7 @@
         <v>0.3</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -4420,7 +4455,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C12" s="26">
         <v>0</v>
@@ -4435,7 +4470,7 @@
         <v>0.6</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -4443,7 +4478,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" s="26">
         <v>0</v>
@@ -4458,7 +4493,7 @@
         <v>0.8</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -4466,7 +4501,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" s="26">
         <v>0</v>
@@ -4481,7 +4516,7 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4519,43 +4554,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>137</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
@@ -4563,7 +4598,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -4593,7 +4628,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M2" s="31"/>
     </row>
@@ -4602,7 +4637,7 @@
         <v>101002</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" s="30">
         <v>3</v>
@@ -4632,7 +4667,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4641,7 +4676,7 @@
         <v>101003</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="30">
         <v>5</v>
@@ -4671,7 +4706,7 @@
         <v>300</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M4" s="31"/>
     </row>
@@ -4680,7 +4715,7 @@
         <v>201001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="30">
         <v>10</v>
@@ -4710,7 +4745,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M5" s="31"/>
     </row>
@@ -4749,49 +4784,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12.6" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="I1" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="P1" s="33"/>
     </row>
@@ -4800,7 +4835,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C2" s="33">
         <v>3000</v>
@@ -4836,10 +4871,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -4848,7 +4883,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="33">
         <v>2500</v>
@@ -4884,10 +4919,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -4896,7 +4931,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C4" s="33">
         <v>2500</v>
@@ -4932,10 +4967,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -4944,7 +4979,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C5" s="33">
         <v>2000</v>
@@ -4980,10 +5015,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -4992,7 +5027,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C6" s="33">
         <v>2000</v>
@@ -5028,10 +5063,10 @@
         <v>1.2</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -5040,7 +5075,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="33">
         <v>4000</v>
@@ -5076,10 +5111,10 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" s="35"/>
     </row>
@@ -5122,61 +5157,61 @@
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>185</v>
-      </c>
       <c r="S1" s="33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.6" customHeight="1">
@@ -5184,7 +5219,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2" s="33">
         <v>101001</v>
@@ -5221,7 +5256,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C3" s="33">
         <v>101001</v>
@@ -5250,7 +5285,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" s="35">
         <v>101002</v>
@@ -5283,7 +5318,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C5" s="35">
         <v>101002</v>
@@ -5303,7 +5338,7 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>101002</v>
@@ -5317,7 +5352,7 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>101002</v>
@@ -5331,7 +5366,7 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C8">
         <v>101001</v>
@@ -5345,7 +5380,7 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>101001</v>
@@ -5359,7 +5394,7 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>101001</v>
@@ -5373,7 +5408,7 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>101001</v>
@@ -5387,7 +5422,7 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C12">
         <v>101001</v>
@@ -5401,7 +5436,7 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13">
         <v>101001</v>
@@ -5415,7 +5450,7 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14">
         <v>101001</v>
@@ -5429,7 +5464,7 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>101001</v>
@@ -5443,7 +5478,7 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16">
         <v>101001</v>
@@ -5457,7 +5492,7 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17">
         <v>101001</v>
@@ -5471,7 +5506,7 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C18">
         <v>101001</v>
@@ -5485,7 +5520,7 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19">
         <v>101001</v>
@@ -5499,7 +5534,7 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20">
         <v>101001</v>
@@ -5513,7 +5548,7 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C21">
         <v>101001</v>
@@ -5527,7 +5562,7 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C22">
         <v>101001</v>
@@ -5541,7 +5576,7 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C23">
         <v>101001</v>
@@ -5555,7 +5590,7 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C24">
         <v>101001</v>
@@ -5569,7 +5604,7 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>101001</v>
@@ -5583,7 +5618,7 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C26">
         <v>101001</v>
@@ -5597,7 +5632,7 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27">
         <v>101001</v>
@@ -5611,7 +5646,7 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C28">
         <v>101001</v>
@@ -5625,7 +5660,7 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C29">
         <v>101001</v>
@@ -5639,7 +5674,7 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C30">
         <v>101001</v>
@@ -5653,7 +5688,7 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31">
         <v>101001</v>
@@ -5667,7 +5702,7 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C32">
         <v>101001</v>
@@ -5681,7 +5716,7 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33">
         <v>101001</v>
@@ -5695,7 +5730,7 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C34">
         <v>101001</v>
@@ -5709,7 +5744,7 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C35">
         <v>101001</v>
@@ -5723,7 +5758,7 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C36">
         <v>101001</v>
@@ -5737,7 +5772,7 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C37">
         <v>101001</v>
@@ -5751,7 +5786,7 @@
         <v>150101</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C38">
         <v>101001</v>
@@ -5765,7 +5800,7 @@
         <v>150102</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C39">
         <v>101001</v>
@@ -5779,7 +5814,7 @@
         <v>150103</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C40">
         <v>101001</v>
@@ -5793,7 +5828,7 @@
         <v>150201</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C41">
         <v>101001</v>
@@ -5807,7 +5842,7 @@
         <v>150202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C42">
         <v>101001</v>
@@ -5821,7 +5856,7 @@
         <v>150203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C43">
         <v>101001</v>
@@ -5835,7 +5870,7 @@
         <v>150301</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C44">
         <v>101001</v>
@@ -5849,7 +5884,7 @@
         <v>150302</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C45">
         <v>101001</v>
@@ -5863,7 +5898,7 @@
         <v>150303</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C46">
         <v>101001</v>
@@ -5901,22 +5936,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
@@ -5924,10 +5959,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="37">
         <v>110101</v>
@@ -5944,10 +5979,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="39">
         <v>110201</v>
@@ -5964,10 +5999,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D4" s="39">
         <v>110301</v>
@@ -5984,10 +6019,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D5" s="37">
         <v>120101</v>
@@ -6004,10 +6039,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D6" s="39">
         <v>120201</v>
@@ -6024,10 +6059,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" s="39">
         <v>120301</v>
@@ -6044,10 +6079,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D8" s="37">
         <v>130101</v>
@@ -6064,10 +6099,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D9" s="39">
         <v>130201</v>
@@ -6084,10 +6119,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D10" s="39">
         <v>130301</v>
@@ -6104,10 +6139,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D11" s="37">
         <v>140101</v>
@@ -6124,10 +6159,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D12" s="39">
         <v>140201</v>
@@ -6144,10 +6179,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D13" s="39">
         <v>140301</v>
@@ -6164,10 +6199,10 @@
         <v>1501</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D14" s="37">
         <v>150101</v>
@@ -6184,10 +6219,10 @@
         <v>1502</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" s="39">
         <v>150201</v>
@@ -6204,10 +6239,10 @@
         <v>1503</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D16" s="39">
         <v>150301</v>
@@ -6224,10 +6259,10 @@
         <v>1601</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D17" s="37">
         <v>160101</v>
@@ -6267,25 +6302,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
@@ -6293,13 +6328,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E2" s="33">
         <v>20</v>
@@ -6308,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -6316,13 +6351,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3" s="33">
         <v>50</v>
@@ -6331,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -6339,13 +6374,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" s="33">
         <v>100</v>
@@ -6354,7 +6389,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -6362,22 +6397,22 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>223</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -6385,22 +6420,22 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="33">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -6408,13 +6443,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -6423,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -6431,13 +6466,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E8" s="33">
         <v>150</v>
@@ -6446,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6454,22 +6489,22 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6477,13 +6512,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E10" s="33">
         <v>101</v>
@@ -6492,7 +6527,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6500,13 +6535,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E11" s="33">
         <v>102</v>
@@ -6515,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6523,13 +6558,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E12" s="33">
         <v>103</v>
@@ -6538,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6546,13 +6581,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" s="33">
         <v>104</v>
@@ -6561,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6569,13 +6604,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E14" s="33">
         <v>105</v>
@@ -6584,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6592,13 +6627,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E15" s="33">
         <v>106</v>
@@ -6607,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6615,10 +6650,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6650,10 +6685,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="276">
   <si>
     <t>_chapterId</t>
   </si>
@@ -46,9 +46,6 @@
     <t>_stageCount</t>
   </si>
   <si>
-    <t>태초의 푸루샤</t>
-  </si>
-  <si>
     <t>주요 연구의 핵심인 Dr.브리샤를 되찾기 위해 알 수 없는 드론들이 우리들의 본거지를 공격하기 시작했다. 우리의 힘으로 Dr.브리샤와 기지를 지킬 수 있을까?</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
   </si>
   <si>
     <t>UI/Icon/Skill_Kain4</t>
-  </si>
-  <si>
-    <t>대상 1명에게 연발사격 (치명타 시 턴획득 1회)</t>
   </si>
   <si>
     <t>헤드샷 (치확+15%/치피+25퍼)</t>
@@ -872,6 +866,18 @@
   </si>
   <si>
     <t>플레이어 방어력 비례 쉴드 생성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>태초의 푸루샤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지를 집중하여 적 대상 1명을 찌른 후 폭발시킨다</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 1명에게 연발사격</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1501,12 +1507,15 @@
   <dimension ref="A1:AMK8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="14.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -1528,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -1542,10 +1551,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
@@ -1556,10 +1565,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="3">
         <v>3</v>
@@ -1570,10 +1579,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
@@ -1584,10 +1593,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>3</v>
@@ -1598,10 +1607,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
@@ -1612,10 +1621,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>3</v>
@@ -1632,9 +1641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK51"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1654,52 +1663,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1707,49 +1716,49 @@
         <v>101011</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>1</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1757,10 +1766,10 @@
         <v>101021</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -1796,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1807,10 +1816,10 @@
         <v>101031</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -1846,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="O4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1857,10 +1866,10 @@
         <v>101032</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1896,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="O5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1907,10 +1916,10 @@
         <v>101033</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1946,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="O6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1957,10 +1966,10 @@
         <v>101041</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1996,10 +2005,10 @@
         <v>-5</v>
       </c>
       <c r="O7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2007,10 +2016,10 @@
         <v>101042</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -2046,10 +2055,10 @@
         <v>-5</v>
       </c>
       <c r="O8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2057,11 +2066,11 @@
         <v>102011</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="D9" s="13">
         <v>0</v>
       </c>
@@ -2096,10 +2105,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2107,10 +2116,10 @@
         <v>102021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -2146,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2157,10 +2166,10 @@
         <v>102031</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2196,10 +2205,10 @@
         <v>4</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2207,10 +2216,10 @@
         <v>102032</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2246,10 +2255,10 @@
         <v>4</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2257,10 +2266,10 @@
         <v>102033</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2296,10 +2305,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2307,10 +2316,10 @@
         <v>102041</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -2346,10 +2355,10 @@
         <v>-5</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2357,10 +2366,10 @@
         <v>102042</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2396,10 +2405,10 @@
         <v>-5</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2407,11 +2416,11 @@
         <v>103011</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
@@ -2446,10 +2455,10 @@
         <v>1</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2457,10 +2466,10 @@
         <v>103021</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -2496,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2507,10 +2516,10 @@
         <v>103031</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -2546,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2557,10 +2566,10 @@
         <v>103032</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -2596,10 +2605,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2607,10 +2616,10 @@
         <v>103033</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2646,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2657,10 +2666,10 @@
         <v>103041</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -2696,10 +2705,10 @@
         <v>-5</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2707,10 +2716,10 @@
         <v>103042</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -2746,10 +2755,10 @@
         <v>-5</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2757,10 +2766,10 @@
         <v>104011</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -2796,10 +2805,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2807,10 +2816,10 @@
         <v>104021</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
@@ -2846,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2857,10 +2866,10 @@
         <v>104031</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -2896,10 +2905,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2907,10 +2916,10 @@
         <v>104032</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
@@ -2946,10 +2955,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2957,10 +2966,10 @@
         <v>104033</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
@@ -2996,10 +3005,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3007,10 +3016,10 @@
         <v>104041</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="9">
         <v>4</v>
@@ -3046,10 +3055,10 @@
         <v>-5</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3057,10 +3066,10 @@
         <v>104042</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="9">
         <v>4</v>
@@ -3096,10 +3105,10 @@
         <v>-5</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3107,10 +3116,10 @@
         <v>105011</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -3146,10 +3155,10 @@
         <v>1</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3157,10 +3166,10 @@
         <v>105021</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
@@ -3196,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3207,10 +3216,10 @@
         <v>105031</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -3246,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3257,10 +3266,10 @@
         <v>105032</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -3296,10 +3305,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3307,10 +3316,10 @@
         <v>105033</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -3346,10 +3355,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3357,10 +3366,10 @@
         <v>105041</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -3396,10 +3405,10 @@
         <v>-5</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3407,10 +3416,10 @@
         <v>105042</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D36" s="15">
         <v>0</v>
@@ -3446,10 +3455,10 @@
         <v>-5</v>
       </c>
       <c r="O36" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P36" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3457,11 +3466,11 @@
         <v>106011</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D37" s="7">
         <v>0</v>
       </c>
@@ -3496,10 +3505,10 @@
         <v>1</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3507,10 +3516,10 @@
         <v>106021</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
@@ -3546,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3557,10 +3566,10 @@
         <v>106031</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -3596,10 +3605,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3607,10 +3616,10 @@
         <v>106032</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -3646,10 +3655,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P40" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3657,10 +3666,10 @@
         <v>106033</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>87</v>
+        <v>275</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -3696,10 +3705,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3707,10 +3716,10 @@
         <v>106041</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -3746,10 +3755,10 @@
         <v>-5</v>
       </c>
       <c r="O42" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="P42" s="8" t="s">
         <v>257</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3757,10 +3766,10 @@
         <v>106042</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -3796,10 +3805,10 @@
         <v>-5</v>
       </c>
       <c r="O43" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3807,10 +3816,10 @@
         <v>101001011</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -3846,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P44" s="8"/>
     </row>
@@ -3855,10 +3864,10 @@
         <v>101001021</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="20">
         <v>0</v>
@@ -3894,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P45" s="21"/>
     </row>
@@ -3903,10 +3912,10 @@
         <v>101002011</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -3942,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P46" s="8"/>
     </row>
@@ -3951,10 +3960,10 @@
         <v>101002021</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
@@ -3990,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P47" s="21"/>
     </row>
@@ -3999,10 +4008,10 @@
         <v>101003011</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
@@ -4038,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P48" s="8"/>
     </row>
@@ -4047,10 +4056,10 @@
         <v>101003021</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -4086,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P49" s="16"/>
     </row>
@@ -4095,10 +4104,10 @@
         <v>201001011</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -4134,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P50" s="8"/>
     </row>
@@ -4143,10 +4152,10 @@
         <v>201001021</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="20">
         <v>1</v>
@@ -4182,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P51" s="21"/>
     </row>
@@ -4197,7 +4206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4212,25 +4221,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4248,7 +4257,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="26">
         <v>0</v>
@@ -4263,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4271,7 +4280,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -4286,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4294,7 +4303,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
@@ -4309,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4317,7 +4326,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="26">
         <v>0</v>
@@ -4332,7 +4341,7 @@
         <v>0.7</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4340,7 +4349,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="26">
         <v>0</v>
@@ -4355,7 +4364,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4363,7 +4372,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="26">
         <v>0</v>
@@ -4378,7 +4387,7 @@
         <v>0.7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4386,7 +4395,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" s="26">
         <v>0</v>
@@ -4401,7 +4410,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4409,7 +4418,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="26">
         <v>0</v>
@@ -4424,7 +4433,7 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4432,7 +4441,7 @@
         <v>206</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="26">
         <v>0</v>
@@ -4447,7 +4456,7 @@
         <v>0.3</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -4455,7 +4464,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="26">
         <v>0</v>
@@ -4470,7 +4479,7 @@
         <v>0.6</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -4478,7 +4487,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="26">
         <v>0</v>
@@ -4493,7 +4502,7 @@
         <v>0.8</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -4501,7 +4510,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="26">
         <v>0</v>
@@ -4516,7 +4525,7 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4554,43 +4563,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>135</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
@@ -4598,7 +4607,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -4628,7 +4637,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M2" s="31"/>
     </row>
@@ -4637,7 +4646,7 @@
         <v>101002</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="30">
         <v>3</v>
@@ -4667,7 +4676,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4676,7 +4685,7 @@
         <v>101003</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="30">
         <v>5</v>
@@ -4706,7 +4715,7 @@
         <v>300</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M4" s="31"/>
     </row>
@@ -4715,7 +4724,7 @@
         <v>201001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="30">
         <v>10</v>
@@ -4745,7 +4754,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M5" s="31"/>
     </row>
@@ -4784,49 +4793,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12.6" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="H1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="L1" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="O1" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P1" s="33"/>
     </row>
@@ -4835,7 +4844,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="33">
         <v>3000</v>
@@ -4871,10 +4880,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -4883,7 +4892,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="33">
         <v>2500</v>
@@ -4919,10 +4928,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -4931,7 +4940,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" s="33">
         <v>2500</v>
@@ -4967,10 +4976,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -4979,7 +4988,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5" s="33">
         <v>2000</v>
@@ -5015,10 +5024,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -5027,7 +5036,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="33">
         <v>2000</v>
@@ -5063,10 +5072,10 @@
         <v>1.2</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -5075,7 +5084,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="33">
         <v>4000</v>
@@ -5111,10 +5120,10 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P7" s="35"/>
     </row>
@@ -5130,17 +5139,17 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.5"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -5152,66 +5161,68 @@
     <col min="15" max="15" width="19.5" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" customWidth="1"/>
     <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="1025" width="11" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+    <col min="20" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>182</v>
-      </c>
       <c r="S1" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.6" customHeight="1">
@@ -5219,7 +5230,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" s="33">
         <v>101001</v>
@@ -5256,7 +5267,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="33">
         <v>101001</v>
@@ -5272,10 +5283,18 @@
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="M3" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N3" s="33">
+        <v>1</v>
+      </c>
+      <c r="O3" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P3" s="33">
+        <v>3</v>
+      </c>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -5285,7 +5304,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="35">
         <v>101002</v>
@@ -5305,10 +5324,18 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="M4" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N4" s="33">
+        <v>2</v>
+      </c>
+      <c r="O4" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P4" s="33">
+        <v>5</v>
+      </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
       <c r="S4" s="35"/>
@@ -5318,7 +5345,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="35">
         <v>101002</v>
@@ -5331,6 +5358,18 @@
       </c>
       <c r="F5">
         <v>2</v>
+      </c>
+      <c r="M5" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N5" s="33">
+        <v>1</v>
+      </c>
+      <c r="O5" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P5" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24">
@@ -5338,13 +5377,25 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <v>101002</v>
       </c>
       <c r="D6">
         <v>2</v>
+      </c>
+      <c r="M6" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N6" s="33">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P6" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
@@ -5352,13 +5403,25 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7">
         <v>101002</v>
       </c>
       <c r="D7">
         <v>3</v>
+      </c>
+      <c r="M7" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N7" s="33">
+        <v>2</v>
+      </c>
+      <c r="O7" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P7" s="33">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
@@ -5366,13 +5429,25 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>101001</v>
       </c>
       <c r="D8">
         <v>2</v>
+      </c>
+      <c r="M8" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N8" s="33">
+        <v>1</v>
+      </c>
+      <c r="O8" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P8" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
@@ -5380,12 +5455,24 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9">
         <v>101001</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N9" s="33">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P9" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5394,12 +5481,24 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10">
         <v>101001</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N10" s="33">
+        <v>2</v>
+      </c>
+      <c r="O10" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P10" s="33">
         <v>5</v>
       </c>
     </row>
@@ -5408,13 +5507,25 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C11">
         <v>101001</v>
       </c>
       <c r="D11">
         <v>2</v>
+      </c>
+      <c r="M11" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N11" s="33">
+        <v>1</v>
+      </c>
+      <c r="O11" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P11" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="24">
@@ -5422,12 +5533,24 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>101001</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="M12" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N12" s="33">
+        <v>1</v>
+      </c>
+      <c r="O12" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P12" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5436,12 +5559,24 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>101001</v>
       </c>
       <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="M13" s="33">
+        <v>10401</v>
+      </c>
+      <c r="N13" s="33">
+        <v>2</v>
+      </c>
+      <c r="O13" s="33">
+        <v>10101</v>
+      </c>
+      <c r="P13" s="33">
         <v>5</v>
       </c>
     </row>
@@ -5450,7 +5585,7 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14">
         <v>101001</v>
@@ -5464,7 +5599,7 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15">
         <v>101001</v>
@@ -5478,7 +5613,7 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>101001</v>
@@ -5492,7 +5627,7 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17">
         <v>101001</v>
@@ -5506,7 +5641,7 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18">
         <v>101001</v>
@@ -5520,7 +5655,7 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C19">
         <v>101001</v>
@@ -5534,7 +5669,7 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20">
         <v>101001</v>
@@ -5548,7 +5683,7 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C21">
         <v>101001</v>
@@ -5562,7 +5697,7 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22">
         <v>101001</v>
@@ -5576,7 +5711,7 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C23">
         <v>101001</v>
@@ -5590,7 +5725,7 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24">
         <v>101001</v>
@@ -5604,7 +5739,7 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25">
         <v>101001</v>
@@ -5618,7 +5753,7 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26">
         <v>101001</v>
@@ -5632,7 +5767,7 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <v>101001</v>
@@ -5646,7 +5781,7 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28">
         <v>101001</v>
@@ -5660,7 +5795,7 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C29">
         <v>101001</v>
@@ -5674,7 +5809,7 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>101001</v>
@@ -5688,7 +5823,7 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C31">
         <v>101001</v>
@@ -5702,7 +5837,7 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C32">
         <v>101001</v>
@@ -5716,7 +5851,7 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C33">
         <v>101001</v>
@@ -5730,7 +5865,7 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C34">
         <v>101001</v>
@@ -5744,7 +5879,7 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C35">
         <v>101001</v>
@@ -5758,7 +5893,7 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C36">
         <v>101001</v>
@@ -5772,7 +5907,7 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37">
         <v>101001</v>
@@ -5786,7 +5921,7 @@
         <v>150101</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C38">
         <v>101001</v>
@@ -5800,7 +5935,7 @@
         <v>150102</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C39">
         <v>101001</v>
@@ -5814,7 +5949,7 @@
         <v>150103</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C40">
         <v>101001</v>
@@ -5828,7 +5963,7 @@
         <v>150201</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41">
         <v>101001</v>
@@ -5842,7 +5977,7 @@
         <v>150202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C42">
         <v>101001</v>
@@ -5856,7 +5991,7 @@
         <v>150203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C43">
         <v>101001</v>
@@ -5870,7 +6005,7 @@
         <v>150301</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44">
         <v>101001</v>
@@ -5884,7 +6019,7 @@
         <v>150302</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45">
         <v>101001</v>
@@ -5898,7 +6033,7 @@
         <v>150303</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C46">
         <v>101001</v>
@@ -5923,7 +6058,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5936,22 +6071,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="E1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="F1" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
@@ -5959,10 +6094,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="37">
         <v>110101</v>
@@ -5979,10 +6114,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="39">
         <v>110201</v>
@@ -5999,10 +6134,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D4" s="39">
         <v>110301</v>
@@ -6019,10 +6154,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="37">
         <v>120101</v>
@@ -6039,10 +6174,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="39">
         <v>120201</v>
@@ -6059,10 +6194,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="39">
         <v>120301</v>
@@ -6079,10 +6214,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D8" s="37">
         <v>130101</v>
@@ -6099,10 +6234,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="39">
         <v>130201</v>
@@ -6119,10 +6254,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D10" s="39">
         <v>130301</v>
@@ -6139,10 +6274,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="37">
         <v>140101</v>
@@ -6159,10 +6294,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" s="39">
         <v>140201</v>
@@ -6179,10 +6314,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="39">
         <v>140301</v>
@@ -6199,10 +6334,10 @@
         <v>1501</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D14" s="37">
         <v>150101</v>
@@ -6219,10 +6354,10 @@
         <v>1502</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="39">
         <v>150201</v>
@@ -6239,10 +6374,10 @@
         <v>1503</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="39">
         <v>150301</v>
@@ -6259,10 +6394,10 @@
         <v>1601</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17" s="37">
         <v>160101</v>
@@ -6302,25 +6437,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>211</v>
-      </c>
       <c r="G1" s="33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
@@ -6328,13 +6463,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="E2" s="33">
         <v>20</v>
@@ -6343,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -6351,13 +6486,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E3" s="33">
         <v>50</v>
@@ -6366,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -6374,13 +6509,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" s="33">
         <v>100</v>
@@ -6389,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -6397,22 +6532,22 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>221</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -6420,22 +6555,22 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="E6" s="33">
+        <v>1</v>
+      </c>
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>225</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="33">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -6443,13 +6578,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>230</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -6458,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -6466,13 +6601,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E8" s="33">
         <v>150</v>
@@ -6481,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6489,22 +6624,22 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="E9" s="33">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>235</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6512,13 +6647,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
         <v>238</v>
-      </c>
-      <c r="C10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" t="s">
-        <v>240</v>
       </c>
       <c r="E10" s="33">
         <v>101</v>
@@ -6527,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6535,13 +6670,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E11" s="33">
         <v>102</v>
@@ -6550,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6558,13 +6693,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" s="33">
         <v>103</v>
@@ -6573,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6581,13 +6716,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E13" s="33">
         <v>104</v>
@@ -6596,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6604,13 +6739,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E14" s="33">
         <v>105</v>
@@ -6619,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6627,13 +6762,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E15" s="33">
         <v>106</v>
@@ -6642,7 +6777,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6650,10 +6785,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -6685,10 +6820,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="270">
   <si>
     <t xml:space="preserve">_chapterId</t>
   </si>
@@ -1311,7 +1311,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -1450,7 +1450,7 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
@@ -4119,7 +4119,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4459,7 +4459,7 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4735,7 +4735,7 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -5107,8 +5107,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5188,9 +5188,7 @@
       <c r="R1" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="33" t="s">
-        <v>197</v>
-      </c>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="n">
@@ -5213,20 +5211,24 @@
       <c r="J2" s="35"/>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
-      <c r="M2" s="33" t="n">
+      <c r="M2" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N2" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="33" t="n">
         <v>10401</v>
       </c>
-      <c r="N2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33" t="n">
+      <c r="P2" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="33" t="n">
         <v>10101</v>
       </c>
-      <c r="P2" s="33" t="n">
+      <c r="R2" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
       <c r="S2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5250,10 +5252,18 @@
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
       <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="M3" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N3" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P3" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
@@ -5283,15 +5293,27 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
+      <c r="M4" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N4" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="33" t="n">
+        <v>10401</v>
+      </c>
+      <c r="P4" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="33" t="n">
+        <v>10101</v>
+      </c>
+      <c r="R4" s="35" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>110201</v>
       </c>
@@ -5310,8 +5332,20 @@
       <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M5" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N5" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>110202</v>
       </c>
@@ -5324,8 +5358,20 @@
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M6" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N6" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33" t="n">
+        <v>10601</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>110203</v>
       </c>
@@ -5338,8 +5384,26 @@
       <c r="D7" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N7" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="33" t="n">
+        <v>10401</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="33" t="n">
+        <v>10101</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>110301</v>
       </c>
@@ -5352,8 +5416,20 @@
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M8" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N8" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="33" t="n">
+        <v>10602</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>110302</v>
       </c>
@@ -5366,8 +5442,20 @@
       <c r="D9" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M9" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N9" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>110303</v>
       </c>
@@ -5380,8 +5468,26 @@
       <c r="D10" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M10" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N10" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="33" t="n">
+        <v>10401</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="33" t="n">
+        <v>10101</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="n">
         <v>120101</v>
       </c>
@@ -5394,8 +5500,20 @@
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N11" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="n">
         <v>120102</v>
       </c>
@@ -5408,8 +5526,20 @@
       <c r="D12" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M12" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N12" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="33" t="n">
+        <v>10603</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="n">
         <v>120103</v>
       </c>
@@ -5422,8 +5552,26 @@
       <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N13" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="33" t="n">
+        <v>10401</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="33" t="n">
+        <v>10102</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>120201</v>
       </c>
@@ -5436,8 +5584,20 @@
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M14" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N14" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>120202</v>
       </c>
@@ -5450,8 +5610,20 @@
       <c r="D15" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M15" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N15" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="33" t="n">
+        <v>10604</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>120203</v>
       </c>
@@ -5464,8 +5636,26 @@
       <c r="D16" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N16" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="33" t="n">
+        <v>10102</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>120301</v>
       </c>
@@ -5478,8 +5668,20 @@
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N17" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="33" t="n">
+        <v>10603</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>120302</v>
       </c>
@@ -5492,8 +5694,20 @@
       <c r="D18" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N18" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="33" t="n">
+        <v>10601</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>120303</v>
       </c>
@@ -5506,8 +5720,26 @@
       <c r="D19" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N19" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="33" t="n">
+        <v>10102</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="n">
         <v>130101</v>
       </c>
@@ -5520,8 +5752,20 @@
       <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N20" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="n">
         <v>130102</v>
       </c>
@@ -5534,8 +5778,20 @@
       <c r="D21" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N21" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="n">
         <v>130103</v>
       </c>
@@ -5548,8 +5804,26 @@
       <c r="D22" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N22" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="33" t="n">
+        <v>10102</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>130201</v>
       </c>
@@ -5562,8 +5836,20 @@
       <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N23" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O23" s="33" t="n">
+        <v>10605</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>130202</v>
       </c>
@@ -5576,8 +5862,20 @@
       <c r="D24" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M24" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N24" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>130203</v>
       </c>
@@ -5590,8 +5888,26 @@
       <c r="D25" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M25" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N25" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>130301</v>
       </c>
@@ -5604,8 +5920,20 @@
       <c r="D26" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M26" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N26" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>130302</v>
       </c>
@@ -5618,8 +5946,20 @@
       <c r="D27" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M27" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N27" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>130303</v>
       </c>
@@ -5632,8 +5972,26 @@
       <c r="D28" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M28" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N28" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="n">
         <v>140101</v>
       </c>
@@ -5646,8 +6004,20 @@
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M29" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N29" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" s="33" t="n">
+        <v>10606</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="n">
         <v>140102</v>
       </c>
@@ -5660,8 +6030,26 @@
       <c r="D30" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M30" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N30" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" s="33" t="n">
+        <v>10601</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="33" t="n">
+        <v>10602</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="n">
         <v>140103</v>
       </c>
@@ -5674,8 +6062,26 @@
       <c r="D31" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M31" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N31" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O31" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>140201</v>
       </c>
@@ -5688,8 +6094,20 @@
       <c r="D32" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N32" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" s="33" t="n">
+        <v>10602</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>140202</v>
       </c>
@@ -5702,8 +6120,20 @@
       <c r="D33" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N33" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>140203</v>
       </c>
@@ -5716,8 +6146,26 @@
       <c r="D34" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M34" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N34" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O34" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>140301</v>
       </c>
@@ -5730,8 +6178,20 @@
       <c r="D35" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M35" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N35" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>140302</v>
       </c>
@@ -5744,8 +6204,26 @@
       <c r="D36" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M36" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N36" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="33" t="n">
+        <v>10603</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>140303</v>
       </c>
@@ -5758,8 +6236,26 @@
       <c r="D37" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M37" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N37" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O37" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33" t="n">
         <v>150101</v>
       </c>
@@ -5772,8 +6268,20 @@
       <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N38" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" s="33" t="n">
+        <v>10604</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="n">
         <v>150102</v>
       </c>
@@ -5786,8 +6294,20 @@
       <c r="D39" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N39" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="n">
         <v>150103</v>
       </c>
@@ -5800,8 +6320,26 @@
       <c r="D40" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M40" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N40" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>150201</v>
       </c>
@@ -5814,8 +6352,20 @@
       <c r="D41" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N41" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>150202</v>
       </c>
@@ -5828,8 +6378,26 @@
       <c r="D42" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M42" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N42" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" s="33" t="n">
+        <v>10606</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="33" t="n">
+        <v>10605</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>150203</v>
       </c>
@@ -5842,8 +6410,26 @@
       <c r="D43" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M43" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N43" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>150301</v>
       </c>
@@ -5856,8 +6442,20 @@
       <c r="D44" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N44" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" s="33" t="n">
+        <v>10301</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>150302</v>
       </c>
@@ -5870,8 +6468,20 @@
       <c r="D45" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N45" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" s="33" t="n">
+        <v>10201</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>150303</v>
       </c>
@@ -5883,6 +6493,24 @@
       </c>
       <c r="D46" s="0" t="n">
         <v>5</v>
+      </c>
+      <c r="M46" s="35" t="n">
+        <v>10501</v>
+      </c>
+      <c r="N46" s="35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" s="33" t="n">
+        <v>10402</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="33" t="n">
+        <v>10103</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5903,7 +6531,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6273,8 +6901,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6307,7 +6935,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="n">
         <v>10101</v>
       </c>
@@ -6399,7 +7027,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="n">
         <v>10301</v>
       </c>
@@ -6468,7 +7096,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="n">
         <v>10501</v>
       </c>
@@ -6661,7 +7289,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -1451,9 +1451,9 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
+      <selection pane="bottomLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="7" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I52" s="7" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="20" t="n">
         <v>0</v>
@@ -4088,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="L53" s="20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M53" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N53" s="20" t="n">
         <v>0</v>
@@ -4459,8 +4459,8 @@
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5107,8 +5107,8 @@
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5411,9 +5411,15 @@
         <v>198</v>
       </c>
       <c r="C8" s="0" t="n">
+        <v>101002</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>101001</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="F8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="M8" s="35" t="n">
@@ -5440,7 +5446,7 @@
         <v>101001</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="35" t="n">
         <v>10501</v>
@@ -5463,10 +5469,10 @@
         <v>198</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>101001</v>
+        <v>301001</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" s="35" t="n">
         <v>10501</v>
@@ -6531,7 +6537,7 @@
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="280">
   <si>
     <t>_chapterId</t>
   </si>
@@ -151,9 +151,6 @@
     <t>쉴드</t>
   </si>
   <si>
-    <t>플레이어 방어력 비례 쉴드 생성</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Breesha/Skill2</t>
   </si>
   <si>
@@ -310,25 +307,16 @@
     <t>Prefabs/Skill/Kana/Skill2</t>
   </si>
   <si>
-    <t>대상 1명에게 연발사격 (치명타 시 턴획득 1회)</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Kana/Skill3</t>
   </si>
   <si>
     <t>UI/Icon/Skill_Kana3</t>
   </si>
   <si>
-    <t>헤드샷 (치확+15%/치피+25퍼)</t>
-  </si>
-  <si>
     <t>Prefabs/Skill/Kana/Skill4</t>
   </si>
   <si>
     <t>UI/Icon/Skill_Kana4</t>
-  </si>
-  <si>
-    <t>헤드샷 (치확+20%/치피+40퍼)</t>
   </si>
   <si>
     <t>적 1명 사격</t>
@@ -849,6 +837,52 @@
   </si>
   <si>
     <t>Prefabs/Map/Chapter7/Chap7-3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극(레벨1)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유스킬</t>
+  </si>
+  <si>
+    <t>고유스킬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 팀 전원 쉴드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 팀 전원 행동게이지 +20</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체 공격력 증가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체 공격력 감소</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체 방어력 감소</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체 방어력 증가</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 1명에게 사격 (치명타 시 턴획득 1회)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 1명에게 강력한 공격</t>
+  </si>
+  <si>
+    <t>대상 1명에게 강력한 공격</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1609,8 +1643,8 @@
   <dimension ref="A1:AMK53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1733,49 +1767,49 @@
         <v>101021</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>102</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
-        <v>101</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>0</v>
-      </c>
-      <c r="L3" s="9">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1783,49 +1817,49 @@
         <v>101031</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2</v>
-      </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1833,49 +1867,49 @@
         <v>101032</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1883,49 +1917,49 @@
         <v>101033</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1933,10 +1967,10 @@
         <v>101041</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1972,10 +2006,10 @@
         <v>-5</v>
       </c>
       <c r="O7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1983,10 +2017,10 @@
         <v>101042</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -2022,10 +2056,10 @@
         <v>-5</v>
       </c>
       <c r="O8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2072,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>37</v>
@@ -2083,10 +2117,10 @@
         <v>102021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -2095,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="9">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -2122,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2133,10 +2167,10 @@
         <v>102031</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2160,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="7">
         <v>1</v>
@@ -2172,10 +2206,10 @@
         <v>4</v>
       </c>
       <c r="O11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2183,10 +2217,10 @@
         <v>102032</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -2210,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="7">
         <v>1</v>
@@ -2222,10 +2256,10 @@
         <v>4</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2233,10 +2267,10 @@
         <v>102033</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -2272,10 +2306,10 @@
         <v>4</v>
       </c>
       <c r="O13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2283,10 +2317,10 @@
         <v>102041</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -2322,10 +2356,10 @@
         <v>-5</v>
       </c>
       <c r="O14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2333,10 +2367,10 @@
         <v>102042</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2372,10 +2406,10 @@
         <v>-5</v>
       </c>
       <c r="O15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2422,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>37</v>
@@ -2433,10 +2467,10 @@
         <v>103021</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -2445,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="9">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
@@ -2472,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2483,10 +2517,10 @@
         <v>103031</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -2510,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="7">
         <v>1</v>
@@ -2522,10 +2556,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2533,10 +2567,10 @@
         <v>103032</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -2560,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="7">
         <v>1</v>
@@ -2572,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2583,10 +2617,10 @@
         <v>103033</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -2622,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2633,10 +2667,10 @@
         <v>103041</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -2672,10 +2706,10 @@
         <v>-5</v>
       </c>
       <c r="O21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2683,10 +2717,10 @@
         <v>103042</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -2722,10 +2756,10 @@
         <v>-5</v>
       </c>
       <c r="O22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2736,7 +2770,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -2772,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P23" s="17" t="s">
         <v>37</v>
@@ -2783,10 +2817,10 @@
         <v>104021</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
@@ -2795,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="9">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
@@ -2822,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2833,10 +2867,10 @@
         <v>104031</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
@@ -2872,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2883,10 +2917,10 @@
         <v>104032</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
@@ -2922,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2933,10 +2967,10 @@
         <v>104033</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
@@ -2972,10 +3006,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2983,10 +3017,10 @@
         <v>104041</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9">
         <v>4</v>
@@ -3007,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="9">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="K28" s="9">
         <v>0</v>
@@ -3022,10 +3056,10 @@
         <v>-5</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3033,10 +3067,10 @@
         <v>104042</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="9">
         <v>4</v>
@@ -3057,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
@@ -3072,10 +3106,10 @@
         <v>-5</v>
       </c>
       <c r="O29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3086,7 +3120,7 @@
         <v>34</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -3122,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>37</v>
@@ -3133,10 +3167,10 @@
         <v>105021</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
@@ -3172,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3183,10 +3217,10 @@
         <v>105031</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="11">
         <v>0</v>
@@ -3222,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3233,10 +3267,10 @@
         <v>105032</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="11">
         <v>0</v>
@@ -3272,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="O33" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3283,10 +3317,10 @@
         <v>105033</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="11">
         <v>0</v>
@@ -3322,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3333,10 +3367,10 @@
         <v>105041</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
@@ -3357,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K35" s="7">
         <v>0</v>
@@ -3372,10 +3406,10 @@
         <v>-5</v>
       </c>
       <c r="O35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3383,10 +3417,10 @@
         <v>105042</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="15">
         <v>0</v>
@@ -3407,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="15">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K36" s="15">
         <v>0</v>
@@ -3422,10 +3456,10 @@
         <v>-5</v>
       </c>
       <c r="O36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="16" t="s">
         <v>88</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3472,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P37" s="8" t="s">
         <v>37</v>
@@ -3483,10 +3517,10 @@
         <v>106021</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
@@ -3495,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="9">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
@@ -3522,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3533,10 +3567,10 @@
         <v>106031</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -3572,10 +3606,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3583,10 +3617,10 @@
         <v>106032</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -3622,10 +3656,10 @@
         <v>2</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P40" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3633,10 +3667,10 @@
         <v>106033</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -3672,10 +3706,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P41" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3683,10 +3717,10 @@
         <v>106041</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -3701,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -3722,10 +3756,10 @@
         <v>-5</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P42" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3733,10 +3767,10 @@
         <v>106042</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -3751,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I43" s="15">
         <v>0</v>
@@ -3772,10 +3806,10 @@
         <v>-5</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3786,7 +3820,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -3822,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P44" s="8"/>
     </row>
@@ -3831,10 +3865,10 @@
         <v>101001021</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D45" s="20">
         <v>0</v>
@@ -3870,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P45" s="21"/>
     </row>
@@ -3882,7 +3916,7 @@
         <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
@@ -3918,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P46" s="8"/>
     </row>
@@ -3927,10 +3961,10 @@
         <v>101002021</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
@@ -3966,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="P47" s="21"/>
     </row>
@@ -3978,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
@@ -4014,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P48" s="8"/>
     </row>
@@ -4023,10 +4057,10 @@
         <v>101003021</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D49" s="15">
         <v>1</v>
@@ -4062,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P49" s="16"/>
     </row>
@@ -4074,7 +4108,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
@@ -4110,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P50" s="8"/>
     </row>
@@ -4119,10 +4153,10 @@
         <v>201001021</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D51" s="20">
         <v>1</v>
@@ -4158,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P51" s="21"/>
     </row>
@@ -4170,7 +4204,7 @@
         <v>34</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -4206,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P52" s="8"/>
     </row>
@@ -4215,10 +4249,10 @@
         <v>301001021</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D53" s="20">
         <v>0</v>
@@ -4254,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P53" s="21"/>
     </row>
@@ -4290,10 +4324,10 @@
         <v>19</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>30</v>
@@ -4335,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4343,7 +4377,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -4358,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4366,7 +4400,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
@@ -4381,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4389,7 +4423,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" s="26">
         <v>0</v>
@@ -4404,7 +4438,7 @@
         <v>0.7</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4412,7 +4446,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C7" s="26">
         <v>0</v>
@@ -4427,7 +4461,7 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4435,7 +4469,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="26">
         <v>0</v>
@@ -4450,7 +4484,7 @@
         <v>0.7</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4458,7 +4492,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="26">
         <v>0</v>
@@ -4473,7 +4507,7 @@
         <v>0.5</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4481,7 +4515,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C10" s="26">
         <v>0</v>
@@ -4496,7 +4530,7 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4504,7 +4538,7 @@
         <v>206</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="26">
         <v>0</v>
@@ -4519,7 +4553,7 @@
         <v>0.3</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -4527,7 +4561,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C12" s="26">
         <v>0</v>
@@ -4542,7 +4576,7 @@
         <v>0.6</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -4550,7 +4584,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" s="26">
         <v>0</v>
@@ -4565,7 +4599,7 @@
         <v>0.8</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -4573,7 +4607,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="26">
         <v>0</v>
@@ -4588,7 +4622,7 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4626,43 +4660,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="G1" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="J1" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="K1" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12.75">
@@ -4670,7 +4704,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -4700,7 +4734,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M2" s="31"/>
     </row>
@@ -4709,7 +4743,7 @@
         <v>101002</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="30">
         <v>3</v>
@@ -4739,7 +4773,7 @@
         <v>200</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4748,7 +4782,7 @@
         <v>101003</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C4" s="30">
         <v>5</v>
@@ -4778,7 +4812,7 @@
         <v>300</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M4" s="31"/>
     </row>
@@ -4787,7 +4821,7 @@
         <v>201001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="30">
         <v>10</v>
@@ -4817,7 +4851,7 @@
         <v>300</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M5" s="31"/>
     </row>
@@ -4826,7 +4860,7 @@
         <v>301001</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C6" s="30">
         <v>20</v>
@@ -4856,7 +4890,7 @@
         <v>400</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M6" s="31"/>
     </row>
@@ -4895,49 +4929,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12.6" customHeight="1">
       <c r="A1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="J1" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="P1" s="33"/>
     </row>
@@ -4946,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C2" s="33">
         <v>3000</v>
@@ -4982,10 +5016,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -4994,7 +5028,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="33">
         <v>2500</v>
@@ -5030,10 +5064,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -5042,7 +5076,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="33">
         <v>2500</v>
@@ -5078,10 +5112,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -5090,7 +5124,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="33">
         <v>2000</v>
@@ -5126,10 +5160,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -5138,7 +5172,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" s="33">
         <v>2000</v>
@@ -5174,10 +5208,10 @@
         <v>1.2</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -5186,7 +5220,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C7" s="33">
         <v>4000</v>
@@ -5222,10 +5256,10 @@
         <v>0.8</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P7" s="35"/>
     </row>
@@ -5268,58 +5302,58 @@
   <sheetData>
     <row r="1" spans="1:19" ht="12.75" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>197</v>
       </c>
       <c r="S1" s="33"/>
     </row>
@@ -5328,7 +5362,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C2" s="33">
         <v>101001</v>
@@ -5369,7 +5403,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C3" s="33">
         <v>101001</v>
@@ -5406,7 +5440,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="35">
         <v>101002</v>
@@ -5451,7 +5485,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="35">
         <v>101002</v>
@@ -5483,7 +5517,7 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>101002</v>
@@ -5509,7 +5543,7 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>101002</v>
@@ -5541,7 +5575,7 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C8">
         <v>101001</v>
@@ -5567,7 +5601,7 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C9">
         <v>101001</v>
@@ -5593,7 +5627,7 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10">
         <v>101001</v>
@@ -5625,7 +5659,7 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>101001</v>
@@ -5651,7 +5685,7 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>101001</v>
@@ -5677,7 +5711,7 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>101001</v>
@@ -5709,7 +5743,7 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>101001</v>
@@ -5735,7 +5769,7 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>101001</v>
@@ -5761,7 +5795,7 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>101001</v>
@@ -5793,7 +5827,7 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17">
         <v>101001</v>
@@ -5819,7 +5853,7 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>101001</v>
@@ -5845,7 +5879,7 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>101001</v>
@@ -5877,7 +5911,7 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>101001</v>
@@ -5903,7 +5937,7 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>101001</v>
@@ -5929,7 +5963,7 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C22">
         <v>101001</v>
@@ -5961,7 +5995,7 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C23">
         <v>101001</v>
@@ -5987,7 +6021,7 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C24">
         <v>101001</v>
@@ -6013,7 +6047,7 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C25">
         <v>101001</v>
@@ -6045,7 +6079,7 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C26">
         <v>101001</v>
@@ -6071,7 +6105,7 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C27">
         <v>101001</v>
@@ -6097,7 +6131,7 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C28">
         <v>101001</v>
@@ -6129,7 +6163,7 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C29">
         <v>101001</v>
@@ -6155,7 +6189,7 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C30">
         <v>101001</v>
@@ -6187,7 +6221,7 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C31">
         <v>101001</v>
@@ -6219,7 +6253,7 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C32">
         <v>101001</v>
@@ -6245,7 +6279,7 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C33">
         <v>101001</v>
@@ -6271,7 +6305,7 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C34">
         <v>101001</v>
@@ -6303,7 +6337,7 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C35">
         <v>101001</v>
@@ -6329,7 +6363,7 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>101001</v>
@@ -6361,7 +6395,7 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C37">
         <v>101001</v>
@@ -6393,7 +6427,7 @@
         <v>150101</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C38">
         <v>101001</v>
@@ -6419,7 +6453,7 @@
         <v>150102</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>101001</v>
@@ -6445,7 +6479,7 @@
         <v>150103</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C40">
         <v>101001</v>
@@ -6477,7 +6511,7 @@
         <v>150201</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C41">
         <v>101001</v>
@@ -6503,7 +6537,7 @@
         <v>150202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C42">
         <v>101001</v>
@@ -6535,7 +6569,7 @@
         <v>150203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C43">
         <v>101001</v>
@@ -6567,7 +6601,7 @@
         <v>150301</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C44">
         <v>101001</v>
@@ -6593,7 +6627,7 @@
         <v>150302</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C45">
         <v>101001</v>
@@ -6619,7 +6653,7 @@
         <v>150303</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C46">
         <v>101001</v>
@@ -6675,22 +6709,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
@@ -6698,10 +6732,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" s="37">
         <v>110101</v>
@@ -6718,10 +6752,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D3" s="39">
         <v>110201</v>
@@ -6738,10 +6772,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D4" s="39">
         <v>110301</v>
@@ -6758,10 +6792,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" s="37">
         <v>120101</v>
@@ -6778,10 +6812,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="39">
         <v>120201</v>
@@ -6798,10 +6832,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D7" s="39">
         <v>120301</v>
@@ -6818,10 +6852,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D8" s="37">
         <v>130101</v>
@@ -6838,10 +6872,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D9" s="39">
         <v>130201</v>
@@ -6858,10 +6892,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D10" s="39">
         <v>130301</v>
@@ -6878,10 +6912,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D11" s="37">
         <v>140101</v>
@@ -6898,10 +6932,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D12" s="39">
         <v>140201</v>
@@ -6918,10 +6952,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D13" s="39">
         <v>140301</v>
@@ -6938,10 +6972,10 @@
         <v>1501</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="37">
         <v>150101</v>
@@ -6958,10 +6992,10 @@
         <v>1502</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D15" s="39">
         <v>150201</v>
@@ -6978,10 +7012,10 @@
         <v>1503</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D16" s="39">
         <v>150301</v>
@@ -6998,10 +7032,10 @@
         <v>1601</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D17" s="37">
         <v>160101</v>
@@ -7018,10 +7052,10 @@
         <v>1602</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D18" s="37">
         <v>160201</v>
@@ -7038,10 +7072,10 @@
         <v>1603</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D19" s="37">
         <v>160301</v>
@@ -7081,25 +7115,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
@@ -7107,13 +7141,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E2" s="33">
         <v>20</v>
@@ -7122,7 +7156,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -7130,13 +7164,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E3" s="33">
         <v>50</v>
@@ -7145,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -7153,13 +7187,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E4" s="33">
         <v>100</v>
@@ -7168,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -7176,13 +7210,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -7191,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -7199,13 +7233,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E6" s="33">
         <v>1</v>
@@ -7214,7 +7248,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -7222,13 +7256,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -7237,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -7245,13 +7279,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E8" s="33">
         <v>150</v>
@@ -7260,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -7268,13 +7302,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E9" s="33">
         <v>1</v>
@@ -7283,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7291,13 +7325,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E10" s="33">
         <v>101</v>
@@ -7306,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7314,13 +7348,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E11" s="33">
         <v>102</v>
@@ -7329,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7337,13 +7371,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E12" s="33">
         <v>103</v>
@@ -7352,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -7360,13 +7394,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E13" s="33">
         <v>104</v>
@@ -7375,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -7383,13 +7417,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E14" s="33">
         <v>105</v>
@@ -7398,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -7406,13 +7440,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E15" s="33">
         <v>106</v>
@@ -7421,7 +7455,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7429,10 +7463,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -7464,10 +7498,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -4620,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4894,7 +4894,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5159,10 +5159,10 @@
         <v>170</v>
       </c>
       <c r="C6" s="33">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="33">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="33">
         <v>1</v>
@@ -5174,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="33">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I6" s="33">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J6" s="33">
         <v>0.5</v>
@@ -5186,10 +5186,10 @@
         <v>1.5</v>
       </c>
       <c r="L6" s="34">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="M6" s="33">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>171</v>
@@ -5207,10 +5207,10 @@
         <v>173</v>
       </c>
       <c r="C7" s="33">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="33">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="33">
         <v>1</v>
@@ -5222,10 +5222,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="33">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="I7" s="33">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J7" s="33">
         <v>0.5</v>
@@ -5234,10 +5234,10 @@
         <v>1.5</v>
       </c>
       <c r="L7" s="34">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="M7" s="33">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="N7" s="33" t="s">
         <v>174</v>
@@ -7477,7 +7477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -4620,8 +4620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5258,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5820,9 +5820,15 @@
         <v>193</v>
       </c>
       <c r="C17">
+        <v>101003</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>101001</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2</v>
       </c>
       <c r="M17" s="35">
@@ -5846,10 +5852,16 @@
         <v>193</v>
       </c>
       <c r="C18">
-        <v>101001</v>
+        <v>201001</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>101003</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
       </c>
       <c r="M18" s="35">
         <v>10501</v>
@@ -5872,10 +5884,16 @@
         <v>193</v>
       </c>
       <c r="C19">
-        <v>101001</v>
+        <v>201001</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>101003</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
       </c>
       <c r="M19" s="35">
         <v>10501</v>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -4460,7 +4460,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5201,14 +5201,26 @@
         <v>101001</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="n">
+        <v>101002</v>
+      </c>
+      <c r="F2" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="33" t="n">
+        <v>101003</v>
+      </c>
+      <c r="H2" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="33" t="n">
+        <v>201001</v>
+      </c>
+      <c r="J2" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35" t="n">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,109 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ansrudfhr7986@naver.com</author>
+  </authors>
+  <commentList>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반보스</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방어형보스</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격형보스</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">방어형보스
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격형보스</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그냥쎈보스</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="278">
   <si>
     <t>_chapterId</t>
   </si>
@@ -874,7 +975,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -943,6 +1044,14 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -4288,7 +4397,7 @@
   <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4459,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="26">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
@@ -4482,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="26">
-        <v>-0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -4617,11 +4726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4683,7 +4792,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75">
+    <row r="2" spans="1:13" ht="13.5" thickBot="1">
       <c r="A2" s="30">
         <v>101001</v>
       </c>
@@ -4722,161 +4831,1151 @@
       </c>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75">
+    <row r="3" spans="1:13" ht="13.5" thickBot="1">
       <c r="A3" s="30">
-        <v>101002</v>
+        <v>102001</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="30">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E3" s="30">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" s="30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" s="30">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="30">
         <v>1.5</v>
       </c>
       <c r="I3" s="30">
+        <v>10</v>
+      </c>
+      <c r="J3" s="30">
+        <v>1</v>
+      </c>
+      <c r="K3" s="30">
+        <v>100</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A4" s="30">
+        <v>103001</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="30">
+        <v>3</v>
+      </c>
+      <c r="D4" s="30">
+        <v>400</v>
+      </c>
+      <c r="E4" s="30">
+        <v>70</v>
+      </c>
+      <c r="F4" s="30">
         <v>20</v>
       </c>
-      <c r="J3" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="K3" s="30">
-        <v>200</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75">
-      <c r="A4" s="30">
-        <v>101003</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="30">
-        <v>5</v>
-      </c>
-      <c r="D4" s="30">
-        <v>500</v>
-      </c>
-      <c r="E4" s="30">
-        <v>100</v>
-      </c>
-      <c r="F4" s="30">
-        <v>5</v>
-      </c>
       <c r="G4" s="30">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="30">
         <v>1.5</v>
       </c>
       <c r="I4" s="30">
+        <v>10</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K4" s="30">
+        <v>100</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A5" s="30">
+        <v>104001</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="30">
+        <v>4</v>
+      </c>
+      <c r="D5" s="30">
+        <v>500</v>
+      </c>
+      <c r="E5" s="30">
+        <v>80</v>
+      </c>
+      <c r="F5" s="30">
+        <v>25</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="30">
+        <v>10</v>
+      </c>
+      <c r="J5" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K5" s="30">
+        <v>100</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A6" s="30">
+        <v>105001</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="30">
         <v>5</v>
       </c>
-      <c r="J4" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="30">
-        <v>300</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="M4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" ht="12.75">
-      <c r="A5" s="30">
-        <v>201001</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="30">
-        <v>10</v>
-      </c>
-      <c r="D5" s="30">
-        <v>1100</v>
-      </c>
-      <c r="E5" s="30">
-        <v>150</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="D6" s="30">
+        <v>600</v>
+      </c>
+      <c r="E6" s="30">
+        <v>90</v>
+      </c>
+      <c r="F6" s="30">
         <v>30</v>
       </c>
-      <c r="G5" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="H5" s="30">
-        <v>2</v>
-      </c>
-      <c r="I5" s="30">
-        <v>25</v>
-      </c>
-      <c r="J5" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="30">
-        <v>300</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75">
-      <c r="A6" s="30">
-        <v>301001</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="30">
-        <v>20</v>
-      </c>
-      <c r="D6" s="30">
-        <v>3500</v>
-      </c>
-      <c r="E6" s="30">
-        <v>200</v>
-      </c>
-      <c r="F6" s="30">
-        <v>50</v>
-      </c>
       <c r="G6" s="30">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="30">
         <v>10</v>
       </c>
       <c r="J6" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="30">
+        <v>100</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A7" s="30">
+        <v>106001</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="30">
+        <v>6</v>
+      </c>
+      <c r="D7" s="30">
+        <v>700</v>
+      </c>
+      <c r="E7" s="30">
+        <v>100</v>
+      </c>
+      <c r="F7" s="30">
+        <v>35</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="30">
+        <v>10</v>
+      </c>
+      <c r="J7" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="30">
+        <v>100</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A8" s="30">
+        <v>101002</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>350</v>
+      </c>
+      <c r="E8" s="30">
+        <v>80</v>
+      </c>
+      <c r="F8" s="30">
+        <v>20</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="30">
+        <v>20</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="30">
+        <v>200</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A9" s="30">
+        <v>102002</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="30">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30">
+        <v>500</v>
+      </c>
+      <c r="E9" s="30">
+        <v>85</v>
+      </c>
+      <c r="F9" s="30">
+        <v>25</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="30">
+        <v>20</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="30">
+        <v>200</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A10" s="30">
+        <v>103002</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30">
+        <v>900</v>
+      </c>
+      <c r="E10" s="30">
+        <v>100</v>
+      </c>
+      <c r="F10" s="30">
+        <v>35</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="30">
+        <v>20</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="30">
+        <v>200</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A11" s="30">
+        <v>104002</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="30">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <v>900</v>
+      </c>
+      <c r="E11" s="30">
+        <v>100</v>
+      </c>
+      <c r="F11" s="30">
+        <v>35</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="30">
+        <v>20</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="30">
+        <v>200</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A12" s="30">
+        <v>105002</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="30">
+        <v>7</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="30">
+        <v>110</v>
+      </c>
+      <c r="F12" s="30">
+        <v>45</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="30">
+        <v>20</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
+      </c>
+      <c r="K12" s="30">
+        <v>200</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A13" s="30">
+        <v>106002</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1300</v>
+      </c>
+      <c r="E13" s="30">
+        <v>150</v>
+      </c>
+      <c r="F13" s="30">
+        <v>60</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="30">
+        <v>20</v>
+      </c>
+      <c r="J13" s="30">
+        <v>1</v>
+      </c>
+      <c r="K13" s="30">
+        <v>200</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A14" s="30">
+        <v>101003</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="30">
+        <v>3</v>
+      </c>
+      <c r="D14" s="30">
+        <v>500</v>
+      </c>
+      <c r="E14" s="30">
+        <v>100</v>
+      </c>
+      <c r="F14" s="30">
+        <v>5</v>
+      </c>
+      <c r="G14" s="30">
         <v>0.5</v>
       </c>
-      <c r="K6" s="30">
+      <c r="H14" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="30">
+        <v>5</v>
+      </c>
+      <c r="J14" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="30">
+        <v>300</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A15" s="30">
+        <v>102003</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="30">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30">
+        <v>550</v>
+      </c>
+      <c r="E15" s="30">
+        <v>105</v>
+      </c>
+      <c r="F15" s="30">
+        <v>5</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I15" s="30">
+        <v>5</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="30">
+        <v>300</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A16" s="30">
+        <v>103003</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="30">
+        <v>7</v>
+      </c>
+      <c r="D16" s="30">
+        <v>600</v>
+      </c>
+      <c r="E16" s="30">
+        <v>110</v>
+      </c>
+      <c r="F16" s="30">
+        <v>5</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="30">
+        <v>5</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="30">
+        <v>300</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A17" s="30">
+        <v>104003</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="30">
+        <v>7</v>
+      </c>
+      <c r="D17" s="30">
+        <v>600</v>
+      </c>
+      <c r="E17" s="30">
+        <v>110</v>
+      </c>
+      <c r="F17" s="30">
+        <v>5</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="30">
+        <v>5</v>
+      </c>
+      <c r="J17" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="30">
+        <v>300</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A18" s="30">
+        <v>105003</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="30">
+        <v>8</v>
+      </c>
+      <c r="D18" s="30">
+        <v>700</v>
+      </c>
+      <c r="E18" s="30">
+        <v>115</v>
+      </c>
+      <c r="F18" s="30">
+        <v>5</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="30">
+        <v>5</v>
+      </c>
+      <c r="J18" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="30">
+        <v>300</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A19" s="30">
+        <v>106003</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="30">
+        <v>9</v>
+      </c>
+      <c r="D19" s="30">
+        <v>800</v>
+      </c>
+      <c r="E19" s="30">
+        <v>120</v>
+      </c>
+      <c r="F19" s="30">
+        <v>5</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="30">
+        <v>5</v>
+      </c>
+      <c r="J19" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="30">
+        <v>300</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A20" s="30">
+        <v>201001</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="30">
+        <v>4</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="30">
+        <v>150</v>
+      </c>
+      <c r="F20" s="30">
+        <v>30</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="30">
+        <v>2</v>
+      </c>
+      <c r="I20" s="30">
+        <v>25</v>
+      </c>
+      <c r="J20" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="30">
+        <v>300</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A21" s="30">
+        <v>202001</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7</v>
+      </c>
+      <c r="D21" s="30">
+        <v>700</v>
+      </c>
+      <c r="E21" s="30">
+        <v>150</v>
+      </c>
+      <c r="F21" s="30">
+        <v>30</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="30">
+        <v>2</v>
+      </c>
+      <c r="I21" s="30">
+        <v>25</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="30">
+        <v>300</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A22" s="30">
+        <v>203001</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="30">
+        <v>10</v>
+      </c>
+      <c r="D22" s="30">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="30">
+        <v>180</v>
+      </c>
+      <c r="F22" s="30">
+        <v>50</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="30">
+        <v>2</v>
+      </c>
+      <c r="I22" s="30">
+        <v>25</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="K22" s="30">
+        <v>300</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A23" s="30">
+        <v>204001</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="30">
+        <v>13</v>
+      </c>
+      <c r="D23" s="30">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="30">
+        <v>200</v>
+      </c>
+      <c r="F23" s="30">
+        <v>60</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="30">
+        <v>2</v>
+      </c>
+      <c r="I23" s="30">
+        <v>25</v>
+      </c>
+      <c r="J23" s="30">
+        <v>1</v>
+      </c>
+      <c r="K23" s="30">
+        <v>300</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A24" s="30">
+        <v>205001</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="30">
+        <v>16</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="30">
+        <v>240</v>
+      </c>
+      <c r="F24" s="30">
+        <v>70</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="30">
+        <v>2</v>
+      </c>
+      <c r="I24" s="30">
+        <v>25</v>
+      </c>
+      <c r="J24" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24" s="30">
+        <v>300</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A25" s="30">
+        <v>206001</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="30">
+        <v>20</v>
+      </c>
+      <c r="D25" s="30">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="30">
+        <v>280</v>
+      </c>
+      <c r="F25" s="30">
+        <v>70</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="30">
+        <v>2</v>
+      </c>
+      <c r="I25" s="30">
+        <v>25</v>
+      </c>
+      <c r="J25" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K25" s="30">
+        <v>300</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A26" s="30">
+        <v>301001</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="30">
+        <v>5</v>
+      </c>
+      <c r="D26" s="30">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="30">
+        <v>200</v>
+      </c>
+      <c r="F26" s="30">
+        <v>50</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H26" s="30">
+        <v>2</v>
+      </c>
+      <c r="I26" s="30">
+        <v>10</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K26" s="30">
         <v>400</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L26" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A27" s="30">
+        <v>302001</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="30">
+        <v>10</v>
+      </c>
+      <c r="D27" s="30">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="30">
+        <v>150</v>
+      </c>
+      <c r="F27" s="30">
+        <v>200</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H27" s="30">
+        <v>2</v>
+      </c>
+      <c r="I27" s="30">
+        <v>10</v>
+      </c>
+      <c r="J27" s="30">
+        <v>1</v>
+      </c>
+      <c r="K27" s="30">
+        <v>400</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A28" s="30">
+        <v>303001</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="30">
+        <v>15</v>
+      </c>
+      <c r="D28" s="30">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="30">
+        <v>300</v>
+      </c>
+      <c r="F28" s="30">
+        <v>70</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="30">
+        <v>2</v>
+      </c>
+      <c r="I28" s="30">
+        <v>10</v>
+      </c>
+      <c r="J28" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K28" s="30">
+        <v>400</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A29" s="30">
+        <v>304001</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="30">
+        <v>20</v>
+      </c>
+      <c r="D29" s="30">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="30">
+        <v>250</v>
+      </c>
+      <c r="F29" s="30">
+        <v>300</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H29" s="30">
+        <v>2</v>
+      </c>
+      <c r="I29" s="30">
+        <v>10</v>
+      </c>
+      <c r="J29" s="30">
+        <v>1</v>
+      </c>
+      <c r="K29" s="30">
+        <v>400</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A30" s="30">
+        <v>305001</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="30">
+        <v>25</v>
+      </c>
+      <c r="D30" s="30">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="30">
+        <v>350</v>
+      </c>
+      <c r="F30" s="30">
+        <v>100</v>
+      </c>
+      <c r="G30" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H30" s="30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="30">
+        <v>10</v>
+      </c>
+      <c r="J30" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="30">
+        <v>400</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A31" s="30">
+        <v>306001</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="30">
+        <v>30</v>
+      </c>
+      <c r="D31" s="30">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="30">
+        <v>400</v>
+      </c>
+      <c r="F31" s="30">
+        <v>300</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0.22</v>
+      </c>
+      <c r="H31" s="30">
+        <v>2</v>
+      </c>
+      <c r="I31" s="30">
+        <v>10</v>
+      </c>
+      <c r="J31" s="30">
+        <v>1.2</v>
+      </c>
+      <c r="K31" s="30">
+        <v>400</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4886,6 +5985,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5256,10 +6356,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5390,13 +6490,17 @@
         <v>193</v>
       </c>
       <c r="C3" s="33">
+        <v>101002</v>
+      </c>
+      <c r="D3" s="33">
+        <v>1</v>
+      </c>
+      <c r="E3" s="35">
         <v>101001</v>
       </c>
-      <c r="D3" s="33">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="F3" s="35">
+        <v>2</v>
+      </c>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -6685,6 +7789,264 @@
         <v>10103</v>
       </c>
       <c r="R46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="24">
+      <c r="A47" s="33">
+        <v>160101</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47">
+        <v>101001</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="M47" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N47" s="35">
+        <v>5</v>
+      </c>
+      <c r="O47" s="33">
+        <v>10604</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="24">
+      <c r="A48" s="33">
+        <v>160102</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48">
+        <v>101001</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="M48" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N48" s="35">
+        <v>5</v>
+      </c>
+      <c r="O48" s="33">
+        <v>10301</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="24">
+      <c r="A49" s="33">
+        <v>160103</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49">
+        <v>101001</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="M49" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N49" s="35">
+        <v>10</v>
+      </c>
+      <c r="O49" s="33">
+        <v>10402</v>
+      </c>
+      <c r="P49">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="33">
+        <v>10103</v>
+      </c>
+      <c r="R49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="24">
+      <c r="A50">
+        <v>160201</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50">
+        <v>101001</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="M50" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N50" s="35">
+        <v>5</v>
+      </c>
+      <c r="O50" s="33">
+        <v>10201</v>
+      </c>
+      <c r="P50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="24">
+      <c r="A51">
+        <v>160202</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51">
+        <v>101001</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="M51" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N51" s="35">
+        <v>5</v>
+      </c>
+      <c r="O51" s="33">
+        <v>10606</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="33">
+        <v>10605</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="24">
+      <c r="A52">
+        <v>160203</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52">
+        <v>101001</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="M52" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N52" s="35">
+        <v>10</v>
+      </c>
+      <c r="O52" s="33">
+        <v>10402</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="33">
+        <v>10103</v>
+      </c>
+      <c r="R52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="24">
+      <c r="A53">
+        <v>160301</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53">
+        <v>101001</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="M53" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N53" s="35">
+        <v>5</v>
+      </c>
+      <c r="O53" s="33">
+        <v>10301</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="24">
+      <c r="A54">
+        <v>160302</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54">
+        <v>101001</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="M54" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N54" s="35">
+        <v>5</v>
+      </c>
+      <c r="O54" s="33">
+        <v>10201</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="24">
+      <c r="A55">
+        <v>160303</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55">
+        <v>101001</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="M55" s="35">
+        <v>10501</v>
+      </c>
+      <c r="N55" s="35">
+        <v>10</v>
+      </c>
+      <c r="O55" s="33">
+        <v>10402</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>10103</v>
+      </c>
+      <c r="R55">
         <v>7</v>
       </c>
     </row>
@@ -6703,8 +8065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
   <si>
     <t>_chapterId</t>
   </si>
@@ -570,31 +570,16 @@
     <t>_spritePath</t>
   </si>
   <si>
-    <t>Drone</t>
-  </si>
-  <si>
     <t>Prefabs/Monster/Drone</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
     <t>Prefabs/Monster/Android</t>
   </si>
   <si>
-    <t>SecurityTurret</t>
-  </si>
-  <si>
     <t>Prefabs/Monster/SecurityTurret</t>
   </si>
   <si>
-    <t>CodeNumber001</t>
-  </si>
-  <si>
     <t>Prefabs/Monster/CodeNumber001</t>
-  </si>
-  <si>
-    <t>UpdatedDrone</t>
   </si>
   <si>
     <t>Prefabs/Monster/UpdatedDrone</t>
@@ -968,6 +953,98 @@
   </si>
   <si>
     <t>Prefabs/Map/Chapter7/Chap7-3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityTurret</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityTurret</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityTurret</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecurityTurret</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNumber001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNumber001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNumber001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNumber001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeNumber001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatedDrone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatedDrone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatedDrone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatedDrone</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 1명 사격</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1733,11 +1810,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK53"/>
+  <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:P103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1860,10 +1937,10 @@
         <v>101021</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D3" s="9">
         <v>2</v>
@@ -2210,10 +2287,10 @@
         <v>102021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D10" s="9">
         <v>2</v>
@@ -2413,7 +2490,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -2463,7 +2540,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -2560,10 +2637,10 @@
         <v>103021</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -2910,10 +2987,10 @@
         <v>104021</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
@@ -3260,10 +3337,10 @@
         <v>105021</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
@@ -3610,10 +3687,10 @@
         <v>106021</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D38" s="9">
         <v>2</v>
@@ -3663,7 +3740,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
@@ -3713,7 +3790,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D40" s="7">
         <v>0</v>
@@ -3763,7 +3840,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -3813,7 +3890,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D42" s="7">
         <v>0</v>
@@ -3863,7 +3940,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D43" s="15">
         <v>0</v>
@@ -4003,19 +4080,19 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7">
-        <v>101002011</v>
+        <v>102001011</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D46" s="7">
         <v>0</v>
       </c>
       <c r="E46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="7">
         <v>0</v>
@@ -4045,34 +4122,34 @@
         <v>0</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P46" s="8"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="20">
-        <v>101002021</v>
+        <v>102001021</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D47" s="20">
         <v>0</v>
       </c>
       <c r="E47" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="20">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G47" s="20">
         <v>0</v>
       </c>
       <c r="H47" s="20">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="I47" s="20">
         <v>0</v>
@@ -4093,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P47" s="21"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="7">
-        <v>101003011</v>
+        <v>103001011</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>34</v>
@@ -4141,61 +4218,61 @@
         <v>0</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="P48" s="8"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="15">
-        <v>101003021</v>
-      </c>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="20">
+        <v>103001021</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="15">
-        <v>1</v>
-      </c>
-      <c r="E49" s="15">
-        <v>1</v>
-      </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>3</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-      <c r="N49" s="15">
-        <v>0</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P49" s="16"/>
+      <c r="C49" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="20">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20">
+        <v>203</v>
+      </c>
+      <c r="G49" s="20">
+        <v>0</v>
+      </c>
+      <c r="H49" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I49" s="20">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <v>0</v>
+      </c>
+      <c r="K49" s="20">
+        <v>2</v>
+      </c>
+      <c r="L49" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M49" s="20">
+        <v>1</v>
+      </c>
+      <c r="N49" s="20">
+        <v>0</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="21"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="7">
-        <v>201001011</v>
+        <v>104001011</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>34</v>
@@ -4237,28 +4314,28 @@
         <v>0</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P50" s="8"/>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="20">
-        <v>201001021</v>
+        <v>104001021</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D51" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="20">
         <v>1</v>
       </c>
       <c r="F51" s="20">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G51" s="20">
         <v>0</v>
@@ -4273,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" s="20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M51" s="20">
         <v>1</v>
@@ -4285,22 +4362,22 @@
         <v>0</v>
       </c>
       <c r="O51" s="21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P51" s="21"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="7">
-        <v>301001011</v>
+        <v>105001011</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7">
         <v>1</v>
@@ -4312,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
         <v>0</v>
@@ -4333,62 +4410,2462 @@
         <v>0</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="P52" s="8"/>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="20">
-        <v>301001021</v>
+        <v>105001021</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C53" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20">
+        <v>203</v>
+      </c>
+      <c r="G53" s="20">
+        <v>0</v>
+      </c>
+      <c r="H53" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I53" s="20">
+        <v>0</v>
+      </c>
+      <c r="J53" s="20">
+        <v>0</v>
+      </c>
+      <c r="K53" s="20">
+        <v>2</v>
+      </c>
+      <c r="L53" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M53" s="20">
+        <v>1</v>
+      </c>
+      <c r="N53" s="20">
+        <v>0</v>
+      </c>
+      <c r="O53" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="21"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="7">
+        <v>106001011</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="20">
+        <v>106001021</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20">
+        <v>203</v>
+      </c>
+      <c r="G55" s="20">
+        <v>0</v>
+      </c>
+      <c r="H55" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I55" s="20">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20">
+        <v>0</v>
+      </c>
+      <c r="K55" s="20">
+        <v>2</v>
+      </c>
+      <c r="L55" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M55" s="20">
+        <v>1</v>
+      </c>
+      <c r="N55" s="20">
+        <v>0</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" s="21"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="7">
+        <v>101002011</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>0</v>
+      </c>
+      <c r="K56" s="7">
+        <v>0</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="20">
+        <v>101002021</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0</v>
+      </c>
+      <c r="F57" s="20">
+        <v>202</v>
+      </c>
+      <c r="G57" s="20">
+        <v>0</v>
+      </c>
+      <c r="H57" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I57" s="20">
+        <v>0</v>
+      </c>
+      <c r="J57" s="20">
+        <v>0</v>
+      </c>
+      <c r="K57" s="20">
+        <v>2</v>
+      </c>
+      <c r="L57" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M57" s="20">
+        <v>1</v>
+      </c>
+      <c r="N57" s="20">
+        <v>0</v>
+      </c>
+      <c r="O57" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P57" s="21"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="7">
+        <v>102002011</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="20">
+        <v>102002021</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0</v>
+      </c>
+      <c r="E59" s="20">
+        <v>0</v>
+      </c>
+      <c r="F59" s="20">
+        <v>202</v>
+      </c>
+      <c r="G59" s="20">
+        <v>0</v>
+      </c>
+      <c r="H59" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I59" s="20">
+        <v>0</v>
+      </c>
+      <c r="J59" s="20">
+        <v>0</v>
+      </c>
+      <c r="K59" s="20">
+        <v>2</v>
+      </c>
+      <c r="L59" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M59" s="20">
+        <v>1</v>
+      </c>
+      <c r="N59" s="20">
+        <v>0</v>
+      </c>
+      <c r="O59" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" s="21"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="7">
+        <v>103002011</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="7">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" s="8"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="20">
+        <v>103002021</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0</v>
+      </c>
+      <c r="E61" s="20">
+        <v>0</v>
+      </c>
+      <c r="F61" s="20">
+        <v>202</v>
+      </c>
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I61" s="20">
+        <v>0</v>
+      </c>
+      <c r="J61" s="20">
+        <v>0</v>
+      </c>
+      <c r="K61" s="20">
+        <v>2</v>
+      </c>
+      <c r="L61" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M61" s="20">
+        <v>1</v>
+      </c>
+      <c r="N61" s="20">
+        <v>0</v>
+      </c>
+      <c r="O61" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P61" s="21"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="7">
+        <v>104002011</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0</v>
+      </c>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7">
+        <v>0</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0</v>
+      </c>
+      <c r="N62" s="7">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="20">
+        <v>104002021</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="20">
+        <v>0</v>
+      </c>
+      <c r="F63" s="20">
+        <v>202</v>
+      </c>
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I63" s="20">
+        <v>0</v>
+      </c>
+      <c r="J63" s="20">
+        <v>0</v>
+      </c>
+      <c r="K63" s="20">
+        <v>2</v>
+      </c>
+      <c r="L63" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M63" s="20">
+        <v>1</v>
+      </c>
+      <c r="N63" s="20">
+        <v>0</v>
+      </c>
+      <c r="O63" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P63" s="21"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="7">
+        <v>105002011</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7">
+        <v>0</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P64" s="8"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="20">
+        <v>105002021</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0</v>
+      </c>
+      <c r="F65" s="20">
+        <v>202</v>
+      </c>
+      <c r="G65" s="20">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I65" s="20">
+        <v>0</v>
+      </c>
+      <c r="J65" s="20">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>2</v>
+      </c>
+      <c r="L65" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M65" s="20">
+        <v>1</v>
+      </c>
+      <c r="N65" s="20">
+        <v>0</v>
+      </c>
+      <c r="O65" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" s="21"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="7">
+        <v>106002011</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="7">
+        <v>0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>0</v>
+      </c>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="7">
+        <v>0</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P66" s="8"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="20">
+        <v>106002021</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0</v>
+      </c>
+      <c r="E67" s="20">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20">
+        <v>202</v>
+      </c>
+      <c r="G67" s="20">
+        <v>0</v>
+      </c>
+      <c r="H67" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="I67" s="20">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20">
+        <v>2</v>
+      </c>
+      <c r="L67" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="M67" s="20">
+        <v>1</v>
+      </c>
+      <c r="N67" s="20">
+        <v>0</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P67" s="21"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="7">
+        <v>101003011</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>1</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="7">
+        <v>0</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="15">
+        <v>101003021</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="15">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15">
+        <v>0</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0</v>
+      </c>
+      <c r="H69" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I69" s="15">
+        <v>0</v>
+      </c>
+      <c r="J69" s="15">
+        <v>0</v>
+      </c>
+      <c r="K69" s="15">
+        <v>3</v>
+      </c>
+      <c r="L69" s="15">
+        <v>0</v>
+      </c>
+      <c r="M69" s="15">
+        <v>0</v>
+      </c>
+      <c r="N69" s="15">
+        <v>0</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="7">
+        <v>102003011</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7">
+        <v>1</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P70" s="8"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="15">
+        <v>102003021</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I71" s="15">
+        <v>0</v>
+      </c>
+      <c r="J71" s="15">
+        <v>0</v>
+      </c>
+      <c r="K71" s="15">
+        <v>3</v>
+      </c>
+      <c r="L71" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="15">
+        <v>0</v>
+      </c>
+      <c r="N71" s="15">
+        <v>0</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="7">
+        <v>103003011</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="7">
+        <v>0</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P72" s="8"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="15">
+        <v>103003021</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <v>1</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15">
+        <v>3</v>
+      </c>
+      <c r="L73" s="15">
+        <v>0</v>
+      </c>
+      <c r="M73" s="15">
+        <v>0</v>
+      </c>
+      <c r="N73" s="15">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P73" s="16"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="7">
+        <v>104003011</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
+        <v>0</v>
+      </c>
+      <c r="J74" s="7">
+        <v>0</v>
+      </c>
+      <c r="K74" s="7">
+        <v>0</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74" s="8"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="15">
+        <v>104003021</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+      <c r="J75" s="15">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15">
+        <v>3</v>
+      </c>
+      <c r="L75" s="15">
+        <v>0</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="15">
+        <v>0</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P75" s="16"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="7">
+        <v>105003011</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7">
+        <v>0</v>
+      </c>
+      <c r="J76" s="7">
+        <v>0</v>
+      </c>
+      <c r="K76" s="7">
+        <v>0</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P76" s="8"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="15">
+        <v>105003021</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0</v>
+      </c>
+      <c r="J77" s="15">
+        <v>0</v>
+      </c>
+      <c r="K77" s="15">
+        <v>3</v>
+      </c>
+      <c r="L77" s="15">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15">
+        <v>0</v>
+      </c>
+      <c r="N77" s="15">
+        <v>0</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P77" s="16"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="7">
+        <v>106003011</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7">
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P78" s="8"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="15">
+        <v>106003021</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="15">
+        <v>0</v>
+      </c>
+      <c r="K79" s="15">
+        <v>3</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <v>0</v>
+      </c>
+      <c r="N79" s="15">
+        <v>0</v>
+      </c>
+      <c r="O79" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P79" s="16"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="7">
+        <v>201001011</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="7">
+        <v>0</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>1</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>0</v>
+      </c>
+      <c r="K80" s="7">
+        <v>0</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="20">
+        <v>201001021</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="20">
+        <v>1</v>
+      </c>
+      <c r="E81" s="20">
+        <v>1</v>
+      </c>
+      <c r="F81" s="20">
+        <v>202</v>
+      </c>
+      <c r="G81" s="20">
+        <v>0</v>
+      </c>
+      <c r="H81" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I81" s="20">
+        <v>0</v>
+      </c>
+      <c r="J81" s="20">
+        <v>0</v>
+      </c>
+      <c r="K81" s="20">
+        <v>3</v>
+      </c>
+      <c r="L81" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M81" s="20">
+        <v>1</v>
+      </c>
+      <c r="N81" s="20">
+        <v>0</v>
+      </c>
+      <c r="O81" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P81" s="21"/>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="7">
+        <v>202001011</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="7">
+        <v>0</v>
+      </c>
+      <c r="E82" s="7">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0</v>
+      </c>
+      <c r="J82" s="7">
+        <v>0</v>
+      </c>
+      <c r="K82" s="7">
+        <v>0</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0</v>
+      </c>
+      <c r="N82" s="7">
+        <v>0</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P82" s="8"/>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="20">
+        <v>202001021</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="20">
+        <v>1</v>
+      </c>
+      <c r="E83" s="20">
+        <v>1</v>
+      </c>
+      <c r="F83" s="20">
+        <v>202</v>
+      </c>
+      <c r="G83" s="20">
+        <v>0</v>
+      </c>
+      <c r="H83" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I83" s="20">
+        <v>0</v>
+      </c>
+      <c r="J83" s="20">
+        <v>0</v>
+      </c>
+      <c r="K83" s="20">
+        <v>3</v>
+      </c>
+      <c r="L83" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M83" s="20">
+        <v>1</v>
+      </c>
+      <c r="N83" s="20">
+        <v>0</v>
+      </c>
+      <c r="O83" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" s="21"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="7">
+        <v>203001011</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>0</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" s="8"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="20">
+        <v>203001021</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" s="20">
+        <v>1</v>
+      </c>
+      <c r="E85" s="20">
+        <v>1</v>
+      </c>
+      <c r="F85" s="20">
+        <v>202</v>
+      </c>
+      <c r="G85" s="20">
+        <v>0</v>
+      </c>
+      <c r="H85" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I85" s="20">
+        <v>0</v>
+      </c>
+      <c r="J85" s="20">
+        <v>0</v>
+      </c>
+      <c r="K85" s="20">
+        <v>3</v>
+      </c>
+      <c r="L85" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M85" s="20">
+        <v>1</v>
+      </c>
+      <c r="N85" s="20">
+        <v>0</v>
+      </c>
+      <c r="O85" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P85" s="21"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="7">
+        <v>204001011</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
+        <v>1</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>1</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+      <c r="K86" s="7">
+        <v>0</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0</v>
+      </c>
+      <c r="N86" s="7">
+        <v>0</v>
+      </c>
+      <c r="O86" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P86" s="8"/>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="20">
+        <v>204001021</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="20">
+        <v>1</v>
+      </c>
+      <c r="E87" s="20">
+        <v>1</v>
+      </c>
+      <c r="F87" s="20">
+        <v>202</v>
+      </c>
+      <c r="G87" s="20">
+        <v>0</v>
+      </c>
+      <c r="H87" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I87" s="20">
+        <v>0</v>
+      </c>
+      <c r="J87" s="20">
+        <v>0</v>
+      </c>
+      <c r="K87" s="20">
+        <v>3</v>
+      </c>
+      <c r="L87" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M87" s="20">
+        <v>1</v>
+      </c>
+      <c r="N87" s="20">
+        <v>0</v>
+      </c>
+      <c r="O87" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P87" s="21"/>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="7">
+        <v>205001011</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>1</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="7">
+        <v>0</v>
+      </c>
+      <c r="K88" s="7">
+        <v>0</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="20">
+        <v>205001021</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="20">
+        <v>1</v>
+      </c>
+      <c r="E89" s="20">
+        <v>1</v>
+      </c>
+      <c r="F89" s="20">
+        <v>202</v>
+      </c>
+      <c r="G89" s="20">
+        <v>0</v>
+      </c>
+      <c r="H89" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I89" s="20">
+        <v>0</v>
+      </c>
+      <c r="J89" s="20">
+        <v>0</v>
+      </c>
+      <c r="K89" s="20">
+        <v>3</v>
+      </c>
+      <c r="L89" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M89" s="20">
+        <v>1</v>
+      </c>
+      <c r="N89" s="20">
+        <v>0</v>
+      </c>
+      <c r="O89" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P89" s="21"/>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="7">
+        <v>206001011</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="7">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>0</v>
+      </c>
+      <c r="K90" s="7">
+        <v>0</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" s="8"/>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="20">
+        <v>206001021</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D91" s="20">
+        <v>1</v>
+      </c>
+      <c r="E91" s="20">
+        <v>1</v>
+      </c>
+      <c r="F91" s="20">
+        <v>202</v>
+      </c>
+      <c r="G91" s="20">
+        <v>0</v>
+      </c>
+      <c r="H91" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I91" s="20">
+        <v>0</v>
+      </c>
+      <c r="J91" s="20">
+        <v>0</v>
+      </c>
+      <c r="K91" s="20">
+        <v>3</v>
+      </c>
+      <c r="L91" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="M91" s="20">
+        <v>1</v>
+      </c>
+      <c r="N91" s="20">
+        <v>0</v>
+      </c>
+      <c r="O91" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P91" s="21"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="7">
+        <v>301001011</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="7">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>0</v>
+      </c>
+      <c r="K92" s="7">
+        <v>0</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P92" s="8"/>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="20">
+        <v>301001021</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20">
-        <v>1</v>
-      </c>
-      <c r="F53" s="20">
+      <c r="D93" s="20">
+        <v>0</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1</v>
+      </c>
+      <c r="F93" s="20">
         <v>202</v>
       </c>
-      <c r="G53" s="20">
-        <v>0</v>
-      </c>
-      <c r="H53" s="20">
-        <v>1</v>
-      </c>
-      <c r="I53" s="20">
-        <v>0</v>
-      </c>
-      <c r="J53" s="20">
-        <v>0</v>
-      </c>
-      <c r="K53" s="20">
+      <c r="G93" s="20">
+        <v>0</v>
+      </c>
+      <c r="H93" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I93" s="20">
+        <v>0</v>
+      </c>
+      <c r="J93" s="20">
+        <v>0</v>
+      </c>
+      <c r="K93" s="20">
         <v>3</v>
       </c>
-      <c r="L53" s="20">
-        <v>1</v>
-      </c>
-      <c r="M53" s="20">
-        <v>2</v>
-      </c>
-      <c r="N53" s="20">
-        <v>0</v>
-      </c>
-      <c r="O53" s="21" t="s">
+      <c r="L93" s="20">
+        <v>1</v>
+      </c>
+      <c r="M93" s="20">
+        <v>2</v>
+      </c>
+      <c r="N93" s="20">
+        <v>0</v>
+      </c>
+      <c r="O93" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="P53" s="21"/>
+      <c r="P93" s="21"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="7">
+        <v>302001011</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="7">
+        <v>1</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I94" s="7">
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7">
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0</v>
+      </c>
+      <c r="N94" s="7">
+        <v>0</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="20">
+        <v>302001021</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D95" s="20">
+        <v>0</v>
+      </c>
+      <c r="E95" s="20">
+        <v>1</v>
+      </c>
+      <c r="F95" s="20">
+        <v>202</v>
+      </c>
+      <c r="G95" s="20">
+        <v>0</v>
+      </c>
+      <c r="H95" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I95" s="20">
+        <v>0</v>
+      </c>
+      <c r="J95" s="20">
+        <v>0</v>
+      </c>
+      <c r="K95" s="20">
+        <v>3</v>
+      </c>
+      <c r="L95" s="20">
+        <v>1</v>
+      </c>
+      <c r="M95" s="20">
+        <v>2</v>
+      </c>
+      <c r="N95" s="20">
+        <v>0</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" s="21"/>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="7">
+        <v>303001011</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="7">
+        <v>1</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I96" s="7">
+        <v>0</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7">
+        <v>0</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0</v>
+      </c>
+      <c r="N96" s="7">
+        <v>0</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="20">
+        <v>303001021</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="20">
+        <v>0</v>
+      </c>
+      <c r="E97" s="20">
+        <v>1</v>
+      </c>
+      <c r="F97" s="20">
+        <v>202</v>
+      </c>
+      <c r="G97" s="20">
+        <v>0</v>
+      </c>
+      <c r="H97" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I97" s="20">
+        <v>0</v>
+      </c>
+      <c r="J97" s="20">
+        <v>0</v>
+      </c>
+      <c r="K97" s="20">
+        <v>3</v>
+      </c>
+      <c r="L97" s="20">
+        <v>1</v>
+      </c>
+      <c r="M97" s="20">
+        <v>2</v>
+      </c>
+      <c r="N97" s="20">
+        <v>0</v>
+      </c>
+      <c r="O97" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P97" s="21"/>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="7">
+        <v>304001011</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0</v>
+      </c>
+      <c r="K98" s="7">
+        <v>0</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0</v>
+      </c>
+      <c r="N98" s="7">
+        <v>0</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P98" s="8"/>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="20">
+        <v>304001021</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D99" s="20">
+        <v>0</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1</v>
+      </c>
+      <c r="F99" s="20">
+        <v>202</v>
+      </c>
+      <c r="G99" s="20">
+        <v>0</v>
+      </c>
+      <c r="H99" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I99" s="20">
+        <v>0</v>
+      </c>
+      <c r="J99" s="20">
+        <v>0</v>
+      </c>
+      <c r="K99" s="20">
+        <v>3</v>
+      </c>
+      <c r="L99" s="20">
+        <v>1</v>
+      </c>
+      <c r="M99" s="20">
+        <v>2</v>
+      </c>
+      <c r="N99" s="20">
+        <v>0</v>
+      </c>
+      <c r="O99" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P99" s="21"/>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="7">
+        <v>305001011</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="7">
+        <v>1</v>
+      </c>
+      <c r="E100" s="7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I100" s="7">
+        <v>0</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0</v>
+      </c>
+      <c r="K100" s="7">
+        <v>0</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0</v>
+      </c>
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P100" s="8"/>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="20">
+        <v>305001021</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D101" s="20">
+        <v>0</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1</v>
+      </c>
+      <c r="F101" s="20">
+        <v>202</v>
+      </c>
+      <c r="G101" s="20">
+        <v>0</v>
+      </c>
+      <c r="H101" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I101" s="20">
+        <v>0</v>
+      </c>
+      <c r="J101" s="20">
+        <v>0</v>
+      </c>
+      <c r="K101" s="20">
+        <v>3</v>
+      </c>
+      <c r="L101" s="20">
+        <v>1</v>
+      </c>
+      <c r="M101" s="20">
+        <v>2</v>
+      </c>
+      <c r="N101" s="20">
+        <v>0</v>
+      </c>
+      <c r="O101" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P101" s="21"/>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="7">
+        <v>306001011</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" s="7">
+        <v>1</v>
+      </c>
+      <c r="E102" s="7">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I102" s="7">
+        <v>0</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0</v>
+      </c>
+      <c r="K102" s="7">
+        <v>0</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>0</v>
+      </c>
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P102" s="8"/>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="20">
+        <v>306001021</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="20">
+        <v>0</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1</v>
+      </c>
+      <c r="F103" s="20">
+        <v>202</v>
+      </c>
+      <c r="G103" s="20">
+        <v>0</v>
+      </c>
+      <c r="H103" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="I103" s="20">
+        <v>0</v>
+      </c>
+      <c r="J103" s="20">
+        <v>0</v>
+      </c>
+      <c r="K103" s="20">
+        <v>3</v>
+      </c>
+      <c r="L103" s="20">
+        <v>1</v>
+      </c>
+      <c r="M103" s="20">
+        <v>2</v>
+      </c>
+      <c r="N103" s="20">
+        <v>0</v>
+      </c>
+      <c r="O103" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P103" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4397,7 +6874,7 @@
   <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4721,7 +7198,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4729,14 +7206,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
@@ -4797,7 +7274,7 @@
         <v>101001</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -4812,10 +7289,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I2" s="30">
         <v>10</v>
@@ -4827,7 +7304,7 @@
         <v>100</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" s="31"/>
     </row>
@@ -4836,7 +7313,7 @@
         <v>102001</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="C3" s="30">
         <v>2</v>
@@ -4851,10 +7328,10 @@
         <v>15</v>
       </c>
       <c r="G3" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I3" s="30">
         <v>10</v>
@@ -4866,7 +7343,7 @@
         <v>100</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4875,7 +7352,7 @@
         <v>103001</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="C4" s="30">
         <v>3</v>
@@ -4884,16 +7361,16 @@
         <v>400</v>
       </c>
       <c r="E4" s="30">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="30">
         <v>20</v>
       </c>
       <c r="G4" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I4" s="30">
         <v>10</v>
@@ -4905,7 +7382,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M4" s="31"/>
     </row>
@@ -4914,7 +7391,7 @@
         <v>104001</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="C5" s="30">
         <v>4</v>
@@ -4923,13 +7400,13 @@
         <v>500</v>
       </c>
       <c r="E5" s="30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F5" s="30">
         <v>25</v>
       </c>
       <c r="G5" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="30">
         <v>1.5</v>
@@ -4944,7 +7421,7 @@
         <v>100</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M5" s="31"/>
     </row>
@@ -4953,7 +7430,7 @@
         <v>105001</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>145</v>
+        <v>274</v>
       </c>
       <c r="C6" s="30">
         <v>5</v>
@@ -4962,13 +7439,13 @@
         <v>600</v>
       </c>
       <c r="E6" s="30">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F6" s="30">
         <v>30</v>
       </c>
       <c r="G6" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="30">
         <v>1.5</v>
@@ -4983,7 +7460,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" s="31"/>
     </row>
@@ -4992,7 +7469,7 @@
         <v>106001</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="C7" s="30">
         <v>6</v>
@@ -5001,13 +7478,13 @@
         <v>700</v>
       </c>
       <c r="E7" s="30">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F7" s="30">
         <v>35</v>
       </c>
       <c r="G7" s="30">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="30">
         <v>1.5</v>
@@ -5022,7 +7499,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M7" s="31"/>
     </row>
@@ -5031,7 +7508,7 @@
         <v>101002</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="C8" s="30">
         <v>2</v>
@@ -5046,10 +7523,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I8" s="30">
         <v>20</v>
@@ -5061,7 +7538,7 @@
         <v>200</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M8" s="31"/>
     </row>
@@ -5070,7 +7547,7 @@
         <v>102002</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="C9" s="30">
         <v>3</v>
@@ -5079,16 +7556,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="30">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F9" s="30">
         <v>25</v>
       </c>
       <c r="G9" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I9" s="30">
         <v>20</v>
@@ -5100,7 +7577,7 @@
         <v>200</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M9" s="31"/>
     </row>
@@ -5109,7 +7586,7 @@
         <v>103002</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c r="C10" s="30">
         <v>5</v>
@@ -5118,16 +7595,16 @@
         <v>900</v>
       </c>
       <c r="E10" s="30">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F10" s="30">
         <v>35</v>
       </c>
       <c r="G10" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I10" s="30">
         <v>20</v>
@@ -5139,7 +7616,7 @@
         <v>200</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M10" s="31"/>
     </row>
@@ -5148,7 +7625,7 @@
         <v>104002</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="C11" s="30">
         <v>5</v>
@@ -5157,13 +7634,13 @@
         <v>900</v>
       </c>
       <c r="E11" s="30">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F11" s="30">
         <v>35</v>
       </c>
       <c r="G11" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="30">
         <v>1.5</v>
@@ -5178,7 +7655,7 @@
         <v>200</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M11" s="31"/>
     </row>
@@ -5187,7 +7664,7 @@
         <v>105002</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="C12" s="30">
         <v>7</v>
@@ -5196,13 +7673,13 @@
         <v>1100</v>
       </c>
       <c r="E12" s="30">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="F12" s="30">
         <v>45</v>
       </c>
       <c r="G12" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="30">
         <v>1.5</v>
@@ -5217,7 +7694,7 @@
         <v>200</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M12" s="31"/>
     </row>
@@ -5226,7 +7703,7 @@
         <v>106002</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="C13" s="30">
         <v>8</v>
@@ -5235,13 +7712,13 @@
         <v>1300</v>
       </c>
       <c r="E13" s="30">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="F13" s="30">
         <v>60</v>
       </c>
       <c r="G13" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="30">
         <v>1.5</v>
@@ -5256,7 +7733,7 @@
         <v>200</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M13" s="31"/>
     </row>
@@ -5265,7 +7742,7 @@
         <v>101003</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="C14" s="30">
         <v>3</v>
@@ -5283,7 +7760,7 @@
         <v>0.5</v>
       </c>
       <c r="H14" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I14" s="30">
         <v>5</v>
@@ -5295,7 +7772,7 @@
         <v>300</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M14" s="31"/>
     </row>
@@ -5304,7 +7781,7 @@
         <v>102003</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="C15" s="30">
         <v>5</v>
@@ -5313,7 +7790,7 @@
         <v>550</v>
       </c>
       <c r="E15" s="30">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F15" s="30">
         <v>5</v>
@@ -5322,7 +7799,7 @@
         <v>0.5</v>
       </c>
       <c r="H15" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I15" s="30">
         <v>5</v>
@@ -5334,7 +7811,7 @@
         <v>300</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M15" s="31"/>
     </row>
@@ -5343,7 +7820,7 @@
         <v>103003</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="C16" s="30">
         <v>7</v>
@@ -5352,7 +7829,7 @@
         <v>600</v>
       </c>
       <c r="E16" s="30">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F16" s="30">
         <v>5</v>
@@ -5361,7 +7838,7 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="30">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="I16" s="30">
         <v>5</v>
@@ -5373,7 +7850,7 @@
         <v>300</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M16" s="31"/>
     </row>
@@ -5382,7 +7859,7 @@
         <v>104003</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="C17" s="30">
         <v>7</v>
@@ -5391,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="E17" s="30">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="F17" s="30">
         <v>5</v>
@@ -5412,7 +7889,7 @@
         <v>300</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M17" s="31"/>
     </row>
@@ -5421,7 +7898,7 @@
         <v>105003</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="C18" s="30">
         <v>8</v>
@@ -5430,7 +7907,7 @@
         <v>700</v>
       </c>
       <c r="E18" s="30">
-        <v>115</v>
+        <v>210</v>
       </c>
       <c r="F18" s="30">
         <v>5</v>
@@ -5451,7 +7928,7 @@
         <v>300</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M18" s="31"/>
     </row>
@@ -5460,7 +7937,7 @@
         <v>106003</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
       <c r="C19" s="30">
         <v>9</v>
@@ -5469,7 +7946,7 @@
         <v>800</v>
       </c>
       <c r="E19" s="30">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="F19" s="30">
         <v>5</v>
@@ -5490,7 +7967,7 @@
         <v>300</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M19" s="31"/>
     </row>
@@ -5499,7 +7976,7 @@
         <v>201001</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="C20" s="30">
         <v>4</v>
@@ -5514,10 +7991,10 @@
         <v>30</v>
       </c>
       <c r="G20" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I20" s="30">
         <v>25</v>
@@ -5529,7 +8006,7 @@
         <v>300</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M20" s="31"/>
     </row>
@@ -5538,7 +8015,7 @@
         <v>202001</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="C21" s="30">
         <v>7</v>
@@ -5547,16 +8024,16 @@
         <v>700</v>
       </c>
       <c r="E21" s="30">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F21" s="30">
         <v>30</v>
       </c>
       <c r="G21" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I21" s="30">
         <v>25</v>
@@ -5568,7 +8045,7 @@
         <v>300</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M21" s="31"/>
     </row>
@@ -5577,7 +8054,7 @@
         <v>203001</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="C22" s="30">
         <v>10</v>
@@ -5586,16 +8063,16 @@
         <v>1100</v>
       </c>
       <c r="E22" s="30">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="F22" s="30">
         <v>50</v>
       </c>
       <c r="G22" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I22" s="30">
         <v>25</v>
@@ -5607,7 +8084,7 @@
         <v>300</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M22" s="31"/>
     </row>
@@ -5616,7 +8093,7 @@
         <v>204001</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="C23" s="30">
         <v>13</v>
@@ -5625,16 +8102,16 @@
         <v>1400</v>
       </c>
       <c r="E23" s="30">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F23" s="30">
         <v>60</v>
       </c>
       <c r="G23" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I23" s="30">
         <v>25</v>
@@ -5646,7 +8123,7 @@
         <v>300</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M23" s="31"/>
     </row>
@@ -5655,7 +8132,7 @@
         <v>205001</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="C24" s="30">
         <v>16</v>
@@ -5664,16 +8141,16 @@
         <v>1700</v>
       </c>
       <c r="E24" s="30">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="F24" s="30">
         <v>70</v>
       </c>
       <c r="G24" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I24" s="30">
         <v>25</v>
@@ -5685,7 +8162,7 @@
         <v>300</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M24" s="31"/>
     </row>
@@ -5694,7 +8171,7 @@
         <v>206001</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="C25" s="30">
         <v>20</v>
@@ -5703,16 +8180,16 @@
         <v>2000</v>
       </c>
       <c r="E25" s="30">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F25" s="30">
         <v>70</v>
       </c>
       <c r="G25" s="30">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I25" s="30">
         <v>25</v>
@@ -5724,7 +8201,7 @@
         <v>300</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M25" s="31"/>
     </row>
@@ -5733,7 +8210,7 @@
         <v>301001</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="C26" s="30">
         <v>5</v>
@@ -5748,10 +8225,10 @@
         <v>50</v>
       </c>
       <c r="G26" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I26" s="30">
         <v>10</v>
@@ -5763,7 +8240,7 @@
         <v>400</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M26" s="31"/>
     </row>
@@ -5772,7 +8249,7 @@
         <v>302001</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="C27" s="30">
         <v>10</v>
@@ -5787,10 +8264,10 @@
         <v>200</v>
       </c>
       <c r="G27" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I27" s="30">
         <v>10</v>
@@ -5802,7 +8279,7 @@
         <v>400</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M27" s="31"/>
     </row>
@@ -5811,7 +8288,7 @@
         <v>303001</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="C28" s="30">
         <v>15</v>
@@ -5826,10 +8303,10 @@
         <v>70</v>
       </c>
       <c r="G28" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="30">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I28" s="30">
         <v>10</v>
@@ -5841,7 +8318,7 @@
         <v>400</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M28" s="31"/>
     </row>
@@ -5850,7 +8327,7 @@
         <v>304001</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="C29" s="30">
         <v>20</v>
@@ -5865,10 +8342,10 @@
         <v>300</v>
       </c>
       <c r="G29" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I29" s="30">
         <v>10</v>
@@ -5880,7 +8357,7 @@
         <v>400</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M29" s="31"/>
     </row>
@@ -5889,7 +8366,7 @@
         <v>305001</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="C30" s="30">
         <v>25</v>
@@ -5904,10 +8381,10 @@
         <v>100</v>
       </c>
       <c r="G30" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I30" s="30">
         <v>10</v>
@@ -5919,7 +8396,7 @@
         <v>400</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M30" s="31"/>
     </row>
@@ -5928,7 +8405,7 @@
         <v>306001</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>153</v>
+        <v>294</v>
       </c>
       <c r="C31" s="30">
         <v>30</v>
@@ -5943,10 +8420,10 @@
         <v>300</v>
       </c>
       <c r="G31" s="30">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="30">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I31" s="30">
         <v>10</v>
@@ -5958,7 +8435,7 @@
         <v>400</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M31" s="31"/>
     </row>
@@ -5980,12 +8457,12 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5994,7 +8471,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A2" sqref="A2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6019,7 +8496,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>135</v>
@@ -6028,10 +8505,10 @@
         <v>134</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>136</v>
@@ -6064,7 +8541,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="33">
         <v>3000</v>
@@ -6100,10 +8577,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -6112,7 +8589,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C3" s="33">
         <v>2500</v>
@@ -6148,10 +8625,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -6160,7 +8637,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" s="33">
         <v>2500</v>
@@ -6196,10 +8673,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -6208,7 +8685,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C5" s="33">
         <v>2000</v>
@@ -6244,10 +8721,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -6256,7 +8733,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="33">
         <v>4000</v>
@@ -6292,10 +8769,10 @@
         <v>0.8</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -6304,7 +8781,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" s="33">
         <v>2000</v>
@@ -6340,17 +8817,17 @@
         <v>1.2</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="P7" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6358,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6389,55 +8866,55 @@
         <v>132</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>187</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="S1" s="33"/>
     </row>
@@ -6446,7 +8923,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" s="33">
         <v>101001</v>
@@ -6487,7 +8964,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" s="33">
         <v>101002</v>
@@ -6528,7 +9005,7 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C4" s="35">
         <v>101002</v>
@@ -6573,7 +9050,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C5" s="35">
         <v>101002</v>
@@ -6605,7 +9082,7 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C6">
         <v>101002</v>
@@ -6631,13 +9108,19 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7">
+        <v>101003</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>101002</v>
       </c>
-      <c r="D7">
-        <v>3</v>
+      <c r="F7">
+        <v>2</v>
       </c>
       <c r="M7" s="35">
         <v>10501</v>
@@ -6663,7 +9146,7 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C8">
         <v>101002</v>
@@ -6695,13 +9178,25 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9">
+        <v>201001</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>101002</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>101001</v>
       </c>
-      <c r="D9">
-        <v>4</v>
+      <c r="H9">
+        <v>2</v>
       </c>
       <c r="M9" s="35">
         <v>10501</v>
@@ -6721,7 +9216,7 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <v>301001</v>
@@ -6753,10 +9248,10 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C11">
-        <v>101001</v>
+        <v>102001</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -6779,13 +9274,19 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C12">
-        <v>101001</v>
+        <v>102002</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>102001</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
       <c r="M12" s="35">
         <v>10501</v>
@@ -6805,13 +9306,19 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13">
-        <v>101001</v>
+        <v>102002</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>102001</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
       <c r="M13" s="35">
         <v>10501</v>
@@ -6837,12 +9344,18 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C14">
-        <v>101001</v>
+        <v>102002</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>102001</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="M14" s="35">
@@ -6863,13 +9376,13 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C15">
-        <v>101001</v>
+        <v>102002</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="35">
         <v>10501</v>
@@ -6889,13 +9402,19 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C16">
-        <v>101001</v>
+        <v>102003</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>102002</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
       </c>
       <c r="M16" s="35">
         <v>10501</v>
@@ -6921,16 +9440,16 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C17">
-        <v>101003</v>
+        <v>102002</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>101001</v>
+        <v>102001</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -6953,18 +9472,24 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C18">
-        <v>201001</v>
+        <v>202001</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>101003</v>
+        <v>102002</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>102001</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="M18" s="35">
@@ -6985,19 +9510,13 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19">
-        <v>201001</v>
+        <v>302001</v>
       </c>
       <c r="D19">
         <v>1</v>
-      </c>
-      <c r="E19">
-        <v>101003</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
       </c>
       <c r="M19" s="35">
         <v>10501</v>
@@ -7023,10 +9542,10 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C20">
-        <v>101001</v>
+        <v>103001</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -7049,13 +9568,19 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C21">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>103001</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
       </c>
       <c r="M21" s="35">
         <v>10501</v>
@@ -7075,13 +9600,19 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C22">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>103001</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="M22" s="35">
         <v>10501</v>
@@ -7107,12 +9638,18 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C23">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>103001</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
       <c r="M23" s="35">
@@ -7133,13 +9670,13 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C24">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="35">
         <v>10501</v>
@@ -7159,13 +9696,19 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C25">
-        <v>101001</v>
+        <v>103003</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>103002</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="M25" s="35">
         <v>10501</v>
@@ -7191,12 +9734,18 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C26">
-        <v>101001</v>
+        <v>103002</v>
       </c>
       <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>103001</v>
+      </c>
+      <c r="F26">
         <v>2</v>
       </c>
       <c r="M26" s="35">
@@ -7217,13 +9766,25 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C27">
-        <v>101001</v>
+        <v>203001</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>103002</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>103001</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
       </c>
       <c r="M27" s="35">
         <v>10501</v>
@@ -7243,13 +9804,13 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C28">
-        <v>101001</v>
+        <v>303001</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M28" s="35">
         <v>10501</v>
@@ -7275,10 +9836,10 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C29">
-        <v>101001</v>
+        <v>104001</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -7301,13 +9862,19 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C30">
-        <v>101001</v>
+        <v>104002</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>104001</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
       </c>
       <c r="M30" s="35">
         <v>10501</v>
@@ -7333,13 +9900,19 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C31">
-        <v>101001</v>
+        <v>104002</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>104001</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
       </c>
       <c r="M31" s="35">
         <v>10501</v>
@@ -7365,12 +9938,18 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C32">
-        <v>101001</v>
+        <v>104002</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>104001</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
       <c r="M32" s="35">
@@ -7391,13 +9970,13 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33">
-        <v>101001</v>
+        <v>104002</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33" s="35">
         <v>10501</v>
@@ -7417,13 +9996,19 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C34">
-        <v>101001</v>
+        <v>104003</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>104002</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
       </c>
       <c r="M34" s="35">
         <v>10501</v>
@@ -7449,12 +10034,18 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C35">
-        <v>101001</v>
+        <v>104002</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>104001</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
       <c r="M35" s="35">
@@ -7475,13 +10066,25 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C36">
-        <v>101001</v>
+        <v>204001</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>104002</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>104001</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
       </c>
       <c r="M36" s="35">
         <v>10501</v>
@@ -7507,13 +10110,13 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C37">
-        <v>101001</v>
+        <v>304001</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M37" s="35">
         <v>10501</v>
@@ -7539,10 +10142,10 @@
         <v>150101</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C38">
-        <v>101001</v>
+        <v>105001</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -7565,13 +10168,19 @@
         <v>150102</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C39">
-        <v>101001</v>
+        <v>105002</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>105001</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
       </c>
       <c r="M39" s="35">
         <v>10501</v>
@@ -7591,13 +10200,19 @@
         <v>150103</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C40">
-        <v>101001</v>
+        <v>105002</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>105001</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
       </c>
       <c r="M40" s="35">
         <v>10501</v>
@@ -7623,12 +10238,18 @@
         <v>150201</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C41">
-        <v>101001</v>
+        <v>105002</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>105001</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
       <c r="M41" s="35">
@@ -7649,13 +10270,13 @@
         <v>150202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C42">
-        <v>101001</v>
+        <v>105002</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M42" s="35">
         <v>10501</v>
@@ -7681,13 +10302,19 @@
         <v>150203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C43">
-        <v>101001</v>
+        <v>105003</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>105002</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
       </c>
       <c r="M43" s="35">
         <v>10501</v>
@@ -7713,12 +10340,18 @@
         <v>150301</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C44">
-        <v>101001</v>
+        <v>105002</v>
       </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>105001</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
       <c r="M44" s="35">
@@ -7739,13 +10372,25 @@
         <v>150302</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C45">
-        <v>101001</v>
+        <v>205001</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>105002</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>105001</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
       </c>
       <c r="M45" s="35">
         <v>10501</v>
@@ -7765,13 +10410,13 @@
         <v>150303</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C46">
-        <v>101001</v>
+        <v>305001</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M46" s="35">
         <v>10501</v>
@@ -7797,10 +10442,10 @@
         <v>160101</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C47">
-        <v>101001</v>
+        <v>106001</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -7823,13 +10468,19 @@
         <v>160102</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C48">
-        <v>101001</v>
+        <v>106002</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>106001</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
       </c>
       <c r="M48" s="35">
         <v>10501</v>
@@ -7849,13 +10500,19 @@
         <v>160103</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C49">
-        <v>101001</v>
+        <v>106002</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>106001</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
       </c>
       <c r="M49" s="35">
         <v>10501</v>
@@ -7881,12 +10538,18 @@
         <v>160201</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C50">
-        <v>101001</v>
+        <v>106002</v>
       </c>
       <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>106001</v>
+      </c>
+      <c r="F50">
         <v>2</v>
       </c>
       <c r="M50" s="35">
@@ -7907,13 +10570,13 @@
         <v>160202</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C51">
-        <v>101001</v>
+        <v>106002</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" s="35">
         <v>10501</v>
@@ -7939,13 +10602,19 @@
         <v>160203</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C52">
-        <v>101001</v>
+        <v>106003</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>106002</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
       </c>
       <c r="M52" s="35">
         <v>10501</v>
@@ -7971,12 +10640,18 @@
         <v>160301</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C53">
-        <v>101001</v>
+        <v>106002</v>
       </c>
       <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>106001</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
       <c r="M53" s="35">
@@ -7997,13 +10672,25 @@
         <v>160302</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C54">
-        <v>101001</v>
+        <v>206001</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>106002</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>106001</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
       </c>
       <c r="M54" s="35">
         <v>10501</v>
@@ -8023,13 +10710,13 @@
         <v>160303</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C55">
-        <v>101001</v>
+        <v>306001</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M55" s="35">
         <v>10501</v>
@@ -8053,7 +10740,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
@@ -8065,8 +10752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8082,19 +10769,19 @@
         <v>132</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5">
@@ -8102,10 +10789,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D2" s="37">
         <v>110101</v>
@@ -8122,10 +10809,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D3" s="39">
         <v>110201</v>
@@ -8142,10 +10829,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D4" s="39">
         <v>110301</v>
@@ -8162,10 +10849,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D5" s="37">
         <v>120101</v>
@@ -8182,10 +10869,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D6" s="39">
         <v>120201</v>
@@ -8202,10 +10889,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D7" s="39">
         <v>120301</v>
@@ -8222,10 +10909,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D8" s="37">
         <v>130101</v>
@@ -8242,10 +10929,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="39">
         <v>130201</v>
@@ -8262,10 +10949,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D10" s="39">
         <v>130301</v>
@@ -8282,10 +10969,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="37">
         <v>140101</v>
@@ -8302,10 +10989,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D12" s="39">
         <v>140201</v>
@@ -8322,10 +11009,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D13" s="39">
         <v>140301</v>
@@ -8342,10 +11029,10 @@
         <v>1501</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="37">
         <v>150101</v>
@@ -8362,10 +11049,10 @@
         <v>1502</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="39">
         <v>150201</v>
@@ -8382,10 +11069,10 @@
         <v>1503</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" s="39">
         <v>150301</v>
@@ -8402,10 +11089,10 @@
         <v>1601</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D17" s="37">
         <v>160101</v>
@@ -8422,10 +11109,10 @@
         <v>1602</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D18" s="37">
         <v>160201</v>
@@ -8442,10 +11129,10 @@
         <v>1603</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D19" s="37">
         <v>160301</v>
@@ -8460,7 +11147,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
@@ -8473,7 +11160,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -8494,13 +11181,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>144</v>
@@ -8511,13 +11198,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E2" s="33">
         <v>20</v>
@@ -8526,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
@@ -8534,13 +11221,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E3" s="33">
         <v>50</v>
@@ -8549,7 +11236,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -8557,13 +11244,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E4" s="33">
         <v>100</v>
@@ -8572,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -8580,13 +11267,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E5" s="33">
         <v>1</v>
@@ -8595,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -8603,13 +11290,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E6" s="33">
         <v>1</v>
@@ -8618,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
@@ -8626,13 +11313,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E7" s="33">
         <v>50</v>
@@ -8641,7 +11328,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
@@ -8649,13 +11336,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E8" s="33">
         <v>150</v>
@@ -8664,7 +11351,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8672,13 +11359,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E9" s="33">
         <v>1</v>
@@ -8687,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8695,13 +11382,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E10" s="33">
         <v>101</v>
@@ -8710,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8718,13 +11405,13 @@
         <v>10602</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E11" s="33">
         <v>102</v>
@@ -8733,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8741,13 +11428,13 @@
         <v>10603</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E12" s="33">
         <v>103</v>
@@ -8756,7 +11443,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8764,13 +11451,13 @@
         <v>10604</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E13" s="33">
         <v>104</v>
@@ -8779,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8787,13 +11474,13 @@
         <v>10605</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E14" s="33">
         <v>105</v>
@@ -8802,7 +11489,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8810,13 +11497,13 @@
         <v>10606</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E15" s="33">
         <v>106</v>
@@ -8825,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8833,10 +11520,10 @@
         <v>10701</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -8845,7 +11532,7 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
@@ -8871,7 +11558,7 @@
         <v>134</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChapterData" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="ItemData" sheetId="8" r:id="rId8"/>
     <sheet name="LevelData" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="301">
   <si>
     <t>_chapterId</t>
   </si>
@@ -1046,6 +1046,21 @@
   <si>
     <t>적 1명 사격</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Skill/Cyborg/Skill1</t>
+  </si>
+  <si>
+    <t>Prefabs/Skill/Cyborg/Skill2</t>
+  </si>
+  <si>
+    <t>적 1명 타격(방어력감소)</t>
+  </si>
+  <si>
+    <t>Prefabs/Skill/KillerRobot/Skill1</t>
+  </si>
+  <si>
+    <t>Prefabs/Skill/KillerRobot/Skill2</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1147,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,6 +1202,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEC7BE"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1237,7 +1264,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1326,6 +1353,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1403,6 +1435,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFEC7BE"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1812,9 +1848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:P103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6437,7 +6473,7 @@
       <c r="B95" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D95" s="20">
@@ -6479,52 +6515,52 @@
       <c r="P95" s="21"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="7">
+      <c r="A96" s="41">
         <v>303001011</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1</v>
-      </c>
-      <c r="E96" s="7">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7">
-        <v>0</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I96" s="7">
-        <v>0</v>
-      </c>
-      <c r="J96" s="7">
-        <v>0</v>
-      </c>
-      <c r="K96" s="7">
-        <v>0</v>
-      </c>
-      <c r="L96" s="7">
-        <v>0</v>
-      </c>
-      <c r="M96" s="7">
-        <v>0</v>
-      </c>
-      <c r="N96" s="7">
-        <v>0</v>
-      </c>
-      <c r="O96" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P96" s="8"/>
+      <c r="C96" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D96" s="41">
+        <v>0</v>
+      </c>
+      <c r="E96" s="41">
+        <v>0</v>
+      </c>
+      <c r="F96" s="41">
+        <v>202</v>
+      </c>
+      <c r="G96" s="41">
+        <v>0</v>
+      </c>
+      <c r="H96" s="41">
+        <v>1</v>
+      </c>
+      <c r="I96" s="41">
+        <v>0</v>
+      </c>
+      <c r="J96" s="41">
+        <v>0</v>
+      </c>
+      <c r="K96" s="41">
+        <v>0</v>
+      </c>
+      <c r="L96" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M96" s="41">
+        <v>1</v>
+      </c>
+      <c r="N96" s="41">
+        <v>0</v>
+      </c>
+      <c r="O96" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="P96" s="42"/>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="20">
@@ -6534,13 +6570,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D97" s="20">
         <v>0</v>
       </c>
       <c r="E97" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="20">
         <v>202</v>
@@ -6570,57 +6606,57 @@
         <v>0</v>
       </c>
       <c r="O97" s="21" t="s">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="P97" s="21"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="7">
+      <c r="A98" s="41">
         <v>304001011</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D98" s="7">
-        <v>1</v>
-      </c>
-      <c r="E98" s="7">
-        <v>1</v>
-      </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7">
-        <v>0</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I98" s="7">
-        <v>0</v>
-      </c>
-      <c r="J98" s="7">
-        <v>0</v>
-      </c>
-      <c r="K98" s="7">
-        <v>0</v>
-      </c>
-      <c r="L98" s="7">
-        <v>0</v>
-      </c>
-      <c r="M98" s="7">
-        <v>0</v>
-      </c>
-      <c r="N98" s="7">
-        <v>0</v>
-      </c>
-      <c r="O98" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P98" s="8"/>
+      <c r="C98" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="41">
+        <v>0</v>
+      </c>
+      <c r="E98" s="41">
+        <v>0</v>
+      </c>
+      <c r="F98" s="41">
+        <v>202</v>
+      </c>
+      <c r="G98" s="41">
+        <v>0</v>
+      </c>
+      <c r="H98" s="41">
+        <v>1</v>
+      </c>
+      <c r="I98" s="41">
+        <v>0</v>
+      </c>
+      <c r="J98" s="41">
+        <v>0</v>
+      </c>
+      <c r="K98" s="41">
+        <v>0</v>
+      </c>
+      <c r="L98" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M98" s="41">
+        <v>1</v>
+      </c>
+      <c r="N98" s="41">
+        <v>0</v>
+      </c>
+      <c r="O98" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="P98" s="42"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="20">
@@ -6630,13 +6666,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D99" s="20">
         <v>0</v>
       </c>
       <c r="E99" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="20">
         <v>202</v>
@@ -6666,57 +6702,57 @@
         <v>0</v>
       </c>
       <c r="O99" s="21" t="s">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="P99" s="21"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="7">
+      <c r="A100" s="41">
         <v>305001011</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="7">
-        <v>1</v>
-      </c>
-      <c r="E100" s="7">
-        <v>1</v>
-      </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="7">
-        <v>0</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I100" s="7">
-        <v>0</v>
-      </c>
-      <c r="J100" s="7">
-        <v>0</v>
-      </c>
-      <c r="K100" s="7">
-        <v>0</v>
-      </c>
-      <c r="L100" s="7">
-        <v>0</v>
-      </c>
-      <c r="M100" s="7">
-        <v>0</v>
-      </c>
-      <c r="N100" s="7">
-        <v>0</v>
-      </c>
-      <c r="O100" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="P100" s="8"/>
+      <c r="C100" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="41">
+        <v>0</v>
+      </c>
+      <c r="E100" s="41">
+        <v>0</v>
+      </c>
+      <c r="F100" s="41">
+        <v>203</v>
+      </c>
+      <c r="G100" s="41">
+        <v>0</v>
+      </c>
+      <c r="H100" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I100" s="41">
+        <v>0</v>
+      </c>
+      <c r="J100" s="41">
+        <v>0</v>
+      </c>
+      <c r="K100" s="41">
+        <v>0</v>
+      </c>
+      <c r="L100" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M100" s="41">
+        <v>1</v>
+      </c>
+      <c r="N100" s="41">
+        <v>0</v>
+      </c>
+      <c r="O100" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="P100" s="42"/>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="20">
@@ -6726,13 +6762,13 @@
         <v>96</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D101" s="20">
         <v>0</v>
       </c>
       <c r="E101" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="20">
         <v>202</v>
@@ -6741,7 +6777,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I101" s="20">
         <v>0</v>
@@ -6762,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="21" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="P101" s="21"/>
     </row>
@@ -7206,7 +7242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection sqref="A1:M31"/>
     </sheetView>
   </sheetViews>
@@ -8835,7 +8871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:R55"/>
     </sheetView>
   </sheetViews>

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="294">
   <si>
     <t xml:space="preserve">_chapterId</t>
   </si>
@@ -620,40 +620,61 @@
     <t xml:space="preserve">Prefabs/Monster/Drone</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/Drone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Android</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/Android</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/Android</t>
+  </si>
+  <si>
     <t xml:space="preserve">SecurityTurret</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/SecurityTurret</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/SecurityTurret</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeNumber001</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/CodeNumber001</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/CodeNumber001</t>
+  </si>
+  <si>
     <t xml:space="preserve">UpdatedDrone</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/UpdatedDrone</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/UpdatedDrone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cyborg</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/Cyborg</t>
   </si>
   <si>
+    <t xml:space="preserve">UI/Icon/Cyborg</t>
+  </si>
+  <si>
     <t xml:space="preserve">KillerRobot</t>
   </si>
   <si>
     <t xml:space="preserve">Prefabs/Monster/KillerRobot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/Icon/KillerRobot</t>
   </si>
   <si>
     <t xml:space="preserve">_maxHealth</t>
@@ -1471,7 +1492,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -1610,7 +1631,7 @@
   </sheetPr>
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6679,7 +6700,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7019,8 +7040,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7030,14 +7051,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="42.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -7119,7 +7140,9 @@
       <c r="L2" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="31"/>
+      <c r="M2" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="n">
@@ -7158,7 +7181,9 @@
       <c r="L3" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M3" s="31"/>
+      <c r="M3" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="n">
@@ -7197,7 +7222,9 @@
       <c r="L4" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="31"/>
+      <c r="M4" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="n">
@@ -7236,7 +7263,9 @@
       <c r="L5" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="31"/>
+      <c r="M5" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="n">
@@ -7275,7 +7304,9 @@
       <c r="L6" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="n">
@@ -7314,14 +7345,16 @@
       <c r="L7" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="M7" s="31"/>
+      <c r="M7" s="31" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="n">
         <v>101002</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" s="30" t="n">
         <v>2</v>
@@ -7351,16 +7384,18 @@
         <v>200</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="n">
         <v>102002</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" s="30" t="n">
         <v>3</v>
@@ -7390,16 +7425,18 @@
         <v>200</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="n">
         <v>103002</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="30" t="n">
         <v>5</v>
@@ -7429,16 +7466,18 @@
         <v>200</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="n">
         <v>104002</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11" s="30" t="n">
         <v>5</v>
@@ -7468,16 +7507,18 @@
         <v>200</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="n">
         <v>105002</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="30" t="n">
         <v>7</v>
@@ -7507,16 +7548,18 @@
         <v>200</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M12" s="31"/>
+        <v>165</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="n">
         <v>106002</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="30" t="n">
         <v>8</v>
@@ -7546,16 +7589,18 @@
         <v>200</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="30" t="n">
         <v>101003</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="30" t="n">
         <v>3</v>
@@ -7585,16 +7630,18 @@
         <v>300</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M14" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="30" t="n">
         <v>102003</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C15" s="30" t="n">
         <v>5</v>
@@ -7624,16 +7671,18 @@
         <v>300</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="30" t="n">
         <v>103003</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C16" s="30" t="n">
         <v>7</v>
@@ -7663,16 +7712,18 @@
         <v>300</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="n">
         <v>104003</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C17" s="30" t="n">
         <v>7</v>
@@ -7702,16 +7753,18 @@
         <v>300</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="n">
         <v>105003</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="30" t="n">
         <v>8</v>
@@ -7741,16 +7794,18 @@
         <v>300</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="n">
         <v>106003</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C19" s="30" t="n">
         <v>9</v>
@@ -7780,16 +7835,18 @@
         <v>300</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" s="31"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="n">
         <v>201001</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C20" s="30" t="n">
         <v>4</v>
@@ -7819,16 +7876,18 @@
         <v>300</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M20" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="n">
         <v>202001</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C21" s="30" t="n">
         <v>7</v>
@@ -7858,16 +7917,18 @@
         <v>300</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="n">
         <v>203001</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C22" s="30" t="n">
         <v>10</v>
@@ -7897,16 +7958,18 @@
         <v>300</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="n">
         <v>204001</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C23" s="30" t="n">
         <v>13</v>
@@ -7936,16 +7999,18 @@
         <v>300</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="n">
         <v>205001</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C24" s="30" t="n">
         <v>16</v>
@@ -7975,16 +8040,18 @@
         <v>300</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="30" t="n">
         <v>206001</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C25" s="30" t="n">
         <v>20</v>
@@ -8014,16 +8081,18 @@
         <v>300</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="30" t="n">
         <v>301001</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C26" s="30" t="n">
         <v>5</v>
@@ -8053,16 +8122,18 @@
         <v>400</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="30" t="n">
         <v>302001</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C27" s="30" t="n">
         <v>10</v>
@@ -8092,16 +8163,18 @@
         <v>400</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M27" s="31"/>
+        <v>174</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="n">
         <v>303001</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C28" s="30" t="n">
         <v>15</v>
@@ -8131,16 +8204,18 @@
         <v>400</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="M28" s="31"/>
+        <v>177</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="n">
         <v>304001</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C29" s="30" t="n">
         <v>20</v>
@@ -8170,16 +8245,18 @@
         <v>400</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="30" t="n">
         <v>305001</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C30" s="30" t="n">
         <v>25</v>
@@ -8209,16 +8286,18 @@
         <v>400</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="30" t="n">
         <v>306001</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" s="30" t="n">
         <v>30</v>
@@ -8248,9 +8327,11 @@
         <v>400</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M31" s="31"/>
+        <v>174</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="30"/>
@@ -8287,22 +8368,22 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8313,7 +8394,7 @@
         <v>149</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>151</v>
@@ -8322,10 +8403,10 @@
         <v>150</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H1" s="33" t="s">
         <v>152</v>
@@ -8358,7 +8439,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C2" s="33" t="n">
         <v>3000</v>
@@ -8394,10 +8475,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="P2" s="35"/>
     </row>
@@ -8406,7 +8487,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>2500</v>
@@ -8442,10 +8523,10 @@
         <v>1.15</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P3" s="35"/>
     </row>
@@ -8454,7 +8535,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>2500</v>
@@ -8490,10 +8571,10 @@
         <v>1.3</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P4" s="35"/>
     </row>
@@ -8502,7 +8583,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C5" s="33" t="n">
         <v>2000</v>
@@ -8538,10 +8619,10 @@
         <v>1.45</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P5" s="35"/>
     </row>
@@ -8550,7 +8631,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C6" s="33" t="n">
         <v>4000</v>
@@ -8586,10 +8667,10 @@
         <v>0.8</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P6" s="35"/>
     </row>
@@ -8598,7 +8679,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C7" s="33" t="n">
         <v>2000</v>
@@ -8634,10 +8715,10 @@
         <v>1.2</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P7" s="35"/>
     </row>
@@ -8659,8 +8740,8 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8675,13 +8756,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -8690,55 +8771,55 @@
         <v>148</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="S1" s="33"/>
     </row>
@@ -8747,7 +8828,7 @@
         <v>110101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C2" s="33" t="n">
         <v>101001</v>
@@ -8788,7 +8869,7 @@
         <v>110102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>101002</v>
@@ -8796,10 +8877,10 @@
       <c r="D3" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="33" t="n">
         <v>101001</v>
       </c>
-      <c r="F3" s="35" t="n">
+      <c r="F3" s="33" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="35"/>
@@ -8829,18 +8910,18 @@
         <v>110103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="35" t="n">
+        <v>220</v>
+      </c>
+      <c r="C4" s="33" t="n">
         <v>101002</v>
       </c>
       <c r="D4" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="33" t="n">
         <v>101001</v>
       </c>
-      <c r="F4" s="35" t="n">
+      <c r="F4" s="33" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="35"/>
@@ -8874,7 +8955,7 @@
         <v>110201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C5" s="35" t="n">
         <v>101002</v>
@@ -8906,7 +8987,7 @@
         <v>110202</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>101002</v>
@@ -8932,7 +9013,7 @@
         <v>110203</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>101003</v>
@@ -8970,7 +9051,7 @@
         <v>110301</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>101002</v>
@@ -9002,7 +9083,7 @@
         <v>110302</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>201001</v>
@@ -9040,7 +9121,7 @@
         <v>110303</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>301001</v>
@@ -9072,7 +9153,7 @@
         <v>120101</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>102001</v>
@@ -9098,7 +9179,7 @@
         <v>120102</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>102002</v>
@@ -9130,7 +9211,7 @@
         <v>120103</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>102002</v>
@@ -9168,7 +9249,7 @@
         <v>120201</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>102002</v>
@@ -9200,7 +9281,7 @@
         <v>120202</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>102002</v>
@@ -9226,7 +9307,7 @@
         <v>120203</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>102003</v>
@@ -9264,7 +9345,7 @@
         <v>120301</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>102002</v>
@@ -9296,7 +9377,7 @@
         <v>120302</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>202001</v>
@@ -9334,7 +9415,7 @@
         <v>120303</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>302001</v>
@@ -9366,7 +9447,7 @@
         <v>130101</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>103001</v>
@@ -9392,7 +9473,7 @@
         <v>130102</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>103002</v>
@@ -9424,7 +9505,7 @@
         <v>130103</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>103002</v>
@@ -9462,7 +9543,7 @@
         <v>130201</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>103002</v>
@@ -9494,7 +9575,7 @@
         <v>130202</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>103002</v>
@@ -9520,7 +9601,7 @@
         <v>130203</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>103003</v>
@@ -9558,7 +9639,7 @@
         <v>130301</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>103002</v>
@@ -9590,7 +9671,7 @@
         <v>130302</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>203001</v>
@@ -9628,7 +9709,7 @@
         <v>130303</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>303001</v>
@@ -9660,7 +9741,7 @@
         <v>140101</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>104001</v>
@@ -9686,7 +9767,7 @@
         <v>140102</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>104002</v>
@@ -9724,7 +9805,7 @@
         <v>140103</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>104002</v>
@@ -9762,7 +9843,7 @@
         <v>140201</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>104002</v>
@@ -9794,7 +9875,7 @@
         <v>140202</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>104002</v>
@@ -9820,7 +9901,7 @@
         <v>140203</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>104003</v>
@@ -9858,7 +9939,7 @@
         <v>140301</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>104002</v>
@@ -9890,7 +9971,7 @@
         <v>140302</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>204001</v>
@@ -9934,7 +10015,7 @@
         <v>140303</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>304001</v>
@@ -9966,7 +10047,7 @@
         <v>150101</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>105001</v>
@@ -9992,7 +10073,7 @@
         <v>150102</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>105002</v>
@@ -10024,7 +10105,7 @@
         <v>150103</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>105002</v>
@@ -10062,7 +10143,7 @@
         <v>150201</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>105002</v>
@@ -10094,7 +10175,7 @@
         <v>150202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>105002</v>
@@ -10126,7 +10207,7 @@
         <v>150203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>105003</v>
@@ -10164,7 +10245,7 @@
         <v>150301</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>105002</v>
@@ -10196,7 +10277,7 @@
         <v>150302</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>205001</v>
@@ -10234,7 +10315,7 @@
         <v>150303</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>305001</v>
@@ -10266,7 +10347,7 @@
         <v>160101</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>106001</v>
@@ -10292,7 +10373,7 @@
         <v>160102</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>106002</v>
@@ -10324,7 +10405,7 @@
         <v>160103</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>106002</v>
@@ -10362,7 +10443,7 @@
         <v>160201</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>106002</v>
@@ -10394,7 +10475,7 @@
         <v>160202</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>106002</v>
@@ -10426,7 +10507,7 @@
         <v>160203</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>106003</v>
@@ -10464,7 +10545,7 @@
         <v>160301</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>106002</v>
@@ -10496,7 +10577,7 @@
         <v>160302</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>206001</v>
@@ -10534,7 +10615,7 @@
         <v>160303</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>306001</v>
@@ -10579,7 +10660,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -10596,19 +10677,19 @@
         <v>148</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10616,10 +10697,10 @@
         <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D2" s="37" t="n">
         <v>110101</v>
@@ -10636,10 +10717,10 @@
         <v>1102</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D3" s="39" t="n">
         <v>110201</v>
@@ -10656,10 +10737,10 @@
         <v>1103</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D4" s="39" t="n">
         <v>110301</v>
@@ -10676,10 +10757,10 @@
         <v>1201</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D5" s="37" t="n">
         <v>120101</v>
@@ -10696,10 +10777,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D6" s="39" t="n">
         <v>120201</v>
@@ -10716,10 +10797,10 @@
         <v>1203</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D7" s="39" t="n">
         <v>120301</v>
@@ -10736,10 +10817,10 @@
         <v>1301</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D8" s="37" t="n">
         <v>130101</v>
@@ -10756,10 +10837,10 @@
         <v>1302</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>231</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>224</v>
       </c>
       <c r="D9" s="39" t="n">
         <v>130201</v>
@@ -10776,10 +10857,10 @@
         <v>1303</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D10" s="39" t="n">
         <v>130301</v>
@@ -10796,10 +10877,10 @@
         <v>1401</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D11" s="37" t="n">
         <v>140101</v>
@@ -10816,10 +10897,10 @@
         <v>1402</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D12" s="39" t="n">
         <v>140201</v>
@@ -10836,10 +10917,10 @@
         <v>1403</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D13" s="39" t="n">
         <v>140301</v>
@@ -10856,10 +10937,10 @@
         <v>1501</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D14" s="37" t="n">
         <v>150101</v>
@@ -10876,10 +10957,10 @@
         <v>1502</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D15" s="39" t="n">
         <v>150201</v>
@@ -10896,10 +10977,10 @@
         <v>1503</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D16" s="39" t="n">
         <v>150301</v>
@@ -10916,10 +10997,10 @@
         <v>1601</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D17" s="37" t="n">
         <v>160101</v>
@@ -10936,10 +11017,10 @@
         <v>1602</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D18" s="37" t="n">
         <v>160201</v>
@@ -10956,10 +11037,10 @@
         <v>1603</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D19" s="37" t="n">
         <v>160301</v>
@@ -10989,7 +11070,7 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11011,13 +11092,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>160</v>
@@ -11028,13 +11109,13 @@
         <v>10101</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E2" s="33" t="n">
         <v>20</v>
@@ -11043,7 +11124,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11051,13 +11132,13 @@
         <v>10102</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E3" s="33" t="n">
         <v>50</v>
@@ -11066,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11074,13 +11155,13 @@
         <v>10103</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E4" s="33" t="n">
         <v>100</v>
@@ -11089,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11097,13 +11178,13 @@
         <v>10201</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E5" s="33" t="n">
         <v>1</v>
@@ -11112,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,13 +11201,13 @@
         <v>10301</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E6" s="33" t="n">
         <v>1</v>
@@ -11135,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11143,13 +11224,13 @@
         <v>10401</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E7" s="33" t="n">
         <v>50</v>
@@ -11158,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11166,13 +11247,13 @@
         <v>10402</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E8" s="33" t="n">
         <v>150</v>
@@ -11181,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11189,13 +11270,13 @@
         <v>10501</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="E9" s="33" t="n">
         <v>1</v>
@@ -11204,7 +11285,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11212,13 +11293,13 @@
         <v>10601</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E10" s="33" t="n">
         <v>101</v>
@@ -11227,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11235,13 +11316,13 @@
         <v>10602</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E11" s="33" t="n">
         <v>102</v>
@@ -11250,7 +11331,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11258,13 +11339,13 @@
         <v>10603</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E12" s="33" t="n">
         <v>103</v>
@@ -11273,7 +11354,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11281,13 +11362,13 @@
         <v>10604</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E13" s="33" t="n">
         <v>104</v>
@@ -11296,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11304,13 +11385,13 @@
         <v>10605</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E14" s="33" t="n">
         <v>105</v>
@@ -11319,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11327,13 +11408,13 @@
         <v>10606</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E15" s="33" t="n">
         <v>106</v>
@@ -11342,7 +11423,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11350,10 +11431,10 @@
         <v>10701</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -11377,7 +11458,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P29" activeCellId="0" sqref="P29"/>
     </sheetView>
   </sheetViews>
@@ -11391,7 +11472,7 @@
         <v>150</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Assets/RawData/DataBase/Excel/DataList.xlsx
+++ b/Assets/RawData/DataBase/Excel/DataList.xlsx
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="300">
   <si>
     <t xml:space="preserve">_chapterId</t>
   </si>
@@ -512,6 +512,15 @@
     <t xml:space="preserve">Prefabs/Skill/KillerRobot/Skill2</t>
   </si>
   <si>
+    <t xml:space="preserve">적 전체 사격(공격력,방어력감소)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Destiny/Skill1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Skill/Destiny/Skill2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CharacterData</t>
   </si>
   <si>
@@ -675,6 +684,15 @@
   </si>
   <si>
     <t xml:space="preserve">UI/Icon/KillerRobot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefabs/Monster/Destiny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI/Icon/Destiny</t>
   </si>
   <si>
     <t xml:space="preserve">_maxHealth</t>
@@ -1169,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1189,6 +1207,13 @@
       <right/>
       <top/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1248,7 +1273,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1337,6 +1362,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1365,19 +1406,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1632,9 +1673,9 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M108" activeCellId="0" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6586,101 +6627,101 @@
       </c>
       <c r="P101" s="21"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="n">
+    <row r="102" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="22" t="n">
         <v>306001011</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" s="7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="P102" s="8"/>
-    </row>
-    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20" t="n">
+      <c r="C102" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="22" t="n">
+        <v>202</v>
+      </c>
+      <c r="G102" s="22" t="n">
+        <v>204</v>
+      </c>
+      <c r="H102" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I102" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P102" s="23"/>
+    </row>
+    <row r="103" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="24" t="n">
         <v>306001021</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" s="20" t="n">
-        <v>202</v>
-      </c>
-      <c r="G103" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" s="20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I103" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" s="20" t="n">
+      <c r="C103" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="24" t="n">
+        <v>203</v>
+      </c>
+      <c r="G103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="L103" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N103" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="P103" s="21"/>
+      <c r="L103" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="P103" s="25"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6706,320 +6747,320 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="22" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="22" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="25.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="22" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="26" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="26" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="26" width="14.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26"/>
+      <c r="A2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="n">
+      <c r="A3" s="31" t="n">
         <v>101</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26" t="n">
+      <c r="B3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>130</v>
+      <c r="E3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="n">
+      <c r="A4" s="31" t="n">
         <v>102</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="n">
+      <c r="B4" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>132</v>
+      <c r="E4" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="31" t="n">
         <v>103</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26" t="n">
+      <c r="B5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="E5" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>134</v>
+      <c r="E5" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="n">
+      <c r="A6" s="32" t="n">
         <v>201</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26" t="n">
+      <c r="B6" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E6" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="22" t="n">
+      <c r="E6" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="26" t="n">
         <v>0.7</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>136</v>
+      <c r="G6" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="n">
+      <c r="A7" s="32" t="n">
         <v>202</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26" t="n">
+      <c r="B7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30" t="n">
         <v>-0.5</v>
       </c>
-      <c r="E7" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="22" t="n">
+      <c r="E7" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>136</v>
+      <c r="G7" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="n">
+      <c r="A8" s="32" t="n">
         <v>203</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26" t="n">
+      <c r="B8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30" t="n">
         <v>-0.7</v>
       </c>
-      <c r="E8" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" s="22" t="n">
+      <c r="E8" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="26" t="n">
         <v>0.7</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>139</v>
+      <c r="G8" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="n">
+      <c r="A9" s="32" t="n">
         <v>204</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26" t="n">
+      <c r="B9" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30" t="n">
         <v>-0.7</v>
       </c>
-      <c r="E9" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="22" t="n">
+      <c r="E9" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>139</v>
+      <c r="G9" s="26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="n">
+      <c r="A10" s="32" t="n">
         <v>205</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22" t="n">
+      <c r="B10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="n">
         <v>0.2</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>142</v>
+      <c r="G10" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="n">
+      <c r="A11" s="32" t="n">
         <v>206</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22" t="n">
+      <c r="B11" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="n">
         <v>0.3</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>142</v>
+      <c r="G11" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="n">
+      <c r="A12" s="32" t="n">
         <v>207</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="22" t="n">
+      <c r="B12" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26" t="n">
         <v>0.6</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>145</v>
+      <c r="G12" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+      <c r="A13" s="32" t="n">
         <v>208</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22" t="n">
+      <c r="B13" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="n">
         <v>0.8</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>145</v>
+      <c r="G13" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
+      <c r="A14" s="32" t="n">
         <v>209</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22" t="n">
+      <c r="B14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26" t="n">
         <v>0.9</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>145</v>
+      <c r="G14" s="26" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7040,8 +7081,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M42" activeCellId="0" sqref="M42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H31" activeCellId="0" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7063,1290 +7104,1290 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="34" t="n">
+        <v>101001</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="E2" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="n">
+        <v>102001</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="E3" s="34" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" s="34" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I3" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="n">
+        <v>103001</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="E4" s="34" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I4" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="n">
+        <v>104001</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34" t="n">
+        <v>500</v>
+      </c>
+      <c r="E5" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K5" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34" t="n">
+        <v>105001</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="n">
+        <v>600</v>
+      </c>
+      <c r="E6" s="34" t="n">
+        <v>130</v>
+      </c>
+      <c r="F6" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G6" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="n">
+        <v>106001</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="34" t="n">
+        <v>700</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>160</v>
+      </c>
+      <c r="F7" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="G7" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="n">
+        <v>101002</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34" t="n">
+        <v>350</v>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I8" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K8" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="n">
+        <v>102002</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="34" t="n">
+        <v>500</v>
+      </c>
+      <c r="E9" s="34" t="n">
+        <v>90</v>
+      </c>
+      <c r="F9" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="G9" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="n">
+        <v>103002</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="34" t="n">
+        <v>900</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>110</v>
+      </c>
+      <c r="F10" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="G10" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I10" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" s="34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K10" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="n">
+        <v>104002</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" s="34" t="n">
+        <v>900</v>
+      </c>
+      <c r="E11" s="34" t="n">
         <v>150</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="n">
-        <v>101001</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="n">
+      <c r="F11" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="G11" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" s="34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="34" t="n">
         <v>200</v>
       </c>
-      <c r="E2" s="30" t="n">
+      <c r="L11" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="n">
+        <v>105002</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>180</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>45</v>
+      </c>
+      <c r="G12" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="n">
+        <v>106002</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="34" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E13" s="34" t="n">
+        <v>210</v>
+      </c>
+      <c r="F13" s="34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I13" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="n">
+        <v>101003</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" s="34" t="n">
+        <v>500</v>
+      </c>
+      <c r="E14" s="34" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I14" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="n">
+        <v>102003</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" s="34" t="n">
+        <v>550</v>
+      </c>
+      <c r="E15" s="34" t="n">
+        <v>120</v>
+      </c>
+      <c r="F15" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I15" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="n">
+        <v>103003</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D16" s="34" t="n">
+        <v>600</v>
+      </c>
+      <c r="E16" s="34" t="n">
+        <v>150</v>
+      </c>
+      <c r="F16" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I16" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="n">
+        <v>104003</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="34" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" s="34" t="n">
+        <v>180</v>
+      </c>
+      <c r="F17" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I17" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="n">
+        <v>105003</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D18" s="34" t="n">
+        <v>700</v>
+      </c>
+      <c r="E18" s="34" t="n">
+        <v>210</v>
+      </c>
+      <c r="F18" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I18" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="n">
+        <v>106003</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="34" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" s="34" t="n">
+        <v>800</v>
+      </c>
+      <c r="E19" s="34" t="n">
+        <v>250</v>
+      </c>
+      <c r="F19" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I19" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J19" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="n">
+        <v>201001</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="34" t="n">
+        <v>150</v>
+      </c>
+      <c r="F20" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I20" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K20" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="n">
+        <v>202001</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="34" t="n">
+        <v>7</v>
+      </c>
+      <c r="D21" s="34" t="n">
+        <v>700</v>
+      </c>
+      <c r="E21" s="34" t="n">
+        <v>180</v>
+      </c>
+      <c r="F21" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G21" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I21" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K21" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="n">
+        <v>203001</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="34" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="34" t="n">
+        <v>220</v>
+      </c>
+      <c r="F22" s="34" t="n">
         <v>50</v>
       </c>
-      <c r="F2" s="30" t="n">
+      <c r="G22" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I22" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" s="34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K22" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="n">
+        <v>204001</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="34" t="n">
+        <v>13</v>
+      </c>
+      <c r="D23" s="34" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="34" t="n">
+        <v>250</v>
+      </c>
+      <c r="F23" s="34" t="n">
+        <v>60</v>
+      </c>
+      <c r="G23" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I23" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="n">
+        <v>205001</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="34" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="34" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="34" t="n">
+        <v>280</v>
+      </c>
+      <c r="F24" s="34" t="n">
+        <v>70</v>
+      </c>
+      <c r="G24" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I24" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" s="34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K24" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="n">
+        <v>206001</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="34" t="n">
+        <v>320</v>
+      </c>
+      <c r="F25" s="34" t="n">
+        <v>70</v>
+      </c>
+      <c r="G25" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I25" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K25" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="n">
+        <v>301001</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="F26" s="34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I26" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="G2" s="30" t="n">
+      <c r="J26" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="H2" s="30" t="n">
+      <c r="K26" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="n">
+        <v>302001</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="34" t="n">
+        <v>150</v>
+      </c>
+      <c r="F27" s="34" t="n">
+        <v>200</v>
+      </c>
+      <c r="G27" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="34" t="n">
         <v>1.3</v>
       </c>
-      <c r="I2" s="30" t="n">
+      <c r="I27" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="J2" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="30" t="n">
+      <c r="J27" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="n">
+        <v>303001</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" s="34" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="F28" s="34" t="n">
+        <v>70</v>
+      </c>
+      <c r="G28" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I28" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" s="34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="n">
+        <v>304001</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="34" t="n">
+        <v>250</v>
+      </c>
+      <c r="F29" s="34" t="n">
+        <v>300</v>
+      </c>
+      <c r="G29" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I29" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="n">
+        <v>305001</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D30" s="34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="34" t="n">
+        <v>350</v>
+      </c>
+      <c r="F30" s="34" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="n">
-        <v>102001</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="30" t="n">
+      <c r="G30" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J30" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="n">
+        <v>306001</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" s="34" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E31" s="34" t="n">
+        <v>400</v>
+      </c>
+      <c r="F31" s="34" t="n">
         <v>300</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" s="30" t="n">
+      <c r="G31" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="H3" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I3" s="30" t="n">
+      <c r="H31" s="34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="J3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="n">
-        <v>103001</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="30" t="n">
+      <c r="J31" s="34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K31" s="34" t="n">
         <v>400</v>
       </c>
-      <c r="E4" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I4" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" s="30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K4" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="n">
-        <v>104001</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="30" t="n">
-        <v>500</v>
-      </c>
-      <c r="E5" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="G5" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I5" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K5" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="n">
-        <v>105001</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="E6" s="30" t="n">
-        <v>130</v>
-      </c>
-      <c r="F6" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K6" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="n">
-        <v>106001</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="30" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>160</v>
-      </c>
-      <c r="F7" s="30" t="n">
-        <v>35</v>
-      </c>
-      <c r="G7" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="n">
-        <v>101002</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="30" t="n">
-        <v>350</v>
-      </c>
-      <c r="E8" s="30" t="n">
-        <v>80</v>
-      </c>
-      <c r="F8" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G8" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I8" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="n">
-        <v>102002</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="30" t="n">
-        <v>500</v>
-      </c>
-      <c r="E9" s="30" t="n">
-        <v>90</v>
-      </c>
-      <c r="F9" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="G9" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I9" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J9" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="n">
-        <v>103002</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="30" t="n">
-        <v>900</v>
-      </c>
-      <c r="E10" s="30" t="n">
-        <v>110</v>
-      </c>
-      <c r="F10" s="30" t="n">
-        <v>35</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I10" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" s="30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K10" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="n">
-        <v>104002</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" s="30" t="n">
-        <v>900</v>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>150</v>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>35</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J11" s="30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="n">
-        <v>105002</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D12" s="30" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E12" s="30" t="n">
-        <v>180</v>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>45</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J12" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M12" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="n">
-        <v>106002</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="D13" s="30" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E13" s="30" t="n">
-        <v>210</v>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="n">
-        <v>101003</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" s="30" t="n">
-        <v>500</v>
-      </c>
-      <c r="E14" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I14" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K14" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="n">
-        <v>102003</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" s="30" t="n">
-        <v>550</v>
-      </c>
-      <c r="E15" s="30" t="n">
-        <v>120</v>
-      </c>
-      <c r="F15" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I15" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K15" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="n">
-        <v>103003</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="E16" s="30" t="n">
-        <v>150</v>
-      </c>
-      <c r="F16" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I16" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K16" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M16" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="n">
-        <v>104003</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D17" s="30" t="n">
-        <v>600</v>
-      </c>
-      <c r="E17" s="30" t="n">
-        <v>180</v>
-      </c>
-      <c r="F17" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I17" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K17" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="n">
-        <v>105003</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18" s="30" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="E18" s="30" t="n">
-        <v>210</v>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K18" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="n">
-        <v>106003</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="30" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" s="30" t="n">
-        <v>800</v>
-      </c>
-      <c r="E19" s="30" t="n">
-        <v>250</v>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I19" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K19" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="n">
-        <v>201001</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" s="30" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E20" s="30" t="n">
-        <v>150</v>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I20" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J20" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K20" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="n">
-        <v>202001</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" s="30" t="n">
-        <v>700</v>
-      </c>
-      <c r="E21" s="30" t="n">
-        <v>180</v>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I21" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" s="30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K21" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M21" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="n">
-        <v>203001</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="30" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E22" s="30" t="n">
-        <v>220</v>
-      </c>
-      <c r="F22" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I22" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" s="30" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K22" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="n">
-        <v>204001</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="30" t="n">
-        <v>13</v>
-      </c>
-      <c r="D23" s="30" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E23" s="30" t="n">
-        <v>250</v>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>60</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I23" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J23" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M23" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="n">
-        <v>205001</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="30" t="n">
-        <v>16</v>
-      </c>
-      <c r="D24" s="30" t="n">
-        <v>1700</v>
-      </c>
-      <c r="E24" s="30" t="n">
-        <v>280</v>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>70</v>
-      </c>
-      <c r="G24" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I24" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" s="30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K24" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="n">
-        <v>206001</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="D25" s="30" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E25" s="30" t="n">
-        <v>320</v>
-      </c>
-      <c r="F25" s="30" t="n">
-        <v>70</v>
-      </c>
-      <c r="G25" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I25" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J25" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K25" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="n">
-        <v>301001</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E26" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="F26" s="30" t="n">
-        <v>50</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I26" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J26" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="n">
-        <v>302001</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D27" s="30" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="30" t="n">
-        <v>150</v>
-      </c>
-      <c r="F27" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I27" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="n">
-        <v>303001</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="30" t="n">
-        <v>15</v>
-      </c>
-      <c r="D28" s="30" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>70</v>
-      </c>
-      <c r="G28" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I28" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" s="30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K28" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="M28" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="n">
-        <v>304001</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" s="30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="30" t="n">
-        <v>250</v>
-      </c>
-      <c r="F29" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="G29" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I29" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J29" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L29" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="n">
-        <v>305001</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C30" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="D30" s="30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E30" s="30" t="n">
-        <v>350</v>
-      </c>
-      <c r="F30" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="G30" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I30" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K30" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="n">
-        <v>306001</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="D31" s="30" t="n">
-        <v>4000</v>
-      </c>
-      <c r="E31" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="F31" s="30" t="n">
-        <v>300</v>
-      </c>
-      <c r="G31" s="30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I31" s="30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" s="30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K31" s="30" t="n">
-        <v>400</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="M31" s="31" t="s">
-        <v>175</v>
+      <c r="L31" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -8387,340 +8428,340 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="F1" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="J1" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="K1" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="M1" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="33"/>
+      <c r="N1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="37" t="n">
         <v>101</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="33" t="n">
+      <c r="B2" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="37" t="n">
         <v>3000</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="37" t="n">
         <v>3000</v>
       </c>
-      <c r="E2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33" t="n">
+      <c r="E2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="37" t="n">
         <v>110</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="37" t="n">
         <v>60</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K2" s="33" t="n">
+      <c r="K2" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L2" s="34" t="n">
+      <c r="L2" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="M2" s="33" t="n">
+      <c r="M2" s="37" t="n">
         <v>1.05</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" s="35"/>
+      <c r="N2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="37" t="n">
         <v>102</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="33" t="n">
+      <c r="B3" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="37" t="n">
         <v>2500</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="37" t="n">
         <v>2500</v>
       </c>
-      <c r="E3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="33" t="n">
+      <c r="E3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37" t="n">
         <v>70</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="I3" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="J3" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K3" s="33" t="n">
+      <c r="K3" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L3" s="34" t="n">
+      <c r="L3" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="M3" s="33" t="n">
+      <c r="M3" s="37" t="n">
         <v>1.15</v>
       </c>
-      <c r="N3" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="P3" s="35"/>
+      <c r="N3" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="37" t="n">
         <v>103</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="33" t="n">
+      <c r="B4" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="37" t="n">
         <v>2500</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="37" t="n">
         <v>2500</v>
       </c>
-      <c r="E4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="33" t="n">
+      <c r="E4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37" t="n">
         <v>100</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="I4" s="37" t="n">
         <v>40</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="J4" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K4" s="33" t="n">
+      <c r="K4" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L4" s="34" t="n">
+      <c r="L4" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="37" t="n">
         <v>1.3</v>
       </c>
-      <c r="N4" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="P4" s="35"/>
+      <c r="N4" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="37" t="n">
         <v>104</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="B5" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="37" t="n">
         <v>2000</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="37" t="n">
         <v>2000</v>
       </c>
-      <c r="E5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="33" t="n">
+      <c r="E5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37" t="n">
         <v>30</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="37" t="n">
         <v>30</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="J5" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K5" s="33" t="n">
+      <c r="K5" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L5" s="34" t="n">
+      <c r="L5" s="38" t="n">
         <v>0.1</v>
       </c>
-      <c r="M5" s="33" t="n">
+      <c r="M5" s="37" t="n">
         <v>1.45</v>
       </c>
-      <c r="N5" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="P5" s="35"/>
+      <c r="N5" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="37" t="n">
         <v>105</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="B6" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="37" t="n">
         <v>4000</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="37" t="n">
         <v>4000</v>
       </c>
-      <c r="E6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="33" t="n">
+      <c r="E6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="37" t="n">
         <v>100</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="33" t="n">
+      <c r="K6" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L6" s="34" t="n">
+      <c r="L6" s="38" t="n">
         <v>0.08</v>
       </c>
-      <c r="M6" s="33" t="n">
+      <c r="M6" s="37" t="n">
         <v>0.8</v>
       </c>
-      <c r="N6" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="P6" s="35"/>
+      <c r="N6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="P6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="37" t="n">
         <v>106</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="33" t="n">
+      <c r="B7" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="37" t="n">
         <v>2000</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="37" t="n">
         <v>2000</v>
       </c>
-      <c r="E7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="33" t="n">
+      <c r="E7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37" t="n">
         <v>110</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="37" t="n">
         <v>30</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="J7" s="37" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="33" t="n">
+      <c r="K7" s="37" t="n">
         <v>1.5</v>
       </c>
-      <c r="L7" s="34" t="n">
+      <c r="L7" s="38" t="n">
         <v>0.15</v>
       </c>
-      <c r="M7" s="33" t="n">
+      <c r="M7" s="37" t="n">
         <v>1.2</v>
       </c>
-      <c r="N7" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="P7" s="35"/>
+      <c r="N7" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="39"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8741,7 +8782,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8767,197 +8808,197 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="A1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="C1" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="D1" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="E1" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="F1" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="H1" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="I1" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="J1" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="K1" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="L1" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="S1" s="33"/>
+      <c r="M1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="37" t="n">
         <v>110101</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="33" t="n">
+      <c r="B2" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="37" t="n">
         <v>101001</v>
       </c>
-      <c r="D2" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="n">
+      <c r="D2" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N2" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="33" t="n">
+      <c r="N2" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="37" t="n">
         <v>10401</v>
       </c>
-      <c r="P2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="33" t="n">
+      <c r="P2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="37" t="n">
         <v>10101</v>
       </c>
-      <c r="R2" s="33" t="n">
+      <c r="R2" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="S2" s="35"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="37" t="n">
         <v>110102</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="33" t="n">
+      <c r="B3" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="37" t="n">
         <v>101002</v>
       </c>
-      <c r="D3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33" t="n">
+      <c r="D3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="37" t="n">
         <v>101001</v>
       </c>
-      <c r="F3" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35" t="n">
+      <c r="F3" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="33" t="n">
+      <c r="N3" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="37" t="n">
         <v>10201</v>
       </c>
-      <c r="P3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
+      <c r="P3" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="37" t="n">
         <v>110103</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="33" t="n">
+      <c r="B4" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="37" t="n">
         <v>101002</v>
       </c>
-      <c r="D4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="33" t="n">
+      <c r="D4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="37" t="n">
         <v>101001</v>
       </c>
-      <c r="F4" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35" t="n">
+      <c r="F4" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N4" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="33" t="n">
+      <c r="N4" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="37" t="n">
         <v>10401</v>
       </c>
-      <c r="P4" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="33" t="n">
+      <c r="P4" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="37" t="n">
         <v>10101</v>
       </c>
-      <c r="R4" s="35" t="n">
+      <c r="R4" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="S4" s="35"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>110201</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="35" t="n">
+      <c r="B5" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="39" t="n">
         <v>101002</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -8969,13 +9010,13 @@
       <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="35" t="n">
+      <c r="M5" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="33" t="n">
+      <c r="N5" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P5" s="0" t="n">
@@ -8986,8 +9027,8 @@
       <c r="A6" s="0" t="n">
         <v>110202</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>220</v>
+      <c r="B6" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>101002</v>
@@ -8995,13 +9036,13 @@
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="35" t="n">
+      <c r="M6" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N6" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="33" t="n">
+      <c r="N6" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="37" t="n">
         <v>10601</v>
       </c>
       <c r="P6" s="0" t="n">
@@ -9012,8 +9053,8 @@
       <c r="A7" s="0" t="n">
         <v>110203</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>220</v>
+      <c r="B7" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>101003</v>
@@ -9027,19 +9068,19 @@
       <c r="F7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="35" t="n">
+      <c r="M7" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N7" s="35" t="n">
+      <c r="N7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="33" t="n">
+      <c r="O7" s="37" t="n">
         <v>10401</v>
       </c>
       <c r="P7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" s="33" t="n">
+      <c r="Q7" s="37" t="n">
         <v>10101</v>
       </c>
       <c r="R7" s="0" t="n">
@@ -9050,8 +9091,8 @@
       <c r="A8" s="0" t="n">
         <v>110301</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>220</v>
+      <c r="B8" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>101002</v>
@@ -9065,13 +9106,13 @@
       <c r="F8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="35" t="n">
+      <c r="M8" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N8" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="33" t="n">
+      <c r="N8" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="37" t="n">
         <v>10602</v>
       </c>
       <c r="P8" s="0" t="n">
@@ -9082,8 +9123,8 @@
       <c r="A9" s="0" t="n">
         <v>110302</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>220</v>
+      <c r="B9" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>201001</v>
@@ -9103,13 +9144,13 @@
       <c r="H9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M9" s="35" t="n">
+      <c r="M9" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N9" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="33" t="n">
+      <c r="N9" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P9" s="0" t="n">
@@ -9120,8 +9161,8 @@
       <c r="A10" s="0" t="n">
         <v>110303</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>220</v>
+      <c r="B10" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>301001</v>
@@ -9129,19 +9170,19 @@
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="35" t="n">
+      <c r="M10" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N10" s="35" t="n">
+      <c r="N10" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O10" s="33" t="n">
+      <c r="O10" s="37" t="n">
         <v>10401</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" s="33" t="n">
+      <c r="Q10" s="37" t="n">
         <v>10101</v>
       </c>
       <c r="R10" s="0" t="n">
@@ -9149,11 +9190,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="37" t="n">
         <v>120101</v>
       </c>
-      <c r="B11" s="33" t="s">
-        <v>220</v>
+      <c r="B11" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>102001</v>
@@ -9161,13 +9202,13 @@
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="35" t="n">
+      <c r="M11" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N11" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" s="33" t="n">
+      <c r="N11" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P11" s="0" t="n">
@@ -9175,11 +9216,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="37" t="n">
         <v>120102</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>220</v>
+      <c r="B12" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>102002</v>
@@ -9193,13 +9234,13 @@
       <c r="F12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M12" s="35" t="n">
+      <c r="M12" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N12" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" s="33" t="n">
+      <c r="N12" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" s="37" t="n">
         <v>10603</v>
       </c>
       <c r="P12" s="0" t="n">
@@ -9207,11 +9248,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+      <c r="A13" s="37" t="n">
         <v>120103</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>220</v>
+      <c r="B13" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>102002</v>
@@ -9225,19 +9266,19 @@
       <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="35" t="n">
+      <c r="M13" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N13" s="35" t="n">
+      <c r="N13" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="33" t="n">
+      <c r="O13" s="37" t="n">
         <v>10401</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="33" t="n">
+      <c r="Q13" s="37" t="n">
         <v>10102</v>
       </c>
       <c r="R13" s="0" t="n">
@@ -9248,8 +9289,8 @@
       <c r="A14" s="0" t="n">
         <v>120201</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>220</v>
+      <c r="B14" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>102002</v>
@@ -9263,13 +9304,13 @@
       <c r="F14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M14" s="35" t="n">
+      <c r="M14" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N14" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" s="33" t="n">
+      <c r="N14" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P14" s="0" t="n">
@@ -9280,8 +9321,8 @@
       <c r="A15" s="0" t="n">
         <v>120202</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>220</v>
+      <c r="B15" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>102002</v>
@@ -9289,13 +9330,13 @@
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="35" t="n">
+      <c r="M15" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N15" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" s="33" t="n">
+      <c r="N15" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" s="37" t="n">
         <v>10604</v>
       </c>
       <c r="P15" s="0" t="n">
@@ -9306,8 +9347,8 @@
       <c r="A16" s="0" t="n">
         <v>120203</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>220</v>
+      <c r="B16" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>102003</v>
@@ -9321,19 +9362,19 @@
       <c r="F16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M16" s="35" t="n">
+      <c r="M16" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N16" s="35" t="n">
+      <c r="N16" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O16" s="33" t="n">
+      <c r="O16" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" s="33" t="n">
+      <c r="Q16" s="37" t="n">
         <v>10102</v>
       </c>
       <c r="R16" s="0" t="n">
@@ -9344,8 +9385,8 @@
       <c r="A17" s="0" t="n">
         <v>120301</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>220</v>
+      <c r="B17" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>102002</v>
@@ -9359,13 +9400,13 @@
       <c r="F17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="35" t="n">
+      <c r="M17" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N17" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" s="33" t="n">
+      <c r="N17" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" s="37" t="n">
         <v>10603</v>
       </c>
       <c r="P17" s="0" t="n">
@@ -9376,8 +9417,8 @@
       <c r="A18" s="0" t="n">
         <v>120302</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>220</v>
+      <c r="B18" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>202001</v>
@@ -9397,13 +9438,13 @@
       <c r="H18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M18" s="35" t="n">
+      <c r="M18" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N18" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="33" t="n">
+      <c r="N18" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="37" t="n">
         <v>10601</v>
       </c>
       <c r="P18" s="0" t="n">
@@ -9414,8 +9455,8 @@
       <c r="A19" s="0" t="n">
         <v>120303</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>220</v>
+      <c r="B19" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>302001</v>
@@ -9423,19 +9464,19 @@
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M19" s="35" t="n">
+      <c r="M19" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N19" s="35" t="n">
+      <c r="N19" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O19" s="33" t="n">
+      <c r="O19" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" s="33" t="n">
+      <c r="Q19" s="37" t="n">
         <v>10102</v>
       </c>
       <c r="R19" s="0" t="n">
@@ -9443,11 +9484,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="n">
+      <c r="A20" s="37" t="n">
         <v>130101</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>221</v>
+      <c r="B20" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>103001</v>
@@ -9455,13 +9496,13 @@
       <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M20" s="35" t="n">
+      <c r="M20" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N20" s="35" t="n">
+      <c r="N20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="33" t="n">
+      <c r="O20" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P20" s="0" t="n">
@@ -9469,11 +9510,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="33" t="n">
+      <c r="A21" s="37" t="n">
         <v>130102</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>221</v>
+      <c r="B21" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>103002</v>
@@ -9487,13 +9528,13 @@
       <c r="F21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M21" s="35" t="n">
+      <c r="M21" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N21" s="35" t="n">
+      <c r="N21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="33" t="n">
+      <c r="O21" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P21" s="0" t="n">
@@ -9501,11 +9542,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33" t="n">
+      <c r="A22" s="37" t="n">
         <v>130103</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>221</v>
+      <c r="B22" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>103002</v>
@@ -9519,19 +9560,19 @@
       <c r="F22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M22" s="35" t="n">
+      <c r="M22" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N22" s="35" t="n">
+      <c r="N22" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O22" s="33" t="n">
+      <c r="O22" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q22" s="33" t="n">
+      <c r="Q22" s="37" t="n">
         <v>10102</v>
       </c>
       <c r="R22" s="0" t="n">
@@ -9542,8 +9583,8 @@
       <c r="A23" s="0" t="n">
         <v>130201</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>221</v>
+      <c r="B23" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>103002</v>
@@ -9557,13 +9598,13 @@
       <c r="F23" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M23" s="35" t="n">
+      <c r="M23" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N23" s="35" t="n">
+      <c r="N23" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O23" s="33" t="n">
+      <c r="O23" s="37" t="n">
         <v>10605</v>
       </c>
       <c r="P23" s="0" t="n">
@@ -9574,8 +9615,8 @@
       <c r="A24" s="0" t="n">
         <v>130202</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>221</v>
+      <c r="B24" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>103002</v>
@@ -9583,13 +9624,13 @@
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M24" s="35" t="n">
+      <c r="M24" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N24" s="35" t="n">
+      <c r="N24" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O24" s="33" t="n">
+      <c r="O24" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P24" s="0" t="n">
@@ -9600,8 +9641,8 @@
       <c r="A25" s="0" t="n">
         <v>130203</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>221</v>
+      <c r="B25" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>103003</v>
@@ -9615,19 +9656,19 @@
       <c r="F25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M25" s="35" t="n">
+      <c r="M25" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N25" s="35" t="n">
+      <c r="N25" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O25" s="33" t="n">
+      <c r="O25" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q25" s="33" t="n">
+      <c r="Q25" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R25" s="0" t="n">
@@ -9638,8 +9679,8 @@
       <c r="A26" s="0" t="n">
         <v>130301</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>221</v>
+      <c r="B26" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>103002</v>
@@ -9653,13 +9694,13 @@
       <c r="F26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M26" s="35" t="n">
+      <c r="M26" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N26" s="35" t="n">
+      <c r="N26" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O26" s="33" t="n">
+      <c r="O26" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P26" s="0" t="n">
@@ -9670,8 +9711,8 @@
       <c r="A27" s="0" t="n">
         <v>130302</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>221</v>
+      <c r="B27" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>203001</v>
@@ -9691,13 +9732,13 @@
       <c r="H27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M27" s="35" t="n">
+      <c r="M27" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N27" s="35" t="n">
+      <c r="N27" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O27" s="33" t="n">
+      <c r="O27" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P27" s="0" t="n">
@@ -9708,8 +9749,8 @@
       <c r="A28" s="0" t="n">
         <v>130303</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>221</v>
+      <c r="B28" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>303001</v>
@@ -9717,19 +9758,19 @@
       <c r="D28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M28" s="35" t="n">
+      <c r="M28" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N28" s="35" t="n">
+      <c r="N28" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O28" s="33" t="n">
+      <c r="O28" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q28" s="33" t="n">
+      <c r="Q28" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R28" s="0" t="n">
@@ -9737,11 +9778,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="n">
+      <c r="A29" s="37" t="n">
         <v>140101</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>222</v>
+      <c r="B29" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>104001</v>
@@ -9749,13 +9790,13 @@
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M29" s="35" t="n">
+      <c r="M29" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N29" s="35" t="n">
+      <c r="N29" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O29" s="33" t="n">
+      <c r="O29" s="37" t="n">
         <v>10606</v>
       </c>
       <c r="P29" s="0" t="n">
@@ -9763,11 +9804,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="33" t="n">
+      <c r="A30" s="37" t="n">
         <v>140102</v>
       </c>
-      <c r="B30" s="33" t="s">
-        <v>222</v>
+      <c r="B30" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>104002</v>
@@ -9781,19 +9822,19 @@
       <c r="F30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M30" s="35" t="n">
+      <c r="M30" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N30" s="35" t="n">
+      <c r="N30" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O30" s="33" t="n">
+      <c r="O30" s="37" t="n">
         <v>10601</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q30" s="33" t="n">
+      <c r="Q30" s="37" t="n">
         <v>10602</v>
       </c>
       <c r="R30" s="0" t="n">
@@ -9801,11 +9842,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="33" t="n">
+      <c r="A31" s="37" t="n">
         <v>140103</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>222</v>
+      <c r="B31" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>104002</v>
@@ -9819,19 +9860,19 @@
       <c r="F31" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M31" s="35" t="n">
+      <c r="M31" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N31" s="35" t="n">
+      <c r="N31" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="O31" s="33" t="n">
+      <c r="O31" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q31" s="33" t="n">
+      <c r="Q31" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R31" s="0" t="n">
@@ -9842,8 +9883,8 @@
       <c r="A32" s="0" t="n">
         <v>140201</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>222</v>
+      <c r="B32" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>104002</v>
@@ -9857,13 +9898,13 @@
       <c r="F32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M32" s="35" t="n">
+      <c r="M32" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N32" s="35" t="n">
+      <c r="N32" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O32" s="33" t="n">
+      <c r="O32" s="37" t="n">
         <v>10602</v>
       </c>
       <c r="P32" s="0" t="n">
@@ -9874,8 +9915,8 @@
       <c r="A33" s="0" t="n">
         <v>140202</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>222</v>
+      <c r="B33" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>104002</v>
@@ -9883,13 +9924,13 @@
       <c r="D33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M33" s="35" t="n">
+      <c r="M33" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N33" s="35" t="n">
+      <c r="N33" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O33" s="33" t="n">
+      <c r="O33" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P33" s="0" t="n">
@@ -9900,8 +9941,8 @@
       <c r="A34" s="0" t="n">
         <v>140203</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>222</v>
+      <c r="B34" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>104003</v>
@@ -9915,19 +9956,19 @@
       <c r="F34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M34" s="35" t="n">
+      <c r="M34" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N34" s="35" t="n">
+      <c r="N34" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="O34" s="33" t="n">
+      <c r="O34" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" s="33" t="n">
+      <c r="Q34" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R34" s="0" t="n">
@@ -9938,8 +9979,8 @@
       <c r="A35" s="0" t="n">
         <v>140301</v>
       </c>
-      <c r="B35" s="33" t="s">
-        <v>222</v>
+      <c r="B35" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>104002</v>
@@ -9953,13 +9994,13 @@
       <c r="F35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M35" s="35" t="n">
+      <c r="M35" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N35" s="35" t="n">
+      <c r="N35" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O35" s="33" t="n">
+      <c r="O35" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P35" s="0" t="n">
@@ -9970,8 +10011,8 @@
       <c r="A36" s="0" t="n">
         <v>140302</v>
       </c>
-      <c r="B36" s="33" t="s">
-        <v>222</v>
+      <c r="B36" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>204001</v>
@@ -9991,19 +10032,19 @@
       <c r="H36" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M36" s="35" t="n">
+      <c r="M36" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N36" s="35" t="n">
+      <c r="N36" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O36" s="33" t="n">
+      <c r="O36" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P36" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q36" s="33" t="n">
+      <c r="Q36" s="37" t="n">
         <v>10603</v>
       </c>
       <c r="R36" s="0" t="n">
@@ -10014,8 +10055,8 @@
       <c r="A37" s="0" t="n">
         <v>140303</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>222</v>
+      <c r="B37" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>304001</v>
@@ -10023,19 +10064,19 @@
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M37" s="35" t="n">
+      <c r="M37" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N37" s="35" t="n">
+      <c r="N37" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="O37" s="33" t="n">
+      <c r="O37" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="Q37" s="33" t="n">
+      <c r="Q37" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R37" s="0" t="n">
@@ -10043,11 +10084,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="33" t="n">
+      <c r="A38" s="37" t="n">
         <v>150101</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>222</v>
+      <c r="B38" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>105001</v>
@@ -10055,13 +10096,13 @@
       <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M38" s="35" t="n">
+      <c r="M38" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N38" s="35" t="n">
+      <c r="N38" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O38" s="33" t="n">
+      <c r="O38" s="37" t="n">
         <v>10604</v>
       </c>
       <c r="P38" s="0" t="n">
@@ -10069,11 +10110,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="33" t="n">
+      <c r="A39" s="37" t="n">
         <v>150102</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>222</v>
+      <c r="B39" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>105002</v>
@@ -10087,13 +10128,13 @@
       <c r="F39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M39" s="35" t="n">
+      <c r="M39" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N39" s="35" t="n">
+      <c r="N39" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O39" s="33" t="n">
+      <c r="O39" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P39" s="0" t="n">
@@ -10101,11 +10142,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="n">
+      <c r="A40" s="37" t="n">
         <v>150103</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>222</v>
+      <c r="B40" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>105002</v>
@@ -10119,19 +10160,19 @@
       <c r="F40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M40" s="35" t="n">
+      <c r="M40" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N40" s="35" t="n">
+      <c r="N40" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O40" s="33" t="n">
+      <c r="O40" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q40" s="33" t="n">
+      <c r="Q40" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R40" s="0" t="n">
@@ -10142,8 +10183,8 @@
       <c r="A41" s="0" t="n">
         <v>150201</v>
       </c>
-      <c r="B41" s="33" t="s">
-        <v>222</v>
+      <c r="B41" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>105002</v>
@@ -10157,13 +10198,13 @@
       <c r="F41" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M41" s="35" t="n">
+      <c r="M41" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N41" s="35" t="n">
+      <c r="N41" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O41" s="33" t="n">
+      <c r="O41" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P41" s="0" t="n">
@@ -10174,8 +10215,8 @@
       <c r="A42" s="0" t="n">
         <v>150202</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>222</v>
+      <c r="B42" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>105002</v>
@@ -10183,19 +10224,19 @@
       <c r="D42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M42" s="35" t="n">
+      <c r="M42" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N42" s="35" t="n">
+      <c r="N42" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O42" s="33" t="n">
+      <c r="O42" s="37" t="n">
         <v>10606</v>
       </c>
       <c r="P42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q42" s="33" t="n">
+      <c r="Q42" s="37" t="n">
         <v>10605</v>
       </c>
       <c r="R42" s="0" t="n">
@@ -10206,8 +10247,8 @@
       <c r="A43" s="0" t="n">
         <v>150203</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>222</v>
+      <c r="B43" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>105003</v>
@@ -10221,19 +10262,19 @@
       <c r="F43" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M43" s="35" t="n">
+      <c r="M43" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N43" s="35" t="n">
+      <c r="N43" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O43" s="33" t="n">
+      <c r="O43" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" s="33" t="n">
+      <c r="Q43" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R43" s="0" t="n">
@@ -10244,8 +10285,8 @@
       <c r="A44" s="0" t="n">
         <v>150301</v>
       </c>
-      <c r="B44" s="33" t="s">
-        <v>222</v>
+      <c r="B44" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>105002</v>
@@ -10259,13 +10300,13 @@
       <c r="F44" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M44" s="35" t="n">
+      <c r="M44" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N44" s="35" t="n">
+      <c r="N44" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O44" s="33" t="n">
+      <c r="O44" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P44" s="0" t="n">
@@ -10276,8 +10317,8 @@
       <c r="A45" s="0" t="n">
         <v>150302</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>222</v>
+      <c r="B45" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>205001</v>
@@ -10297,13 +10338,13 @@
       <c r="H45" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M45" s="35" t="n">
+      <c r="M45" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N45" s="35" t="n">
+      <c r="N45" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O45" s="33" t="n">
+      <c r="O45" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P45" s="0" t="n">
@@ -10314,8 +10355,8 @@
       <c r="A46" s="0" t="n">
         <v>150303</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>222</v>
+      <c r="B46" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>305001</v>
@@ -10323,19 +10364,19 @@
       <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M46" s="35" t="n">
+      <c r="M46" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N46" s="35" t="n">
+      <c r="N46" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O46" s="33" t="n">
+      <c r="O46" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" s="33" t="n">
+      <c r="Q46" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R46" s="0" t="n">
@@ -10343,11 +10384,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="33" t="n">
+      <c r="A47" s="37" t="n">
         <v>160101</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>222</v>
+      <c r="B47" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>106001</v>
@@ -10355,13 +10396,13 @@
       <c r="D47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M47" s="35" t="n">
+      <c r="M47" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N47" s="35" t="n">
+      <c r="N47" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O47" s="33" t="n">
+      <c r="O47" s="37" t="n">
         <v>10604</v>
       </c>
       <c r="P47" s="0" t="n">
@@ -10369,11 +10410,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="33" t="n">
+      <c r="A48" s="37" t="n">
         <v>160102</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>222</v>
+      <c r="B48" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>106002</v>
@@ -10387,13 +10428,13 @@
       <c r="F48" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M48" s="35" t="n">
+      <c r="M48" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N48" s="35" t="n">
+      <c r="N48" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O48" s="33" t="n">
+      <c r="O48" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P48" s="0" t="n">
@@ -10401,11 +10442,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="33" t="n">
+      <c r="A49" s="37" t="n">
         <v>160103</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>222</v>
+      <c r="B49" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>106002</v>
@@ -10419,19 +10460,19 @@
       <c r="F49" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M49" s="35" t="n">
+      <c r="M49" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N49" s="35" t="n">
+      <c r="N49" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O49" s="33" t="n">
+      <c r="O49" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" s="33" t="n">
+      <c r="Q49" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R49" s="0" t="n">
@@ -10442,8 +10483,8 @@
       <c r="A50" s="0" t="n">
         <v>160201</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>222</v>
+      <c r="B50" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>106002</v>
@@ -10457,13 +10498,13 @@
       <c r="F50" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M50" s="35" t="n">
+      <c r="M50" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N50" s="35" t="n">
+      <c r="N50" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O50" s="33" t="n">
+      <c r="O50" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P50" s="0" t="n">
@@ -10474,8 +10515,8 @@
       <c r="A51" s="0" t="n">
         <v>160202</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>222</v>
+      <c r="B51" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>106002</v>
@@ -10483,19 +10524,19 @@
       <c r="D51" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M51" s="35" t="n">
+      <c r="M51" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N51" s="35" t="n">
+      <c r="N51" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O51" s="33" t="n">
+      <c r="O51" s="37" t="n">
         <v>10606</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="Q51" s="33" t="n">
+      <c r="Q51" s="37" t="n">
         <v>10605</v>
       </c>
       <c r="R51" s="0" t="n">
@@ -10506,8 +10547,8 @@
       <c r="A52" s="0" t="n">
         <v>160203</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>222</v>
+      <c r="B52" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>106003</v>
@@ -10521,19 +10562,19 @@
       <c r="F52" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M52" s="35" t="n">
+      <c r="M52" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N52" s="35" t="n">
+      <c r="N52" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O52" s="33" t="n">
+      <c r="O52" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q52" s="33" t="n">
+      <c r="Q52" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R52" s="0" t="n">
@@ -10544,8 +10585,8 @@
       <c r="A53" s="0" t="n">
         <v>160301</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>222</v>
+      <c r="B53" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>106002</v>
@@ -10559,13 +10600,13 @@
       <c r="F53" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M53" s="35" t="n">
+      <c r="M53" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N53" s="35" t="n">
+      <c r="N53" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O53" s="33" t="n">
+      <c r="O53" s="37" t="n">
         <v>10301</v>
       </c>
       <c r="P53" s="0" t="n">
@@ -10576,8 +10617,8 @@
       <c r="A54" s="0" t="n">
         <v>160302</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>222</v>
+      <c r="B54" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>206001</v>
@@ -10597,13 +10638,13 @@
       <c r="H54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M54" s="35" t="n">
+      <c r="M54" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N54" s="35" t="n">
+      <c r="N54" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="O54" s="33" t="n">
+      <c r="O54" s="37" t="n">
         <v>10201</v>
       </c>
       <c r="P54" s="0" t="n">
@@ -10614,8 +10655,8 @@
       <c r="A55" s="0" t="n">
         <v>160303</v>
       </c>
-      <c r="B55" s="33" t="s">
-        <v>222</v>
+      <c r="B55" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>306001</v>
@@ -10623,19 +10664,19 @@
       <c r="D55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M55" s="35" t="n">
+      <c r="M55" s="39" t="n">
         <v>10501</v>
       </c>
-      <c r="N55" s="35" t="n">
+      <c r="N55" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="O55" s="33" t="n">
+      <c r="O55" s="37" t="n">
         <v>10402</v>
       </c>
       <c r="P55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="Q55" s="33" t="n">
+      <c r="Q55" s="37" t="n">
         <v>10103</v>
       </c>
       <c r="R55" s="0" t="n">
@@ -10673,382 +10714,382 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>227</v>
+      <c r="A1" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="n">
+      <c r="A2" s="41" t="n">
         <v>1101</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="37" t="n">
+      <c r="B2" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="41" t="n">
         <v>110101</v>
       </c>
-      <c r="E2" s="37" t="n">
+      <c r="E2" s="41" t="n">
         <v>110102</v>
       </c>
-      <c r="F2" s="37" t="n">
+      <c r="F2" s="41" t="n">
         <v>110103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="n">
+      <c r="A3" s="41" t="n">
         <v>1102</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="39" t="n">
+      <c r="B3" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="43" t="n">
         <v>110201</v>
       </c>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="43" t="n">
         <v>110202</v>
       </c>
-      <c r="F3" s="39" t="n">
+      <c r="F3" s="43" t="n">
         <v>110203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="n">
+      <c r="A4" s="41" t="n">
         <v>1103</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="39" t="n">
+      <c r="B4" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="43" t="n">
         <v>110301</v>
       </c>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="43" t="n">
         <v>110302</v>
       </c>
-      <c r="F4" s="39" t="n">
+      <c r="F4" s="43" t="n">
         <v>110303</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="n">
+      <c r="A5" s="41" t="n">
         <v>1201</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="37" t="n">
+      <c r="B5" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="41" t="n">
         <v>120101</v>
       </c>
-      <c r="E5" s="37" t="n">
+      <c r="E5" s="41" t="n">
         <v>120102</v>
       </c>
-      <c r="F5" s="37" t="n">
+      <c r="F5" s="41" t="n">
         <v>120103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="n">
+      <c r="A6" s="41" t="n">
         <v>1202</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="43" t="n">
+        <v>120201</v>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>120202</v>
+      </c>
+      <c r="F6" s="43" t="n">
+        <v>120203</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="43" t="n">
+        <v>120301</v>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>120302</v>
+      </c>
+      <c r="F7" s="43" t="n">
+        <v>120303</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="39" t="n">
-        <v>120201</v>
-      </c>
-      <c r="E6" s="39" t="n">
-        <v>120202</v>
-      </c>
-      <c r="F6" s="39" t="n">
-        <v>120203</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="39" t="n">
-        <v>120301</v>
-      </c>
-      <c r="E7" s="39" t="n">
-        <v>120302</v>
-      </c>
-      <c r="F7" s="39" t="n">
-        <v>120303</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="D8" s="41" t="n">
+        <v>130101</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>130102</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>130103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="37" t="n">
-        <v>130101</v>
-      </c>
-      <c r="E8" s="37" t="n">
-        <v>130102</v>
-      </c>
-      <c r="F8" s="37" t="n">
-        <v>130103</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="n">
-        <v>1302</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="39" t="n">
+      <c r="D9" s="43" t="n">
         <v>130201</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="43" t="n">
         <v>130202</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="F9" s="43" t="n">
         <v>130203</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="n">
+      <c r="A10" s="41" t="n">
         <v>1303</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="39" t="n">
+      <c r="D10" s="43" t="n">
         <v>130301</v>
       </c>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="43" t="n">
         <v>130302</v>
       </c>
-      <c r="F10" s="39" t="n">
+      <c r="F10" s="43" t="n">
         <v>130303</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="n">
+      <c r="A11" s="41" t="n">
         <v>1401</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="37" t="n">
+      <c r="B11" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="41" t="n">
         <v>140101</v>
       </c>
-      <c r="E11" s="37" t="n">
+      <c r="E11" s="41" t="n">
         <v>140102</v>
       </c>
-      <c r="F11" s="37" t="n">
+      <c r="F11" s="41" t="n">
         <v>140103</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="n">
+      <c r="A12" s="41" t="n">
         <v>1402</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" s="39" t="n">
+      <c r="B12" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="43" t="n">
         <v>140201</v>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="43" t="n">
         <v>140202</v>
       </c>
-      <c r="F12" s="39" t="n">
+      <c r="F12" s="43" t="n">
         <v>140203</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="n">
+      <c r="A13" s="41" t="n">
         <v>1403</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="39" t="n">
+      <c r="B13" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="43" t="n">
         <v>140301</v>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="43" t="n">
         <v>140302</v>
       </c>
-      <c r="F13" s="39" t="n">
+      <c r="F13" s="43" t="n">
         <v>140303</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="n">
+      <c r="A14" s="41" t="n">
         <v>1501</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="37" t="n">
+      <c r="B14" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="41" t="n">
         <v>150101</v>
       </c>
-      <c r="E14" s="37" t="n">
+      <c r="E14" s="41" t="n">
         <v>150102</v>
       </c>
-      <c r="F14" s="37" t="n">
+      <c r="F14" s="41" t="n">
         <v>150103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="n">
+      <c r="A15" s="41" t="n">
         <v>1502</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="39" t="n">
+      <c r="B15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="43" t="n">
         <v>150201</v>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="43" t="n">
         <v>150202</v>
       </c>
-      <c r="F15" s="39" t="n">
+      <c r="F15" s="43" t="n">
         <v>150203</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="n">
+      <c r="A16" s="41" t="n">
         <v>1503</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="39" t="n">
+      <c r="B16" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="43" t="n">
         <v>150301</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="43" t="n">
         <v>150302</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="43" t="n">
         <v>150303</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="n">
+      <c r="A17" s="41" t="n">
         <v>1601</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="37" t="n">
+      <c r="B17" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="41" t="n">
         <v>160101</v>
       </c>
-      <c r="E17" s="37" t="n">
+      <c r="E17" s="41" t="n">
         <v>160102</v>
       </c>
-      <c r="F17" s="37" t="n">
+      <c r="F17" s="41" t="n">
         <v>160103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="n">
+      <c r="A18" s="41" t="n">
         <v>1602</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="37" t="n">
+      <c r="B18" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="41" t="n">
         <v>160201</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="41" t="n">
         <v>160202</v>
       </c>
-      <c r="F18" s="37" t="n">
+      <c r="F18" s="41" t="n">
         <v>160203</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="n">
+      <c r="A19" s="41" t="n">
         <v>1603</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="D19" s="37" t="n">
+      <c r="B19" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="41" t="n">
         <v>160301</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="41" t="n">
         <v>160302</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="41" t="n">
         <v>160303</v>
       </c>
     </row>
@@ -11082,359 +11123,359 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>160</v>
+      <c r="A1" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
+      <c r="A2" s="37" t="n">
         <v>10101</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="E2" s="33" t="n">
+      <c r="B2" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="37" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>255</v>
+      <c r="F2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
+      <c r="A3" s="37" t="n">
         <v>10102</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="33" t="n">
+      <c r="B3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="F3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>255</v>
+      <c r="F3" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="37" t="n">
         <v>10103</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="E4" s="33" t="n">
+      <c r="B4" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="37" t="n">
         <v>100</v>
       </c>
-      <c r="F4" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>255</v>
+      <c r="F4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="37" t="n">
         <v>10201</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>263</v>
+      <c r="B5" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="37" t="n">
         <v>10301</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>267</v>
+      <c r="B6" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="37" t="n">
         <v>10401</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="33" t="n">
+      <c r="B7" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="37" t="n">
         <v>50</v>
       </c>
-      <c r="F7" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>271</v>
+      <c r="F7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="37" t="n">
         <v>10402</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" s="33" t="n">
+      <c r="B8" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="37" t="n">
         <v>150</v>
       </c>
-      <c r="F8" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>271</v>
+      <c r="F8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="37" t="n">
         <v>10501</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>277</v>
+      <c r="B9" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="37" t="n">
         <v>10601</v>
       </c>
-      <c r="B10" s="33" t="s">
-        <v>278</v>
+      <c r="B10" s="37" t="s">
+        <v>284</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="33" t="n">
+        <v>286</v>
+      </c>
+      <c r="E10" s="37" t="n">
         <v>101</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="37" t="n">
         <v>10602</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="33" t="n">
+        <v>286</v>
+      </c>
+      <c r="E11" s="37" t="n">
         <v>102</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="37" t="n">
         <v>10603</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="33" t="n">
+        <v>286</v>
+      </c>
+      <c r="E12" s="37" t="n">
         <v>103</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="37" t="n">
+        <v>10604</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
-        <v>10604</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="33" t="n">
+      <c r="E13" s="37" t="n">
         <v>104</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="n">
+      <c r="A14" s="37" t="n">
         <v>10605</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="33" t="n">
+        <v>286</v>
+      </c>
+      <c r="E14" s="37" t="n">
         <v>105</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
+      <c r="A15" s="37" t="n">
         <v>10606</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="33" t="n">
+        <v>286</v>
+      </c>
+      <c r="E15" s="37" t="n">
         <v>106</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="n">
+      <c r="A16" s="37" t="n">
         <v>10701</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -11468,98 +11509,98 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>183</v>
+      <c r="A1" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="n">
+      <c r="A2" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="n">
+      <c r="A3" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="n">
+      <c r="A4" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="37" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="n">
+      <c r="A5" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="n">
+      <c r="B5" s="37" t="n">
         <v>1400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="n">
+      <c r="A6" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="n">
+      <c r="B6" s="37" t="n">
         <v>2500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="n">
+      <c r="A7" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="n">
+      <c r="B7" s="37" t="n">
         <v>4000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="n">
+      <c r="A8" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="37" t="n">
         <v>6000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="n">
+      <c r="A9" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="n">
+      <c r="B9" s="37" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="n">
+      <c r="A10" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="37" t="n">
         <v>13000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="37" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="n">
+      <c r="B11" s="37" t="n">
         <v>18000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="n">
+      <c r="A12" s="37" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="33" t="n">
+      <c r="B12" s="37" t="n">
         <v>99999999</v>
       </c>
     </row>
